--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45984.58333333334</v>
+        <v>45985.79166666666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Нефтехимик – Салават Юлаев</t>
+          <t>Локомотив – Сибирь</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897806</v>
+        <v>897811</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897806.html</t>
+          <t>https://text.khl.ru/text/897811.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.176471</v>
+        <v>3.816985</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.117647</v>
       </c>
       <c r="J2" t="n">
-        <v>2.176471</v>
+        <v>4.934632</v>
       </c>
       <c r="K2" t="n">
-        <v>23.371129</v>
+        <v>35.165054</v>
       </c>
       <c r="L2" t="n">
-        <v>24.835423</v>
+        <v>20.258009</v>
       </c>
       <c r="M2" t="n">
-        <v>48.206552</v>
+        <v>55.423063</v>
       </c>
       <c r="N2" t="n">
-        <v>0.244569</v>
+        <v>0.79889</v>
       </c>
       <c r="O2" t="n">
-        <v>0.175076</v>
+        <v>0.092067</v>
       </c>
       <c r="P2" t="n">
-        <v>0.58019</v>
+        <v>0.099583</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.088825648385527</v>
+        <v>1.251736784788895</v>
       </c>
       <c r="R2" t="n">
-        <v>5.711805158902419</v>
+        <v>10.86165509900399</v>
       </c>
       <c r="S2" t="n">
-        <v>1.723573312190834</v>
+        <v>10.04187461715353</v>
       </c>
       <c r="T2" t="n">
-        <v>24.4569</v>
+        <v>79.889</v>
       </c>
       <c r="U2" t="n">
-        <v>17.5076</v>
+        <v>9.2067</v>
       </c>
       <c r="V2" t="n">
-        <v>58.019</v>
+        <v>9.958300000000001</v>
       </c>
       <c r="W2" t="n">
-        <v>0.507332</v>
+        <v>0.199104</v>
       </c>
       <c r="X2" t="n">
-        <v>0.492504</v>
+        <v>0.791435</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.03044036190569</v>
+        <v>1.263527642826006</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.680311</v>
+        <v>0.336547</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.319524</v>
+        <v>0.653992</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.129655362351498</v>
+        <v>1.529070691996232</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.813837</v>
+        <v>0.490706</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.185998</v>
+        <v>0.499833</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.376401896794589</v>
+        <v>2.000668223186544</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5482050000000001</v>
+        <v>0.949509</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.451795</v>
+        <v>0.050491</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.824135131930573</v>
+        <v>1.053175904599114</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.279419</v>
+        <v>0.8508869999999999</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.720581</v>
+        <v>0.149113</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.578854694920532</v>
+        <v>1.175244186360821</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.767918</v>
+        <v>0.593374</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.232082</v>
+        <v>0.406626</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.302222372701252</v>
+        <v>1.685277750626081</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.529143</v>
+        <v>0.322704</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.470857</v>
+        <v>0.677296</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.889848301876808</v>
+        <v>3.098815013138976</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.609905</v>
+        <v>0.945669</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.639599609775293</v>
+        <v>1.057452449006999</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.880381</v>
+        <v>0.321248</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.135871855480752</v>
+        <v>3.112859846598267</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45984.625</v>
+        <v>45985.8125</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Барыс – Авангард</t>
+          <t>Динамо М – Амур</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897805</v>
+        <v>897809</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897805.html</t>
+          <t>https://text.khl.ru/text/897809.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.531097</v>
+        <v>1.983158</v>
       </c>
       <c r="I3" t="n">
-        <v>5.375</v>
+        <v>3.411544</v>
       </c>
       <c r="J3" t="n">
-        <v>6.906097</v>
+        <v>5.394701</v>
       </c>
       <c r="K3" t="n">
-        <v>24.391571</v>
+        <v>29.463809</v>
       </c>
       <c r="L3" t="n">
-        <v>38.920941</v>
+        <v>33.087107</v>
       </c>
       <c r="M3" t="n">
-        <v>63.312512</v>
+        <v>62.550916</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06389499999999999</v>
+        <v>0.396516</v>
       </c>
       <c r="O3" t="n">
-        <v>0.078915</v>
+        <v>0.161561</v>
       </c>
       <c r="P3" t="n">
-        <v>0.850911</v>
+        <v>0.44098</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.65067689177557</v>
+        <v>2.521966326705606</v>
       </c>
       <c r="R3" t="n">
-        <v>12.67186213014002</v>
+        <v>6.189612592147857</v>
       </c>
       <c r="S3" t="n">
-        <v>1.175211038522243</v>
+        <v>2.267676538618531</v>
       </c>
       <c r="T3" t="n">
-        <v>6.389499999999999</v>
+        <v>39.65159999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>7.8915</v>
+        <v>16.1561</v>
       </c>
       <c r="V3" t="n">
-        <v>85.0911</v>
+        <v>44.098</v>
       </c>
       <c r="W3" t="n">
-        <v>0.299514</v>
+        <v>0.241218</v>
       </c>
       <c r="X3" t="n">
-        <v>0.694208</v>
+        <v>0.757839</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.440490458191205</v>
+        <v>1.31954148572454</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.462874</v>
+        <v>0.391581</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.530847</v>
+        <v>0.607476</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.883781956006156</v>
+        <v>1.646155568285825</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.623345</v>
+        <v>0.550654</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.370377</v>
+        <v>0.448403</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.699951670865091</v>
+        <v>2.230136729682897</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.419237</v>
+        <v>0.8155520000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.580763</v>
+        <v>0.184448</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.385285649883002</v>
+        <v>1.226163383818567</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.17434</v>
+        <v>0.599231</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.8256599999999999</v>
+        <v>0.400769</v>
       </c>
       <c r="AK3" t="n">
-        <v>5.735918320523116</v>
+        <v>1.668805519073613</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.936955</v>
+        <v>0.8346749999999999</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.063045</v>
+        <v>0.165325</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.067287116243576</v>
+        <v>1.198071105520113</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.822062</v>
+        <v>0.629565</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.177938</v>
+        <v>0.370435</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.216453260216383</v>
+        <v>1.588398338535338</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.267423</v>
+        <v>0.709696</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.739394143360892</v>
+        <v>1.409054017494815</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.969828</v>
+        <v>0.747436</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.031110671170558</v>
+        <v>1.337907192053902</v>
       </c>
     </row>
     <row r="4">
@@ -982,301 +982,150 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45984.70833333334</v>
+        <v>45985.8125</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Драконы – Ак Барс</t>
+          <t>ЦСКА – СКА</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897807</v>
+        <v>897810</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897807.html</t>
+          <t>https://text.khl.ru/text/897810.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3.920185</v>
+        <v>4.615385</v>
       </c>
       <c r="I4" t="n">
-        <v>4.269231</v>
+        <v>2.109924</v>
       </c>
       <c r="J4" t="n">
-        <v>8.189416</v>
+        <v>6.725309</v>
       </c>
       <c r="K4" t="n">
-        <v>30.116644</v>
+        <v>34.357697</v>
       </c>
       <c r="L4" t="n">
-        <v>40.303084</v>
+        <v>28.798769</v>
       </c>
       <c r="M4" t="n">
-        <v>70.41972699999999</v>
+        <v>63.156466</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3913</v>
+        <v>0.676504</v>
       </c>
       <c r="O4" t="n">
-        <v>0.149311</v>
+        <v>0.151808</v>
       </c>
       <c r="P4" t="n">
-        <v>0.456313</v>
+        <v>0.171278</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.555583950932788</v>
+        <v>1.478187859938744</v>
       </c>
       <c r="R4" t="n">
-        <v>6.697430196033782</v>
+        <v>6.587268128161889</v>
       </c>
       <c r="S4" t="n">
-        <v>2.191478217802254</v>
+        <v>5.838461448639054</v>
       </c>
       <c r="T4" t="n">
-        <v>39.13</v>
+        <v>67.6504</v>
       </c>
       <c r="U4" t="n">
-        <v>14.9311</v>
+        <v>15.1808</v>
       </c>
       <c r="V4" t="n">
-        <v>45.6313</v>
+        <v>17.1278</v>
       </c>
       <c r="W4" t="n">
-        <v>0.142799</v>
+        <v>0.487857</v>
       </c>
       <c r="X4" t="n">
-        <v>0.854125</v>
+        <v>0.511733</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.170788818966779</v>
+        <v>1.95414405559149</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.257388</v>
+        <v>0.662067</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.739536</v>
+        <v>0.337523</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.352199216806214</v>
+        <v>2.962761056283572</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.397903</v>
+        <v>0.7995949999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.599021</v>
+        <v>0.199996</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.669390555589871</v>
+        <v>5.00010000200004</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.870818</v>
+        <v>0.818617</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.129182</v>
+        <v>0.181383</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.148345578525019</v>
+        <v>1.221572481392397</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6909960000000001</v>
+        <v>0.604001</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.309004</v>
+        <v>0.395999</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.447186380239538</v>
+        <v>1.65562639796954</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.891991</v>
+        <v>0.479147</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.108009</v>
+        <v>0.520853</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.121087544605271</v>
+        <v>2.087042181209525</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.729908</v>
+        <v>0.219917</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.270092</v>
+        <v>0.780083</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.370035675728996</v>
+        <v>4.547170068707739</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.683723</v>
+        <v>0.924297</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.462580606473674</v>
+        <v>1.081903327610065</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.740144</v>
+        <v>0.509023</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.351088436844722</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45984.70833333334</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Северсталь</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Лада</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Северсталь – Лада</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>897808</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897808.html</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2.040247</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.274787</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.315034</v>
-      </c>
-      <c r="K5" t="n">
-        <v>29.392947</v>
-      </c>
-      <c r="L5" t="n">
-        <v>25.224363</v>
-      </c>
-      <c r="M5" t="n">
-        <v>54.617309</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.6165389999999999</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.153889</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.22879</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.621957410642312</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6.498190254014257</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.370820402989641</v>
-      </c>
-      <c r="T5" t="n">
-        <v>61.65389999999999</v>
-      </c>
-      <c r="U5" t="n">
-        <v>15.3889</v>
-      </c>
-      <c r="V5" t="n">
-        <v>22.879</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.352164</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.647054</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.545466066201584</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.523011</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.476207</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2.099927132528501</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.680604</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.318615</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>3.138584184674293</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.850367</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.149633</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.175962848981675</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.655533</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.344467</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1.525476215537585</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.6353</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.3647</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1.574059499449079</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.366248</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.633752</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>2.73039033660252</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.881422</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1.134530338475781</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0.556226</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>1.797830378299468</v>
+        <v>1.964547770925872</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,153 +1166,115 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45984.58333333334</v>
+        <v>45985.79166666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Нефтехимик – Салават Юлаев</t>
+          <t>Локомотив – Сибирь</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 23.11.2025
-Нефтехимик – Салават Юлаев
+          <t>КХЛ • Регулярный чемпионат • 24.11.2025
+Локомотив – Сибирь
 Ожидания модели (60’):
-• Голы: λ_total ≈ 4.63 (1.84 : 2.79)
-• Броски: SOG λ ≈ 48 (23 : 25)
+• Голы: λ_total ≈ 6.73 (4.73 : 2.00)
+• Броски: SOG λ ≈ 55 (35 : 20)
 Исход (60’), честные кф:
-• П1: 24.5%  (Kмод 4.09)
-• Х:  17.5%  (Kмод 5.71)
-• П2: 58.0%  (Kмод 1.72)
+• П1: 79.9%  (Kмод 1.25)
+• Х:  9.2%  (Kмод 10.86)
+• П2: 10.0%  (Kмод 10.04)
 Тоталы голов:
-• ТМ 4.5: 50.7%  (Kмод 1.97)
-• ТБ 4.5: 49.3%  (Kмод 2.03)
-• ТМ 5.5: 68.0%  (Kмод 1.47)
-• ТБ 5.5: 32.0%  (Kмод 3.13)
-• ТМ 6.5: 81.4%  (Kмод 1.23)
-• ТБ 6.5: 18.6%  (Kмод 5.38)
+• ТМ 4.5: 19.9%  (Kмод 5.02)
+• ТБ 4.5: 79.1%  (Kмод 1.26)
+• ТМ 5.5: 33.7%  (Kмод 2.97)
+• ТБ 5.5: 65.4%  (Kмод 1.53)
+• ТМ 6.5: 49.1%  (Kмод 2.04)
+• ТБ 6.5: 50.0%  (Kмод 2.00)
 Индивидуальные тоталы:
-• Нефтехимик ИТБ 1.5: 54.8% (Kмод 1.82)
-• Нефтехимик ИТБ 2.5: 27.9% (Kмод 3.58)
-• Салават Юлаев ИТБ 1.5: 76.8% (Kмод 1.30)
-• Салават Юлаев ИТБ 2.5: 52.9% (Kмод 1.89)
+• Локомотив ИТБ 1.5: 95.0% (Kмод 1.05)
+• Локомотив ИТБ 2.5: 85.1% (Kмод 1.18)
+• Сибирь ИТБ 1.5: 59.3% (Kмод 1.69)
+• Сибирь ИТБ 2.5: 32.3% (Kмод 3.10)
 Фора +1.5:
-• Нефтехимик +1.5: 61.0% (Kмод 1.64)
-• Салават Юлаев +1.5: 88.0% (Kмод 1.14)</t>
+• Локомотив +1.5: 94.6% (Kмод 1.06)
+• Сибирь +1.5: 32.1% (Kмод 3.11)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45984.625</v>
+        <v>45985.8125</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Барыс – Авангард</t>
+          <t>Динамо М – Амур</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 23.11.2025
-Барыс – Авангард
+          <t>КХЛ • Регулярный чемпионат • 24.11.2025
+Динамо М – Амур
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.89 (1.43 : 4.46)
-• Броски: SOG λ ≈ 63 (24 : 39)
+• Голы: λ_total ≈ 6.35 (3.10 : 3.25)
+• Броски: SOG λ ≈ 63 (29 : 33)
 Исход (60’), честные кф:
-• П1: 6.4%  (Kмод 15.65)
-• Х:  7.9%  (Kмод 12.67)
-• П2: 85.1%  (Kмод 1.18)
+• П1: 39.7%  (Kмод 2.52)
+• Х:  16.2%  (Kмод 6.19)
+• П2: 44.1%  (Kмод 2.27)
 Тоталы голов:
-• ТМ 4.5: 30.0%  (Kмод 3.34)
-• ТБ 4.5: 69.4%  (Kмод 1.44)
-• ТМ 5.5: 46.3%  (Kмод 2.16)
-• ТБ 5.5: 53.1%  (Kмод 1.88)
-• ТМ 6.5: 62.3%  (Kмод 1.60)
-• ТБ 6.5: 37.0%  (Kмод 2.70)
+• ТМ 4.5: 24.1%  (Kмод 4.15)
+• ТБ 4.5: 75.8%  (Kмод 1.32)
+• ТМ 5.5: 39.2%  (Kмод 2.55)
+• ТБ 5.5: 60.7%  (Kмод 1.65)
+• ТМ 6.5: 55.1%  (Kмод 1.82)
+• ТБ 6.5: 44.8%  (Kмод 2.23)
 Индивидуальные тоталы:
-• Барыс ИТБ 1.5: 41.9% (Kмод 2.39)
-• Барыс ИТБ 2.5: 17.4% (Kмод 5.74)
-• Авангард ИТБ 1.5: 93.7% (Kмод 1.07)
-• Авангард ИТБ 2.5: 82.2% (Kмод 1.22)
+• Динамо М ИТБ 1.5: 81.6% (Kмод 1.23)
+• Динамо М ИТБ 2.5: 59.9% (Kмод 1.67)
+• Амур ИТБ 1.5: 83.5% (Kмод 1.20)
+• Амур ИТБ 2.5: 63.0% (Kмод 1.59)
 Фора +1.5:
-• Барыс +1.5: 26.7% (Kмод 3.74)
-• Авангард +1.5: 97.0% (Kмод 1.03)</t>
+• Динамо М +1.5: 71.0% (Kмод 1.41)
+• Амур +1.5: 74.7% (Kмод 1.34)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45984.70833333334</v>
+        <v>45985.8125</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Драконы – Ак Барс</t>
+          <t>ЦСКА – СКА</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 23.11.2025
-Драконы – Ак Барс
+          <t>КХЛ • Регулярный чемпионат • 24.11.2025
+ЦСКА – СКА
 Ожидания модели (60’):
-• Голы: λ_total ≈ 7.36 (3.56 : 3.79)
-• Броски: SOG λ ≈ 70 (30 : 40)
+• Голы: λ_total ≈ 4.74 (3.12 : 1.61)
+• Броски: SOG λ ≈ 63 (34 : 29)
 Исход (60’), честные кф:
-• П1: 39.1%  (Kмод 2.56)
-• Х:  14.9%  (Kмод 6.70)
-• П2: 45.6%  (Kмод 2.19)
+• П1: 67.7%  (Kмод 1.48)
+• Х:  15.2%  (Kмод 6.59)
+• П2: 17.1%  (Kмод 5.84)
 Тоталы голов:
-• ТМ 4.5: 14.3%  (Kмод 7.00)
-• ТБ 4.5: 85.4%  (Kмод 1.17)
-• ТМ 5.5: 25.7%  (Kмод 3.89)
-• ТБ 5.5: 74.0%  (Kмод 1.35)
-• ТМ 6.5: 39.8%  (Kмод 2.51)
-• ТБ 6.5: 59.9%  (Kмод 1.67)
+• ТМ 4.5: 48.8%  (Kмод 2.05)
+• ТБ 4.5: 51.2%  (Kмод 1.95)
+• ТМ 5.5: 66.2%  (Kмод 1.51)
+• ТБ 5.5: 33.8%  (Kмод 2.96)
+• ТМ 6.5: 80.0%  (Kмод 1.25)
+• ТБ 6.5: 20.0%  (Kмод 5.00)
 Индивидуальные тоталы:
-• Драконы ИТБ 1.5: 87.1% (Kмод 1.15)
-• Драконы ИТБ 2.5: 69.1% (Kмод 1.45)
-• Ак Барс ИТБ 1.5: 89.2% (Kмод 1.12)
-• Ак Барс ИТБ 2.5: 73.0% (Kмод 1.37)
+• ЦСКА ИТБ 1.5: 81.9% (Kмод 1.22)
+• ЦСКА ИТБ 2.5: 60.4% (Kмод 1.66)
+• СКА ИТБ 1.5: 47.9% (Kмод 2.09)
+• СКА ИТБ 2.5: 22.0% (Kмод 4.55)
 Фора +1.5:
-• Драконы +1.5: 68.4% (Kмод 1.46)
-• Ак Барс +1.5: 74.0% (Kмод 1.35)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45984.70833333334</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Северсталь – Лада</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>КХЛ • Регулярный чемпионат • 23.11.2025
-Северсталь – Лада
-Ожидания модели (60’):
-• Голы: λ_total ≈ 5.53 (3.38 : 2.16)
-• Броски: SOG λ ≈ 55 (29 : 25)
-Исход (60’), честные кф:
-• П1: 61.7%  (Kмод 1.62)
-• Х:  15.4%  (Kмод 6.50)
-• П2: 22.9%  (Kмод 4.37)
-Тоталы голов:
-• ТМ 4.5: 35.2%  (Kмод 2.84)
-• ТБ 4.5: 64.7%  (Kмод 1.55)
-• ТМ 5.5: 52.3%  (Kмод 1.91)
-• ТБ 5.5: 47.6%  (Kмод 2.10)
-• ТМ 6.5: 68.1%  (Kмод 1.47)
-• ТБ 6.5: 31.9%  (Kмод 3.14)
-Индивидуальные тоталы:
-• Северсталь ИТБ 1.5: 85.0% (Kмод 1.18)
-• Северсталь ИТБ 2.5: 65.6% (Kмод 1.53)
-• Лада ИТБ 1.5: 63.5% (Kмод 1.57)
-• Лада ИТБ 2.5: 36.6% (Kмод 2.73)
-Фора +1.5:
-• Северсталь +1.5: 88.1% (Kмод 1.13)
-• Лада +1.5: 55.6% (Kмод 1.80)</t>
+• ЦСКА +1.5: 92.4% (Kмод 1.08)
+• СКА +1.5: 50.9% (Kмод 1.96)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45985.79166666666</v>
+        <v>45986.79166666666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Локомотив – Сибирь</t>
+          <t>Нефтехимик – Авангард</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897811</v>
+        <v>897814</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897811.html</t>
+          <t>https://text.khl.ru/text/897814.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3.816985</v>
+        <v>1.138889</v>
       </c>
       <c r="I2" t="n">
-        <v>1.117647</v>
+        <v>5.538462</v>
       </c>
       <c r="J2" t="n">
-        <v>4.934632</v>
+        <v>6.67735</v>
       </c>
       <c r="K2" t="n">
-        <v>35.165054</v>
+        <v>23.62224</v>
       </c>
       <c r="L2" t="n">
-        <v>20.258009</v>
+        <v>40.878477</v>
       </c>
       <c r="M2" t="n">
-        <v>55.423063</v>
+        <v>64.50071699999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0.79889</v>
+        <v>0.040577</v>
       </c>
       <c r="O2" t="n">
-        <v>0.092067</v>
+        <v>0.059853</v>
       </c>
       <c r="P2" t="n">
-        <v>0.099583</v>
+        <v>0.890176</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.251736784788895</v>
+        <v>24.64450304359612</v>
       </c>
       <c r="R2" t="n">
-        <v>10.86165509900399</v>
+        <v>16.70760028737072</v>
       </c>
       <c r="S2" t="n">
-        <v>10.04187461715353</v>
+        <v>1.123373355381408</v>
       </c>
       <c r="T2" t="n">
-        <v>79.889</v>
+        <v>4.057700000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>9.2067</v>
+        <v>5.985300000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>9.958300000000001</v>
+        <v>89.0176</v>
       </c>
       <c r="W2" t="n">
-        <v>0.199104</v>
+        <v>0.291673</v>
       </c>
       <c r="X2" t="n">
-        <v>0.791435</v>
+        <v>0.6989340000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.263527642826006</v>
+        <v>1.430750256819671</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.336547</v>
+        <v>0.453587</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.653992</v>
+        <v>0.5370200000000001</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.529070691996232</v>
+        <v>1.862128039924025</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.490706</v>
+        <v>0.614178</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.499833</v>
+        <v>0.376429</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.000668223186544</v>
+        <v>2.656543465035903</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.949509</v>
+        <v>0.345774</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.050491</v>
+        <v>0.654226</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.053175904599114</v>
+        <v>2.892062445412321</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.8508869999999999</v>
+        <v>0.125602</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.149113</v>
+        <v>0.874398</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.175244186360821</v>
+        <v>7.96165666151813</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.593374</v>
+        <v>0.949327</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.406626</v>
+        <v>0.050673</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.685277750626081</v>
+        <v>1.053377813967158</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.322704</v>
+        <v>0.850458</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.677296</v>
+        <v>0.149542</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.098815013138976</v>
+        <v>1.17583701958239</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.945669</v>
+        <v>0.205009</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.057452449006999</v>
+        <v>4.877834631650318</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.321248</v>
+        <v>0.977089</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.112859846598267</v>
+        <v>1.023448222219266</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45985.8125</v>
+        <v>45986.8125</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Динамо М – Амур</t>
+          <t>Спартак – Ак Барс</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897809</v>
+        <v>897812</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897809.html</t>
+          <t>https://text.khl.ru/text/897812.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.983158</v>
+        <v>4.588235</v>
       </c>
       <c r="I3" t="n">
-        <v>3.411544</v>
+        <v>3.665934</v>
       </c>
       <c r="J3" t="n">
-        <v>5.394701</v>
+        <v>8.254168999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>29.463809</v>
+        <v>36.153363</v>
       </c>
       <c r="L3" t="n">
-        <v>33.087107</v>
+        <v>34.978634</v>
       </c>
       <c r="M3" t="n">
-        <v>62.550916</v>
+        <v>71.131997</v>
       </c>
       <c r="N3" t="n">
-        <v>0.396516</v>
+        <v>0.348824</v>
       </c>
       <c r="O3" t="n">
-        <v>0.161561</v>
+        <v>0.141178</v>
       </c>
       <c r="P3" t="n">
-        <v>0.44098</v>
+        <v>0.503965</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.521966326705606</v>
+        <v>2.866775221888402</v>
       </c>
       <c r="R3" t="n">
-        <v>6.189612592147857</v>
+        <v>7.083256598053521</v>
       </c>
       <c r="S3" t="n">
-        <v>2.267676538618531</v>
+        <v>1.984264780292282</v>
       </c>
       <c r="T3" t="n">
-        <v>39.65159999999999</v>
+        <v>34.8824</v>
       </c>
       <c r="U3" t="n">
-        <v>16.1561</v>
+        <v>14.1178</v>
       </c>
       <c r="V3" t="n">
-        <v>44.098</v>
+        <v>50.3965</v>
       </c>
       <c r="W3" t="n">
-        <v>0.241218</v>
+        <v>0.10267</v>
       </c>
       <c r="X3" t="n">
-        <v>0.757839</v>
+        <v>0.891297</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.31954148572454</v>
+        <v>1.121960468844841</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.391581</v>
+        <v>0.19608</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.607476</v>
+        <v>0.797887</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.646155568285825</v>
+        <v>1.253310305845314</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.550654</v>
+        <v>0.319811</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.448403</v>
+        <v>0.674156</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.230136729682897</v>
+        <v>1.483336201116656</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.8155520000000001</v>
+        <v>0.882715</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.184448</v>
+        <v>0.117285</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.226163383818567</v>
+        <v>1.132868479633857</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.599231</v>
+        <v>0.712565</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.400769</v>
+        <v>0.287435</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.668805519073613</v>
+        <v>1.403380744212809</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.8346749999999999</v>
+        <v>0.925683</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.165325</v>
+        <v>0.07431699999999999</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.198071105520113</v>
+        <v>1.0802834231589</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.629565</v>
+        <v>0.797502</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.370435</v>
+        <v>0.202498</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.588398338535338</v>
+        <v>1.253915350682506</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.709696</v>
+        <v>0.631793</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.409054017494815</v>
+        <v>1.582796897084963</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.747436</v>
+        <v>0.767918</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.337907192053902</v>
+        <v>1.302222372701252</v>
       </c>
     </row>
     <row r="4">
@@ -982,150 +982,150 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45985.8125</v>
+        <v>45986.8125</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ЦСКА – СКА</t>
+          <t>ХК Сочи – Лада</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897810</v>
+        <v>897813</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897810.html</t>
+          <t>https://text.khl.ru/text/897813.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.615385</v>
+        <v>1.166667</v>
       </c>
       <c r="I4" t="n">
-        <v>2.109924</v>
+        <v>1.03125</v>
       </c>
       <c r="J4" t="n">
-        <v>6.725309</v>
+        <v>2.197917</v>
       </c>
       <c r="K4" t="n">
-        <v>34.357697</v>
+        <v>25.593223</v>
       </c>
       <c r="L4" t="n">
-        <v>28.798769</v>
+        <v>23.641989</v>
       </c>
       <c r="M4" t="n">
-        <v>63.156466</v>
+        <v>49.235212</v>
       </c>
       <c r="N4" t="n">
-        <v>0.676504</v>
+        <v>0.675169</v>
       </c>
       <c r="O4" t="n">
-        <v>0.151808</v>
+        <v>0.172768</v>
       </c>
       <c r="P4" t="n">
-        <v>0.171278</v>
+        <v>0.151996</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.478187859938744</v>
+        <v>1.481110655258165</v>
       </c>
       <c r="R4" t="n">
-        <v>6.587268128161889</v>
+        <v>5.788108909057232</v>
       </c>
       <c r="S4" t="n">
-        <v>5.838461448639054</v>
+        <v>6.579120503171136</v>
       </c>
       <c r="T4" t="n">
-        <v>67.6504</v>
+        <v>67.51690000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>15.1808</v>
+        <v>17.2768</v>
       </c>
       <c r="V4" t="n">
-        <v>17.1278</v>
+        <v>15.1996</v>
       </c>
       <c r="W4" t="n">
-        <v>0.487857</v>
+        <v>0.696346</v>
       </c>
       <c r="X4" t="n">
-        <v>0.511733</v>
+        <v>0.303588</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.95414405559149</v>
+        <v>3.293937836805144</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.662067</v>
+        <v>0.836799</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.337523</v>
+        <v>0.163135</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.962761056283572</v>
+        <v>6.129892420388022</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7995949999999999</v>
+        <v>0.922303</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.199996</v>
+        <v>0.07763100000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.00010000200004</v>
+        <v>12.88145199726913</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.818617</v>
+        <v>0.716851</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.181383</v>
+        <v>0.283149</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.221572481392397</v>
+        <v>1.394990032796216</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.604001</v>
+        <v>0.461394</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.395999</v>
+        <v>0.538606</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.65562639796954</v>
+        <v>2.16734504566596</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.479147</v>
+        <v>0.312776</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.520853</v>
+        <v>0.6872239999999999</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.087042181209525</v>
+        <v>3.197176253932527</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.219917</v>
+        <v>0.106172</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.780083</v>
+        <v>0.893828</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.547170068707739</v>
+        <v>9.418679124439588</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.924297</v>
+        <v>0.944574</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.081903327610065</v>
+        <v>1.058678303658581</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.509023</v>
+        <v>0.539866</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.964547770925872</v>
+        <v>1.852311499520251</v>
       </c>
     </row>
   </sheetData>
@@ -1166,115 +1166,115 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45985.79166666666</v>
+        <v>45986.79166666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Локомотив – Сибирь</t>
+          <t>Нефтехимик – Авангард</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 24.11.2025
-Локомотив – Сибирь
+          <t>КХЛ • Регулярный чемпионат • 25.11.2025
+Нефтехимик – Авангард
 Ожидания модели (60’):
-• Голы: λ_total ≈ 6.73 (4.73 : 2.00)
-• Броски: SOG λ ≈ 55 (35 : 20)
+• Голы: λ_total ≈ 5.95 (1.22 : 4.73)
+• Броски: SOG λ ≈ 65 (24 : 41)
 Исход (60’), честные кф:
-• П1: 79.9%  (Kмод 1.25)
-• Х:  9.2%  (Kмод 10.86)
-• П2: 10.0%  (Kмод 10.04)
+• П1: 4.1%  (Kмод 24.64)
+• Х:  6.0%  (Kмод 16.71)
+• П2: 89.0%  (Kмод 1.12)
 Тоталы голов:
-• ТМ 4.5: 19.9%  (Kмод 5.02)
-• ТБ 4.5: 79.1%  (Kмод 1.26)
-• ТМ 5.5: 33.7%  (Kмод 2.97)
-• ТБ 5.5: 65.4%  (Kмод 1.53)
-• ТМ 6.5: 49.1%  (Kмод 2.04)
-• ТБ 6.5: 50.0%  (Kмод 2.00)
+• ТМ 4.5: 29.2%  (Kмод 3.43)
+• ТБ 4.5: 69.9%  (Kмод 1.43)
+• ТМ 5.5: 45.4%  (Kмод 2.20)
+• ТБ 5.5: 53.7%  (Kмод 1.86)
+• ТМ 6.5: 61.4%  (Kмод 1.63)
+• ТБ 6.5: 37.6%  (Kмод 2.66)
 Индивидуальные тоталы:
-• Локомотив ИТБ 1.5: 95.0% (Kмод 1.05)
-• Локомотив ИТБ 2.5: 85.1% (Kмод 1.18)
-• Сибирь ИТБ 1.5: 59.3% (Kмод 1.69)
-• Сибирь ИТБ 2.5: 32.3% (Kмод 3.10)
+• Нефтехимик ИТБ 1.5: 34.6% (Kмод 2.89)
+• Нефтехимик ИТБ 2.5: 12.6% (Kмод 7.96)
+• Авангард ИТБ 1.5: 94.9% (Kмод 1.05)
+• Авангард ИТБ 2.5: 85.0% (Kмод 1.18)
 Фора +1.5:
-• Локомотив +1.5: 94.6% (Kмод 1.06)
-• Сибирь +1.5: 32.1% (Kмод 3.11)</t>
+• Нефтехимик +1.5: 20.5% (Kмод 4.88)
+• Авангард +1.5: 97.7% (Kмод 1.02)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45985.8125</v>
+        <v>45986.8125</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Динамо М – Амур</t>
+          <t>Спартак – Ак Барс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 24.11.2025
-Динамо М – Амур
+          <t>КХЛ • Регулярный чемпионат • 25.11.2025
+Спартак – Ак Барс
 Ожидания модели (60’):
-• Голы: λ_total ≈ 6.35 (3.10 : 3.25)
-• Броски: SOG λ ≈ 63 (29 : 33)
+• Голы: λ_total ≈ 7.95 (3.69 : 4.26)
+• Броски: SOG λ ≈ 71 (36 : 35)
 Исход (60’), честные кф:
-• П1: 39.7%  (Kмод 2.52)
-• Х:  16.2%  (Kмод 6.19)
-• П2: 44.1%  (Kмод 2.27)
+• П1: 34.9%  (Kмод 2.87)
+• Х:  14.1%  (Kмод 7.08)
+• П2: 50.4%  (Kмод 1.98)
 Тоталы голов:
-• ТМ 4.5: 24.1%  (Kмод 4.15)
-• ТБ 4.5: 75.8%  (Kмод 1.32)
-• ТМ 5.5: 39.2%  (Kмод 2.55)
-• ТБ 5.5: 60.7%  (Kмод 1.65)
-• ТМ 6.5: 55.1%  (Kмод 1.82)
-• ТБ 6.5: 44.8%  (Kмод 2.23)
+• ТМ 4.5: 10.3%  (Kмод 9.74)
+• ТБ 4.5: 89.1%  (Kмод 1.12)
+• ТМ 5.5: 19.6%  (Kмод 5.10)
+• ТБ 5.5: 79.8%  (Kмод 1.25)
+• ТМ 6.5: 32.0%  (Kмод 3.13)
+• ТБ 6.5: 67.4%  (Kмод 1.48)
 Индивидуальные тоталы:
-• Динамо М ИТБ 1.5: 81.6% (Kмод 1.23)
-• Динамо М ИТБ 2.5: 59.9% (Kмод 1.67)
-• Амур ИТБ 1.5: 83.5% (Kмод 1.20)
-• Амур ИТБ 2.5: 63.0% (Kмод 1.59)
+• Спартак ИТБ 1.5: 88.3% (Kмод 1.13)
+• Спартак ИТБ 2.5: 71.3% (Kмод 1.40)
+• Ак Барс ИТБ 1.5: 92.6% (Kмод 1.08)
+• Ак Барс ИТБ 2.5: 79.8% (Kмод 1.25)
 Фора +1.5:
-• Динамо М +1.5: 71.0% (Kмод 1.41)
-• Амур +1.5: 74.7% (Kмод 1.34)</t>
+• Спартак +1.5: 63.2% (Kмод 1.58)
+• Ак Барс +1.5: 76.8% (Kмод 1.30)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45985.8125</v>
+        <v>45986.8125</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ЦСКА – СКА</t>
+          <t>ХК Сочи – Лада</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 24.11.2025
-ЦСКА – СКА
+          <t>КХЛ • Регулярный чемпионат • 25.11.2025
+ХК Сочи – Лада
 Ожидания модели (60’):
-• Голы: λ_total ≈ 4.74 (3.12 : 1.61)
-• Броски: SOG λ ≈ 63 (34 : 29)
+• Голы: λ_total ≈ 3.65 (2.52 : 1.13)
+• Броски: SOG λ ≈ 49 (26 : 24)
 Исход (60’), честные кф:
-• П1: 67.7%  (Kмод 1.48)
-• Х:  15.2%  (Kмод 6.59)
-• П2: 17.1%  (Kмод 5.84)
+• П1: 67.5%  (Kмод 1.48)
+• Х:  17.3%  (Kмод 5.79)
+• П2: 15.2%  (Kмод 6.58)
 Тоталы голов:
-• ТМ 4.5: 48.8%  (Kмод 2.05)
-• ТБ 4.5: 51.2%  (Kмод 1.95)
-• ТМ 5.5: 66.2%  (Kмод 1.51)
-• ТБ 5.5: 33.8%  (Kмод 2.96)
-• ТМ 6.5: 80.0%  (Kмод 1.25)
-• ТБ 6.5: 20.0%  (Kмод 5.00)
+• ТМ 4.5: 69.6%  (Kмод 1.44)
+• ТБ 4.5: 30.4%  (Kмод 3.29)
+• ТМ 5.5: 83.7%  (Kмод 1.20)
+• ТБ 5.5: 16.3%  (Kмод 6.13)
+• ТМ 6.5: 92.2%  (Kмод 1.08)
+• ТБ 6.5: 7.8%  (Kмод 12.88)
 Индивидуальные тоталы:
-• ЦСКА ИТБ 1.5: 81.9% (Kмод 1.22)
-• ЦСКА ИТБ 2.5: 60.4% (Kмод 1.66)
-• СКА ИТБ 1.5: 47.9% (Kмод 2.09)
-• СКА ИТБ 2.5: 22.0% (Kмод 4.55)
+• ХК Сочи ИТБ 1.5: 71.7% (Kмод 1.39)
+• ХК Сочи ИТБ 2.5: 46.1% (Kмод 2.17)
+• Лада ИТБ 1.5: 31.3% (Kмод 3.20)
+• Лада ИТБ 2.5: 10.6% (Kмод 9.42)
 Фора +1.5:
-• ЦСКА +1.5: 92.4% (Kмод 1.08)
-• СКА +1.5: 50.9% (Kмод 1.96)</t>
+• ХК Сочи +1.5: 94.5% (Kмод 1.06)
+• Лада +1.5: 54.0% (Kмод 1.85)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45986.79166666666</v>
+        <v>45987.52083333334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Нефтехимик – Авангард</t>
+          <t>Адмирал – Амур</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897814</v>
+        <v>897818</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897814.html</t>
+          <t>https://text.khl.ru/text/897818.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.138889</v>
+        <v>1.91778</v>
       </c>
       <c r="I2" t="n">
-        <v>5.538462</v>
+        <v>2.626433</v>
       </c>
       <c r="J2" t="n">
-        <v>6.67735</v>
+        <v>4.544213</v>
       </c>
       <c r="K2" t="n">
-        <v>23.62224</v>
+        <v>29.99177</v>
       </c>
       <c r="L2" t="n">
-        <v>40.878477</v>
+        <v>28.61054</v>
       </c>
       <c r="M2" t="n">
-        <v>64.50071699999999</v>
+        <v>58.60231</v>
       </c>
       <c r="N2" t="n">
-        <v>0.040577</v>
+        <v>0.625932</v>
       </c>
       <c r="O2" t="n">
-        <v>0.059853</v>
+        <v>0.153208</v>
       </c>
       <c r="P2" t="n">
-        <v>0.890176</v>
+        <v>0.220113</v>
       </c>
       <c r="Q2" t="n">
-        <v>24.64450304359612</v>
+        <v>1.597617632586287</v>
       </c>
       <c r="R2" t="n">
-        <v>16.70760028737072</v>
+        <v>6.527074304213879</v>
       </c>
       <c r="S2" t="n">
-        <v>1.123373355381408</v>
+        <v>4.543121033287448</v>
       </c>
       <c r="T2" t="n">
-        <v>4.057700000000001</v>
+        <v>62.5932</v>
       </c>
       <c r="U2" t="n">
-        <v>5.985300000000001</v>
+        <v>15.3208</v>
       </c>
       <c r="V2" t="n">
-        <v>89.0176</v>
+        <v>22.0113</v>
       </c>
       <c r="W2" t="n">
-        <v>0.291673</v>
+        <v>0.365474</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6989340000000001</v>
+        <v>0.633778</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.430750256819671</v>
+        <v>1.577839558962287</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.453587</v>
+        <v>0.5376300000000001</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5370200000000001</v>
+        <v>0.461622</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.862128039924025</v>
+        <v>2.166274570969321</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.614178</v>
+        <v>0.693985</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.376429</v>
+        <v>0.305268</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.656543465035903</v>
+        <v>3.275810107839669</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.345774</v>
+        <v>0.848425</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.654226</v>
+        <v>0.151575</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.892062445412321</v>
+        <v>1.178654565813124</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.125602</v>
+        <v>0.652263</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.874398</v>
+        <v>0.347737</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.96165666151813</v>
+        <v>1.533123908607418</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.949327</v>
+        <v>0.61791</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.050673</v>
+        <v>0.38209</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.053377813967158</v>
+        <v>1.618358660646372</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.850458</v>
+        <v>0.347775</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.149542</v>
+        <v>0.6522250000000001</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.17583701958239</v>
+        <v>2.875422327654374</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.205009</v>
+        <v>0.8879050000000001</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.877834631650318</v>
+        <v>1.126246614221116</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.977089</v>
+        <v>0.548087</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.023448222219266</v>
+        <v>1.824527857803597</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45986.8125</v>
+        <v>45987.70833333334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Спартак – Ак Барс</t>
+          <t>Трактор – Драконы</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897812</v>
+        <v>897816</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897812.html</t>
+          <t>https://text.khl.ru/text/897816.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4.588235</v>
+        <v>4.435928</v>
       </c>
       <c r="I3" t="n">
-        <v>3.665934</v>
+        <v>3.568607</v>
       </c>
       <c r="J3" t="n">
-        <v>8.254168999999999</v>
+        <v>8.004535000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>36.153363</v>
+        <v>39.059641</v>
       </c>
       <c r="L3" t="n">
-        <v>34.978634</v>
+        <v>31.713169</v>
       </c>
       <c r="M3" t="n">
-        <v>71.131997</v>
+        <v>70.77281000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.348824</v>
+        <v>0.300991</v>
       </c>
       <c r="O3" t="n">
-        <v>0.141178</v>
+        <v>0.139072</v>
       </c>
       <c r="P3" t="n">
-        <v>0.503965</v>
+        <v>0.554329</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.866775221888402</v>
+        <v>3.322358475834826</v>
       </c>
       <c r="R3" t="n">
-        <v>7.083256598053521</v>
+        <v>7.190520018407732</v>
       </c>
       <c r="S3" t="n">
-        <v>1.984264780292282</v>
+        <v>1.803982833299358</v>
       </c>
       <c r="T3" t="n">
-        <v>34.8824</v>
+        <v>30.0991</v>
       </c>
       <c r="U3" t="n">
-        <v>14.1178</v>
+        <v>13.9072</v>
       </c>
       <c r="V3" t="n">
-        <v>50.3965</v>
+        <v>55.4329</v>
       </c>
       <c r="W3" t="n">
-        <v>0.10267</v>
+        <v>0.11946</v>
       </c>
       <c r="X3" t="n">
-        <v>0.891297</v>
+        <v>0.874932</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.121960468844841</v>
+        <v>1.142945966086507</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.19608</v>
+        <v>0.22231</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.797887</v>
+        <v>0.772082</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.253310305845314</v>
+        <v>1.295199214591196</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.319811</v>
+        <v>0.353962</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.674156</v>
+        <v>0.6404300000000001</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.483336201116656</v>
+        <v>1.561450900176444</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.882715</v>
+        <v>0.850654</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.117285</v>
+        <v>0.149346</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.132868479633857</v>
+        <v>1.175566093852495</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.712565</v>
+        <v>0.656018</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.287435</v>
+        <v>0.343982</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.403380744212809</v>
+        <v>1.524348417269038</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.925683</v>
+        <v>0.928213</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.07431699999999999</v>
+        <v>0.071787</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.0802834231589</v>
+        <v>1.07733892974996</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.797502</v>
+        <v>0.802916</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.202498</v>
+        <v>0.197084</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.253915350682506</v>
+        <v>1.245460297216645</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.631793</v>
+        <v>0.5863159999999999</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.582796897084963</v>
+        <v>1.705564917211879</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.767918</v>
+        <v>0.80824</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.302222372701252</v>
+        <v>1.237256260516678</v>
       </c>
     </row>
     <row r="4">
@@ -982,150 +982,301 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45986.8125</v>
+        <v>45987.79166666666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ХК Сочи – Лада</t>
+          <t>Северсталь – СКА</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897813</v>
+        <v>897817</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897813.html</t>
+          <t>https://text.khl.ru/text/897817.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.166667</v>
+        <v>1.464286</v>
       </c>
       <c r="I4" t="n">
-        <v>1.03125</v>
+        <v>2.390395</v>
       </c>
       <c r="J4" t="n">
-        <v>2.197917</v>
+        <v>3.854681</v>
       </c>
       <c r="K4" t="n">
-        <v>25.593223</v>
+        <v>24.993415</v>
       </c>
       <c r="L4" t="n">
-        <v>23.641989</v>
+        <v>27.964901</v>
       </c>
       <c r="M4" t="n">
-        <v>49.235212</v>
+        <v>52.958316</v>
       </c>
       <c r="N4" t="n">
-        <v>0.675169</v>
+        <v>0.317655</v>
       </c>
       <c r="O4" t="n">
-        <v>0.172768</v>
+        <v>0.231914</v>
       </c>
       <c r="P4" t="n">
-        <v>0.151996</v>
+        <v>0.450429</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.481110655258165</v>
+        <v>3.148069446411988</v>
       </c>
       <c r="R4" t="n">
-        <v>5.788108909057232</v>
+        <v>4.311943220331674</v>
       </c>
       <c r="S4" t="n">
-        <v>6.579120503171136</v>
+        <v>2.220105721434455</v>
       </c>
       <c r="T4" t="n">
-        <v>67.51690000000001</v>
+        <v>31.7655</v>
       </c>
       <c r="U4" t="n">
-        <v>17.2768</v>
+        <v>23.1914</v>
       </c>
       <c r="V4" t="n">
-        <v>15.1996</v>
+        <v>45.0429</v>
       </c>
       <c r="W4" t="n">
-        <v>0.696346</v>
+        <v>0.783058</v>
       </c>
       <c r="X4" t="n">
-        <v>0.303588</v>
+        <v>0.216939</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.293937836805144</v>
+        <v>4.609590714440465</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.836799</v>
+        <v>0.896154</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.163135</v>
+        <v>0.103844</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.129892420388022</v>
+        <v>9.62982935942375</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.922303</v>
+        <v>0.956212</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.07763100000000001</v>
+        <v>0.043785</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.88145199726913</v>
+        <v>22.83887175973507</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.716851</v>
+        <v>0.421034</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.283149</v>
+        <v>0.578966</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.394990032796216</v>
+        <v>2.375105098400604</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.461394</v>
+        <v>0.17563</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.538606</v>
+        <v>0.82437</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.16734504566596</v>
+        <v>5.693788077207766</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.312776</v>
+        <v>0.521747</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6872239999999999</v>
+        <v>0.478253</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.197176253932527</v>
+        <v>1.916637757380493</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.106172</v>
+        <v>0.255703</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.893828</v>
+        <v>0.744297</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9.418679124439588</v>
+        <v>3.910787124124472</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.944574</v>
+        <v>0.7598</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.058678303658581</v>
+        <v>1.316135825217162</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.539866</v>
+        <v>0.855151</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.852311499520251</v>
+        <v>1.169384120465275</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45987.8125</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Динамо М – Локомотив</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>897815</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897815.html</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2.014963</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.067992</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.082955</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24.33595</v>
+      </c>
+      <c r="L5" t="n">
+        <v>26.124622</v>
+      </c>
+      <c r="M5" t="n">
+        <v>50.460572</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.311642</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.194412</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.493899</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.208810109035368</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.143715408513878</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.024705455973792</v>
+      </c>
+      <c r="T5" t="n">
+        <v>31.1642</v>
+      </c>
+      <c r="U5" t="n">
+        <v>19.4412</v>
+      </c>
+      <c r="V5" t="n">
+        <v>49.3899</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.572371</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.427582</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.338732687531281</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.738323</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.261631</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3.822177035595935</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.856978</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.142975</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.994229760447631</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.565997</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.434003</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.766793816928358</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.296038</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.703962</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>3.377944723312547</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.689572</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.310428</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.450174891091866</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.427911</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.572089</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2.336934549474073</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.6964630000000001</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.435826454528094</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.839553</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.19111003117135</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,115 +1317,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45986.79166666666</v>
+        <v>45987.52083333334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Нефтехимик – Авангард</t>
+          <t>Адмирал – Амур</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 25.11.2025
-Нефтехимик – Авангард
+          <t>КХЛ • Регулярный чемпионат • 26.11.2025
+Адмирал – Амур
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.95 (1.22 : 4.73)
-• Броски: SOG λ ≈ 65 (24 : 41)
+• Голы: λ_total ≈ 5.45 (3.36 : 2.09)
+• Броски: SOG λ ≈ 59 (30 : 29)
 Исход (60’), честные кф:
-• П1: 4.1%  (Kмод 24.64)
-• Х:  6.0%  (Kмод 16.71)
-• П2: 89.0%  (Kмод 1.12)
+• П1: 62.6%  (Kмод 1.60)
+• Х:  15.3%  (Kмод 6.53)
+• П2: 22.0%  (Kмод 4.54)
 Тоталы голов:
-• ТМ 4.5: 29.2%  (Kмод 3.43)
-• ТБ 4.5: 69.9%  (Kмод 1.43)
-• ТМ 5.5: 45.4%  (Kмод 2.20)
-• ТБ 5.5: 53.7%  (Kмод 1.86)
-• ТМ 6.5: 61.4%  (Kмод 1.63)
-• ТБ 6.5: 37.6%  (Kмод 2.66)
+• ТМ 4.5: 36.5%  (Kмод 2.74)
+• ТБ 4.5: 63.4%  (Kмод 1.58)
+• ТМ 5.5: 53.8%  (Kмод 1.86)
+• ТБ 5.5: 46.2%  (Kмод 2.17)
+• ТМ 6.5: 69.4%  (Kмод 1.44)
+• ТБ 6.5: 30.5%  (Kмод 3.28)
 Индивидуальные тоталы:
-• Нефтехимик ИТБ 1.5: 34.6% (Kмод 2.89)
-• Нефтехимик ИТБ 2.5: 12.6% (Kмод 7.96)
-• Авангард ИТБ 1.5: 94.9% (Kмод 1.05)
-• Авангард ИТБ 2.5: 85.0% (Kмод 1.18)
+• Адмирал ИТБ 1.5: 84.8% (Kмод 1.18)
+• Адмирал ИТБ 2.5: 65.2% (Kмод 1.53)
+• Амур ИТБ 1.5: 61.8% (Kмод 1.62)
+• Амур ИТБ 2.5: 34.8% (Kмод 2.88)
 Фора +1.5:
-• Нефтехимик +1.5: 20.5% (Kмод 4.88)
-• Авангард +1.5: 97.7% (Kмод 1.02)</t>
+• Адмирал +1.5: 88.8% (Kмод 1.13)
+• Амур +1.5: 54.8% (Kмод 1.82)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45986.8125</v>
+        <v>45987.70833333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Спартак – Ак Барс</t>
+          <t>Трактор – Драконы</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 25.11.2025
-Спартак – Ак Барс
+          <t>КХЛ • Регулярный чемпионат • 26.11.2025
+Трактор – Драконы
 Ожидания модели (60’):
-• Голы: λ_total ≈ 7.95 (3.69 : 4.26)
-• Броски: SOG λ ≈ 71 (36 : 35)
+• Голы: λ_total ≈ 7.68 (3.38 : 4.30)
+• Броски: SOG λ ≈ 71 (39 : 32)
 Исход (60’), честные кф:
-• П1: 34.9%  (Kмод 2.87)
-• Х:  14.1%  (Kмод 7.08)
-• П2: 50.4%  (Kмод 1.98)
+• П1: 30.1%  (Kмод 3.32)
+• Х:  13.9%  (Kмод 7.19)
+• П2: 55.4%  (Kмод 1.80)
 Тоталы голов:
-• ТМ 4.5: 10.3%  (Kмод 9.74)
-• ТБ 4.5: 89.1%  (Kмод 1.12)
-• ТМ 5.5: 19.6%  (Kмод 5.10)
-• ТБ 5.5: 79.8%  (Kмод 1.25)
-• ТМ 6.5: 32.0%  (Kмод 3.13)
-• ТБ 6.5: 67.4%  (Kмод 1.48)
+• ТМ 4.5: 11.9%  (Kмод 8.37)
+• ТБ 4.5: 87.5%  (Kмод 1.14)
+• ТМ 5.5: 22.2%  (Kмод 4.50)
+• ТБ 5.5: 77.2%  (Kмод 1.30)
+• ТМ 6.5: 35.4%  (Kмод 2.83)
+• ТБ 6.5: 64.0%  (Kмод 1.56)
 Индивидуальные тоталы:
-• Спартак ИТБ 1.5: 88.3% (Kмод 1.13)
-• Спартак ИТБ 2.5: 71.3% (Kмод 1.40)
-• Ак Барс ИТБ 1.5: 92.6% (Kмод 1.08)
-• Ак Барс ИТБ 2.5: 79.8% (Kмод 1.25)
+• Трактор ИТБ 1.5: 85.1% (Kмод 1.18)
+• Трактор ИТБ 2.5: 65.6% (Kмод 1.52)
+• Драконы ИТБ 1.5: 92.8% (Kмод 1.08)
+• Драконы ИТБ 2.5: 80.3% (Kмод 1.25)
 Фора +1.5:
-• Спартак +1.5: 63.2% (Kмод 1.58)
-• Ак Барс +1.5: 76.8% (Kмод 1.30)</t>
+• Трактор +1.5: 58.6% (Kмод 1.71)
+• Драконы +1.5: 80.8% (Kмод 1.24)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45986.8125</v>
+        <v>45987.79166666666</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ХК Сочи – Лада</t>
+          <t>Северсталь – СКА</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 25.11.2025
-ХК Сочи – Лада
+          <t>КХЛ • Регулярный чемпионат • 26.11.2025
+Северсталь – СКА
 Ожидания модели (60’):
-• Голы: λ_total ≈ 3.65 (2.52 : 1.13)
-• Броски: SOG λ ≈ 49 (26 : 24)
+• Голы: λ_total ≈ 3.19 (1.44 : 1.75)
+• Броски: SOG λ ≈ 53 (25 : 28)
 Исход (60’), честные кф:
-• П1: 67.5%  (Kмод 1.48)
-• Х:  17.3%  (Kмод 5.79)
-• П2: 15.2%  (Kмод 6.58)
+• П1: 31.8%  (Kмод 3.15)
+• Х:  23.2%  (Kмод 4.31)
+• П2: 45.0%  (Kмод 2.22)
 Тоталы голов:
-• ТМ 4.5: 69.6%  (Kмод 1.44)
-• ТБ 4.5: 30.4%  (Kмод 3.29)
-• ТМ 5.5: 83.7%  (Kмод 1.20)
-• ТБ 5.5: 16.3%  (Kмод 6.13)
-• ТМ 6.5: 92.2%  (Kмод 1.08)
-• ТБ 6.5: 7.8%  (Kмод 12.88)
+• ТМ 4.5: 78.3%  (Kмод 1.28)
+• ТБ 4.5: 21.7%  (Kмод 4.61)
+• ТМ 5.5: 89.6%  (Kмод 1.12)
+• ТБ 5.5: 10.4%  (Kмод 9.63)
+• ТМ 6.5: 95.6%  (Kмод 1.05)
+• ТБ 6.5: 4.4%  (Kмод 22.84)
 Индивидуальные тоталы:
-• ХК Сочи ИТБ 1.5: 71.7% (Kмод 1.39)
-• ХК Сочи ИТБ 2.5: 46.1% (Kмод 2.17)
-• Лада ИТБ 1.5: 31.3% (Kмод 3.20)
-• Лада ИТБ 2.5: 10.6% (Kмод 9.42)
+• Северсталь ИТБ 1.5: 42.1% (Kмод 2.38)
+• Северсталь ИТБ 2.5: 17.6% (Kмод 5.69)
+• СКА ИТБ 1.5: 52.2% (Kмод 1.92)
+• СКА ИТБ 2.5: 25.6% (Kмод 3.91)
 Фора +1.5:
-• ХК Сочи +1.5: 94.5% (Kмод 1.06)
-• Лада +1.5: 54.0% (Kмод 1.85)</t>
+• Северсталь +1.5: 76.0% (Kмод 1.32)
+• СКА +1.5: 85.5% (Kмод 1.17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45987.8125</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Динамо М – Локомотив</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 26.11.2025
+Динамо М – Локомотив
+Ожидания модели (60’):
+• Голы: λ_total ≈ 4.29 (1.90 : 2.39)
+• Броски: SOG λ ≈ 50 (24 : 26)
+Исход (60’), честные кф:
+• П1: 31.2%  (Kмод 3.21)
+• Х:  19.4%  (Kмод 5.14)
+• П2: 49.4%  (Kмод 2.02)
+Тоталы голов:
+• ТМ 4.5: 57.2%  (Kмод 1.75)
+• ТБ 4.5: 42.8%  (Kмод 2.34)
+• ТМ 5.5: 73.8%  (Kмод 1.35)
+• ТБ 5.5: 26.2%  (Kмод 3.82)
+• ТМ 6.5: 85.7%  (Kмод 1.17)
+• ТБ 6.5: 14.3%  (Kмод 6.99)
+Индивидуальные тоталы:
+• Динамо М ИТБ 1.5: 56.6% (Kмод 1.77)
+• Динамо М ИТБ 2.5: 29.6% (Kмод 3.38)
+• Локомотив ИТБ 1.5: 69.0% (Kмод 1.45)
+• Локомотив ИТБ 2.5: 42.8% (Kмод 2.34)
+Фора +1.5:
+• Динамо М +1.5: 69.6% (Kмод 1.44)
+• Локомотив +1.5: 84.0% (Kмод 1.19)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45987.52083333334</v>
+        <v>45988.70833333334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Адмирал – Амур</t>
+          <t>Металлург Мг – Авангард</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897818</v>
+        <v>897821</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897818.html</t>
+          <t>https://text.khl.ru/text/897821.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.91778</v>
+        <v>6.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.626433</v>
+        <v>5.678571</v>
       </c>
       <c r="J2" t="n">
-        <v>4.544213</v>
+        <v>11.978571</v>
       </c>
       <c r="K2" t="n">
-        <v>29.99177</v>
+        <v>37.406257</v>
       </c>
       <c r="L2" t="n">
-        <v>28.61054</v>
+        <v>35.92968</v>
       </c>
       <c r="M2" t="n">
-        <v>58.60231</v>
+        <v>73.335938</v>
       </c>
       <c r="N2" t="n">
-        <v>0.625932</v>
+        <v>0.304904</v>
       </c>
       <c r="O2" t="n">
-        <v>0.153208</v>
+        <v>0.126149</v>
       </c>
       <c r="P2" t="n">
-        <v>0.220113</v>
+        <v>0.549013</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.597617632586287</v>
+        <v>3.279720830162936</v>
       </c>
       <c r="R2" t="n">
-        <v>6.527074304213879</v>
+        <v>7.92713378623691</v>
       </c>
       <c r="S2" t="n">
-        <v>4.543121033287448</v>
+        <v>1.821450493886301</v>
       </c>
       <c r="T2" t="n">
-        <v>62.5932</v>
+        <v>30.4904</v>
       </c>
       <c r="U2" t="n">
-        <v>15.3208</v>
+        <v>12.6149</v>
       </c>
       <c r="V2" t="n">
-        <v>22.0113</v>
+        <v>54.9013</v>
       </c>
       <c r="W2" t="n">
-        <v>0.365474</v>
+        <v>0.046563</v>
       </c>
       <c r="X2" t="n">
-        <v>0.633778</v>
+        <v>0.933504</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.577839558962287</v>
+        <v>1.071232688879748</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5376300000000001</v>
+        <v>0.100349</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.461622</v>
+        <v>0.879717</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.166274570969321</v>
+        <v>1.136729198139856</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.693985</v>
+        <v>0.183432</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.305268</v>
+        <v>0.796634</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.275810107839669</v>
+        <v>1.255281597320727</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.848425</v>
+        <v>0.917421</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.151575</v>
+        <v>0.082579</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.178654565813124</v>
+        <v>1.090012110034542</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.652263</v>
+        <v>0.780181</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.347737</v>
+        <v>0.219819</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.533123908607418</v>
+        <v>1.281753849427248</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.61791</v>
+        <v>0.964012</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.38209</v>
+        <v>0.035988</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.618358660646372</v>
+        <v>1.037331485500181</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.347775</v>
+        <v>0.8866000000000001</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6522250000000001</v>
+        <v>0.1134</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.875422327654374</v>
+        <v>1.127904353710805</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.8879050000000001</v>
+        <v>0.563876</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.126246614221116</v>
+        <v>1.77343955053948</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.548087</v>
+        <v>0.781871</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.824527857803597</v>
+        <v>1.278983361705448</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45987.70833333334</v>
+        <v>45988.70833333334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Трактор – Драконы</t>
+          <t>Салават Юлаев – Барыс</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897816</v>
+        <v>897819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897816.html</t>
+          <t>https://text.khl.ru/text/897819.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4.435928</v>
+        <v>1.454545</v>
       </c>
       <c r="I3" t="n">
-        <v>3.568607</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>8.004535000000001</v>
+        <v>2.454545</v>
       </c>
       <c r="K3" t="n">
-        <v>39.059641</v>
+        <v>23.48092</v>
       </c>
       <c r="L3" t="n">
-        <v>31.713169</v>
+        <v>23.645876</v>
       </c>
       <c r="M3" t="n">
-        <v>70.77281000000001</v>
+        <v>47.126796</v>
       </c>
       <c r="N3" t="n">
-        <v>0.300991</v>
+        <v>0.59579</v>
       </c>
       <c r="O3" t="n">
-        <v>0.139072</v>
+        <v>0.172039</v>
       </c>
       <c r="P3" t="n">
-        <v>0.554329</v>
+        <v>0.231982</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.322358475834826</v>
+        <v>1.678443746957821</v>
       </c>
       <c r="R3" t="n">
-        <v>7.190520018407732</v>
+        <v>5.812635507065258</v>
       </c>
       <c r="S3" t="n">
-        <v>1.803982833299358</v>
+        <v>4.310679276840444</v>
       </c>
       <c r="T3" t="n">
-        <v>30.0991</v>
+        <v>59.57900000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>13.9072</v>
+        <v>17.2039</v>
       </c>
       <c r="V3" t="n">
-        <v>55.4329</v>
+        <v>23.1982</v>
       </c>
       <c r="W3" t="n">
-        <v>0.11946</v>
+        <v>0.505953</v>
       </c>
       <c r="X3" t="n">
-        <v>0.874932</v>
+        <v>0.493858</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.142945966086507</v>
+        <v>2.024873546647012</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.22231</v>
+        <v>0.679033</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.772082</v>
+        <v>0.320779</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.295199214591196</v>
+        <v>3.117411052469146</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.353962</v>
+        <v>0.81285</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6404300000000001</v>
+        <v>0.186961</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.561450900176444</v>
+        <v>5.348709089061355</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.850654</v>
+        <v>0.775796</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.149346</v>
+        <v>0.224204</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.175566093852495</v>
+        <v>1.288998654285405</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.656018</v>
+        <v>0.540241</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.343982</v>
+        <v>0.459759</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.524348417269038</v>
+        <v>1.8510257459171</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.928213</v>
+        <v>0.536572</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.071787</v>
+        <v>0.463428</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.07733892974996</v>
+        <v>1.863682786280313</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.802916</v>
+        <v>0.268847</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.197084</v>
+        <v>0.7311530000000001</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.245460297216645</v>
+        <v>3.719587720897016</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.5863159999999999</v>
+        <v>0.888398</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.705564917211879</v>
+        <v>1.125621624542153</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.80824</v>
+        <v>0.594522</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.237256260516678</v>
+        <v>1.682023541601488</v>
       </c>
     </row>
     <row r="4">
@@ -982,150 +982,150 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45987.79166666666</v>
+        <v>45988.8125</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Северсталь – СКА</t>
+          <t>Спартак – Автомобилист</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897817</v>
+        <v>897820</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897817.html</t>
+          <t>https://text.khl.ru/text/897820.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.464286</v>
+        <v>4.07223</v>
       </c>
       <c r="I4" t="n">
-        <v>2.390395</v>
+        <v>2.501555</v>
       </c>
       <c r="J4" t="n">
-        <v>3.854681</v>
+        <v>6.573785</v>
       </c>
       <c r="K4" t="n">
-        <v>24.993415</v>
+        <v>36.594732</v>
       </c>
       <c r="L4" t="n">
-        <v>27.964901</v>
+        <v>28.024318</v>
       </c>
       <c r="M4" t="n">
-        <v>52.958316</v>
+        <v>64.61905</v>
       </c>
       <c r="N4" t="n">
-        <v>0.317655</v>
+        <v>0.409069</v>
       </c>
       <c r="O4" t="n">
-        <v>0.231914</v>
+        <v>0.153703</v>
       </c>
       <c r="P4" t="n">
-        <v>0.450429</v>
+        <v>0.435191</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.148069446411988</v>
+        <v>2.444575365036216</v>
       </c>
       <c r="R4" t="n">
-        <v>4.311943220331674</v>
+        <v>6.50605388313826</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220105721434455</v>
+        <v>2.297841637350037</v>
       </c>
       <c r="T4" t="n">
-        <v>31.7655</v>
+        <v>40.9069</v>
       </c>
       <c r="U4" t="n">
-        <v>23.1914</v>
+        <v>15.3703</v>
       </c>
       <c r="V4" t="n">
-        <v>45.0429</v>
+        <v>43.5191</v>
       </c>
       <c r="W4" t="n">
-        <v>0.783058</v>
+        <v>0.17336</v>
       </c>
       <c r="X4" t="n">
-        <v>0.216939</v>
+        <v>0.824603</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.609590714440465</v>
+        <v>1.212704780360974</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.896154</v>
+        <v>0.301223</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.103844</v>
+        <v>0.69674</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.62982935942375</v>
+        <v>1.435255619025748</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.956212</v>
+        <v>0.450312</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.043785</v>
+        <v>0.547651</v>
       </c>
       <c r="AE4" t="n">
-        <v>22.83887175973507</v>
+        <v>1.825980414534074</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.421034</v>
+        <v>0.859117</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.578966</v>
+        <v>0.140883</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.375105098400604</v>
+        <v>1.163985813340907</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.17563</v>
+        <v>0.670471</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.82437</v>
+        <v>0.329529</v>
       </c>
       <c r="AK4" t="n">
-        <v>5.693788077207766</v>
+        <v>1.491488819054068</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.521747</v>
+        <v>0.86853</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.478253</v>
+        <v>0.13147</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.916637757380493</v>
+        <v>1.151370706826477</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.255703</v>
+        <v>0.686932</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.744297</v>
+        <v>0.313068</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3.910787124124472</v>
+        <v>1.455748167213057</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.7598</v>
+        <v>0.706839</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.316135825217162</v>
+        <v>1.414749327640382</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.855151</v>
+        <v>0.729345</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.169384120465275</v>
+        <v>1.371093241195867</v>
       </c>
     </row>
     <row r="5">
@@ -1133,150 +1133,150 @@
         <v>1369</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45987.8125</v>
+        <v>45988.8125</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Динамо М – Локомотив</t>
+          <t>ЦСКА – Лада</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>897815</v>
+        <v>897822</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897815.html</t>
+          <t>https://text.khl.ru/text/897822.html</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.014963</v>
+        <v>2.188722</v>
       </c>
       <c r="I5" t="n">
-        <v>2.067992</v>
+        <v>1.117647</v>
       </c>
       <c r="J5" t="n">
-        <v>4.082955</v>
+        <v>3.306369</v>
       </c>
       <c r="K5" t="n">
-        <v>24.33595</v>
+        <v>27.591019</v>
       </c>
       <c r="L5" t="n">
-        <v>26.124622</v>
+        <v>20.850574</v>
       </c>
       <c r="M5" t="n">
-        <v>50.460572</v>
+        <v>48.441593</v>
       </c>
       <c r="N5" t="n">
-        <v>0.311642</v>
+        <v>0.719666</v>
       </c>
       <c r="O5" t="n">
-        <v>0.194412</v>
+        <v>0.151933</v>
       </c>
       <c r="P5" t="n">
-        <v>0.493899</v>
+        <v>0.128229</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.208810109035368</v>
+        <v>1.389533478030086</v>
       </c>
       <c r="R5" t="n">
-        <v>5.143715408513878</v>
+        <v>6.581848577991614</v>
       </c>
       <c r="S5" t="n">
-        <v>2.024705455973792</v>
+        <v>7.798547910379087</v>
       </c>
       <c r="T5" t="n">
-        <v>31.1642</v>
+        <v>71.9666</v>
       </c>
       <c r="U5" t="n">
-        <v>19.4412</v>
+        <v>15.1933</v>
       </c>
       <c r="V5" t="n">
-        <v>49.3899</v>
+        <v>12.8229</v>
       </c>
       <c r="W5" t="n">
-        <v>0.572371</v>
+        <v>0.635914</v>
       </c>
       <c r="X5" t="n">
-        <v>0.427582</v>
+        <v>0.363914</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.338732687531281</v>
+        <v>2.747901976840682</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.738323</v>
+        <v>0.790767</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.261631</v>
+        <v>0.209062</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.822177035595935</v>
+        <v>4.783270034726541</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.856978</v>
+        <v>0.893066</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.142975</v>
+        <v>0.106762</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.994229760447631</v>
+        <v>9.366628575710459</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.565997</v>
+        <v>0.771575</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.434003</v>
+        <v>0.228425</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.766793816928358</v>
+        <v>1.296050286751126</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.296038</v>
+        <v>0.534272</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.703962</v>
+        <v>0.465728</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.377944723312547</v>
+        <v>1.871705797795879</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.689572</v>
+        <v>0.318542</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.310428</v>
+        <v>0.681458</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.450174891091866</v>
+        <v>3.139303451350214</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.427911</v>
+        <v>0.109459</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.572089</v>
+        <v>0.890541</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.336934549474073</v>
+        <v>9.135840817109603</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6964630000000001</v>
+        <v>0.953673</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.435826454528094</v>
+        <v>1.048577447405977</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.839553</v>
+        <v>0.481443</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.19111003117135</v>
+        <v>2.077089084273736</v>
       </c>
     </row>
   </sheetData>
@@ -1317,153 +1317,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45987.52083333334</v>
+        <v>45988.70833333334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Адмирал – Амур</t>
+          <t>Металлург Мг – Авангард</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 26.11.2025
-Адмирал – Амур
+          <t>КХЛ • Регулярный чемпионат • 27.11.2025
+Металлург Мг – Авангард
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.45 (3.36 : 2.09)
-• Броски: SOG λ ≈ 59 (30 : 29)
+• Голы: λ_total ≈ 9.27 (4.13 : 5.14)
+• Броски: SOG λ ≈ 73 (37 : 36)
 Исход (60’), честные кф:
-• П1: 62.6%  (Kмод 1.60)
-• Х:  15.3%  (Kмод 6.53)
-• П2: 22.0%  (Kмод 4.54)
+• П1: 30.5%  (Kмод 3.28)
+• Х:  12.6%  (Kмод 7.93)
+• П2: 54.9%  (Kмод 1.82)
 Тоталы голов:
-• ТМ 4.5: 36.5%  (Kмод 2.74)
-• ТБ 4.5: 63.4%  (Kмод 1.58)
-• ТМ 5.5: 53.8%  (Kмод 1.86)
-• ТБ 5.5: 46.2%  (Kмод 2.17)
-• ТМ 6.5: 69.4%  (Kмод 1.44)
-• ТБ 6.5: 30.5%  (Kмод 3.28)
+• ТМ 4.5: 4.7%  (Kмод 21.48)
+• ТБ 4.5: 93.4%  (Kмод 1.07)
+• ТМ 5.5: 10.0%  (Kмод 9.97)
+• ТБ 5.5: 88.0%  (Kмод 1.14)
+• ТМ 6.5: 18.3%  (Kмод 5.45)
+• ТБ 6.5: 79.7%  (Kмод 1.26)
 Индивидуальные тоталы:
-• Адмирал ИТБ 1.5: 84.8% (Kмод 1.18)
-• Адмирал ИТБ 2.5: 65.2% (Kмод 1.53)
-• Амур ИТБ 1.5: 61.8% (Kмод 1.62)
-• Амур ИТБ 2.5: 34.8% (Kмод 2.88)
+• Металлург Мг ИТБ 1.5: 91.7% (Kмод 1.09)
+• Металлург Мг ИТБ 2.5: 78.0% (Kмод 1.28)
+• Авангард ИТБ 1.5: 96.4% (Kмод 1.04)
+• Авангард ИТБ 2.5: 88.7% (Kмод 1.13)
 Фора +1.5:
-• Адмирал +1.5: 88.8% (Kмод 1.13)
-• Амур +1.5: 54.8% (Kмод 1.82)</t>
+• Металлург Мг +1.5: 56.4% (Kмод 1.77)
+• Авангард +1.5: 78.2% (Kмод 1.28)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45987.70833333334</v>
+        <v>45988.70833333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Трактор – Драконы</t>
+          <t>Салават Юлаев – Барыс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 26.11.2025
-Трактор – Драконы
+          <t>КХЛ • Регулярный чемпионат • 27.11.2025
+Салават Юлаев – Барыс
 Ожидания модели (60’):
-• Голы: λ_total ≈ 7.68 (3.38 : 4.30)
-• Броски: SOG λ ≈ 71 (39 : 32)
+• Голы: λ_total ≈ 4.64 (2.84 : 1.80)
+• Броски: SOG λ ≈ 47 (23 : 24)
 Исход (60’), честные кф:
-• П1: 30.1%  (Kмод 3.32)
-• Х:  13.9%  (Kмод 7.19)
-• П2: 55.4%  (Kмод 1.80)
+• П1: 59.6%  (Kмод 1.68)
+• Х:  17.2%  (Kмод 5.81)
+• П2: 23.2%  (Kмод 4.31)
 Тоталы голов:
-• ТМ 4.5: 11.9%  (Kмод 8.37)
-• ТБ 4.5: 87.5%  (Kмод 1.14)
-• ТМ 5.5: 22.2%  (Kмод 4.50)
-• ТБ 5.5: 77.2%  (Kмод 1.30)
-• ТМ 6.5: 35.4%  (Kмод 2.83)
-• ТБ 6.5: 64.0%  (Kмод 1.56)
+• ТМ 4.5: 50.6%  (Kмод 1.98)
+• ТБ 4.5: 49.4%  (Kмод 2.02)
+• ТМ 5.5: 67.9%  (Kмод 1.47)
+• ТБ 5.5: 32.1%  (Kмод 3.12)
+• ТМ 6.5: 81.3%  (Kмод 1.23)
+• ТБ 6.5: 18.7%  (Kмод 5.35)
 Индивидуальные тоталы:
-• Трактор ИТБ 1.5: 85.1% (Kмод 1.18)
-• Трактор ИТБ 2.5: 65.6% (Kмод 1.52)
-• Драконы ИТБ 1.5: 92.8% (Kмод 1.08)
-• Драконы ИТБ 2.5: 80.3% (Kмод 1.25)
+• Салават Юлаев ИТБ 1.5: 77.6% (Kмод 1.29)
+• Салават Юлаев ИТБ 2.5: 54.0% (Kмод 1.85)
+• Барыс ИТБ 1.5: 53.7% (Kмод 1.86)
+• Барыс ИТБ 2.5: 26.9% (Kмод 3.72)
 Фора +1.5:
-• Трактор +1.5: 58.6% (Kмод 1.71)
-• Драконы +1.5: 80.8% (Kмод 1.24)</t>
+• Салават Юлаев +1.5: 88.8% (Kмод 1.13)
+• Барыс +1.5: 59.5% (Kмод 1.68)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45987.79166666666</v>
+        <v>45988.8125</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Северсталь – СКА</t>
+          <t>Спартак – Автомобилист</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 26.11.2025
-Северсталь – СКА
+          <t>КХЛ • Регулярный чемпионат • 27.11.2025
+Спартак – Автомобилист
 Ожидания модели (60’):
-• Голы: λ_total ≈ 3.19 (1.44 : 1.75)
-• Броски: SOG λ ≈ 53 (25 : 28)
+• Голы: λ_total ≈ 7.00 (3.45 : 3.54)
+• Броски: SOG λ ≈ 65 (37 : 28)
 Исход (60’), честные кф:
-• П1: 31.8%  (Kмод 3.15)
-• Х:  23.2%  (Kмод 4.31)
-• П2: 45.0%  (Kмод 2.22)
+• П1: 40.9%  (Kмод 2.44)
+• Х:  15.4%  (Kмод 6.51)
+• П2: 43.5%  (Kмод 2.30)
 Тоталы голов:
-• ТМ 4.5: 78.3%  (Kмод 1.28)
-• ТБ 4.5: 21.7%  (Kмод 4.61)
-• ТМ 5.5: 89.6%  (Kмод 1.12)
-• ТБ 5.5: 10.4%  (Kмод 9.63)
-• ТМ 6.5: 95.6%  (Kмод 1.05)
-• ТБ 6.5: 4.4%  (Kмод 22.84)
+• ТМ 4.5: 17.3%  (Kмод 5.77)
+• ТБ 4.5: 82.5%  (Kмод 1.21)
+• ТМ 5.5: 30.1%  (Kмод 3.32)
+• ТБ 5.5: 69.7%  (Kмод 1.44)
+• ТМ 6.5: 45.0%  (Kмод 2.22)
+• ТБ 6.5: 54.8%  (Kмод 1.83)
 Индивидуальные тоталы:
-• Северсталь ИТБ 1.5: 42.1% (Kмод 2.38)
-• Северсталь ИТБ 2.5: 17.6% (Kмод 5.69)
-• СКА ИТБ 1.5: 52.2% (Kмод 1.92)
-• СКА ИТБ 2.5: 25.6% (Kмод 3.91)
+• Спартак ИТБ 1.5: 85.9% (Kмод 1.16)
+• Спартак ИТБ 2.5: 67.0% (Kмод 1.49)
+• Автомобилист ИТБ 1.5: 86.9% (Kмод 1.15)
+• Автомобилист ИТБ 2.5: 68.7% (Kмод 1.46)
 Фора +1.5:
-• Северсталь +1.5: 76.0% (Kмод 1.32)
-• СКА +1.5: 85.5% (Kмод 1.17)</t>
+• Спартак +1.5: 70.7% (Kмод 1.41)
+• Автомобилист +1.5: 72.9% (Kмод 1.37)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45987.8125</v>
+        <v>45988.8125</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Динамо М – Локомотив</t>
+          <t>ЦСКА – Лада</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 26.11.2025
-Динамо М – Локомотив
+          <t>КХЛ • Регулярный чемпионат • 27.11.2025
+ЦСКА – Лада
 Ожидания модели (60’):
-• Голы: λ_total ≈ 4.29 (1.90 : 2.39)
-• Броски: SOG λ ≈ 50 (24 : 26)
+• Голы: λ_total ≈ 3.96 (2.82 : 1.15)
+• Броски: SOG λ ≈ 48 (28 : 21)
 Исход (60’), честные кф:
-• П1: 31.2%  (Kмод 3.21)
-• Х:  19.4%  (Kмод 5.14)
-• П2: 49.4%  (Kмод 2.02)
+• П1: 72.0%  (Kмод 1.39)
+• Х:  15.2%  (Kмод 6.58)
+• П2: 12.8%  (Kмод 7.80)
 Тоталы голов:
-• ТМ 4.5: 57.2%  (Kмод 1.75)
-• ТБ 4.5: 42.8%  (Kмод 2.34)
-• ТМ 5.5: 73.8%  (Kмод 1.35)
-• ТБ 5.5: 26.2%  (Kмод 3.82)
-• ТМ 6.5: 85.7%  (Kмод 1.17)
-• ТБ 6.5: 14.3%  (Kмод 6.99)
+• ТМ 4.5: 63.6%  (Kмод 1.57)
+• ТБ 4.5: 36.4%  (Kмод 2.75)
+• ТМ 5.5: 79.1%  (Kмод 1.26)
+• ТБ 5.5: 20.9%  (Kмод 4.78)
+• ТМ 6.5: 89.3%  (Kмод 1.12)
+• ТБ 6.5: 10.7%  (Kмод 9.37)
 Индивидуальные тоталы:
-• Динамо М ИТБ 1.5: 56.6% (Kмод 1.77)
-• Динамо М ИТБ 2.5: 29.6% (Kмод 3.38)
-• Локомотив ИТБ 1.5: 69.0% (Kмод 1.45)
-• Локомотив ИТБ 2.5: 42.8% (Kмод 2.34)
+• ЦСКА ИТБ 1.5: 77.2% (Kмод 1.30)
+• ЦСКА ИТБ 2.5: 53.4% (Kмод 1.87)
+• Лада ИТБ 1.5: 31.9% (Kмод 3.14)
+• Лада ИТБ 2.5: 10.9% (Kмод 9.14)
 Фора +1.5:
-• Динамо М +1.5: 69.6% (Kмод 1.44)
-• Локомотив +1.5: 84.0% (Kмод 1.19)</t>
+• ЦСКА +1.5: 95.4% (Kмод 1.05)
+• Лада +1.5: 48.1% (Kмод 2.08)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45988.70833333334</v>
+        <v>45989.70833333334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Металлург Мг – Авангард</t>
+          <t>Трактор – ХК Сочи</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897821</v>
+        <v>897827</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897821.html</t>
+          <t>https://text.khl.ru/text/897827.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.678571</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>11.978571</v>
+        <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>37.406257</v>
+        <v>41.132791</v>
       </c>
       <c r="L2" t="n">
-        <v>35.92968</v>
+        <v>22.883368</v>
       </c>
       <c r="M2" t="n">
-        <v>73.335938</v>
+        <v>64.016159</v>
       </c>
       <c r="N2" t="n">
-        <v>0.304904</v>
+        <v>0.779471</v>
       </c>
       <c r="O2" t="n">
-        <v>0.126149</v>
+        <v>0.07383199999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0.549013</v>
+        <v>0.09566</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.279720830162936</v>
+        <v>1.28292136590072</v>
       </c>
       <c r="R2" t="n">
-        <v>7.92713378623691</v>
+        <v>13.54426265034132</v>
       </c>
       <c r="S2" t="n">
-        <v>1.821450493886301</v>
+        <v>10.45369015262388</v>
       </c>
       <c r="T2" t="n">
-        <v>30.4904</v>
+        <v>77.94710000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>12.6149</v>
+        <v>7.3832</v>
       </c>
       <c r="V2" t="n">
-        <v>54.9013</v>
+        <v>9.565999999999999</v>
       </c>
       <c r="W2" t="n">
-        <v>0.046563</v>
+        <v>0.053712</v>
       </c>
       <c r="X2" t="n">
-        <v>0.933504</v>
+        <v>0.895251</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.071232688879748</v>
+        <v>1.117005175084976</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.100349</v>
+        <v>0.113432</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.879717</v>
+        <v>0.835531</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.136729198139856</v>
+        <v>1.196843683836985</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.183432</v>
+        <v>0.203386</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.796634</v>
+        <v>0.745577</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.255281597320727</v>
+        <v>1.341243090921528</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.917421</v>
+        <v>0.9852300000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.082579</v>
+        <v>0.01477</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.090012110034542</v>
+        <v>1.014991423322473</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.780181</v>
+        <v>0.945893</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.219819</v>
+        <v>0.054107</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.281753849427248</v>
+        <v>1.057202030250779</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.964012</v>
+        <v>0.777299</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.035988</v>
+        <v>0.222701</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.037331485500181</v>
+        <v>1.286506222187344</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.8866000000000001</v>
+        <v>0.5423789999999999</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.1134</v>
+        <v>0.457621</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.127904353710805</v>
+        <v>1.843729200429958</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.563876</v>
+        <v>0.90032</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.77343955053948</v>
+        <v>1.110716189799182</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.781871</v>
+        <v>0.271571</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.278983361705448</v>
+        <v>3.682278299229299</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45988.70833333334</v>
+        <v>45989.79166666666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Салават Юлаев – Барыс</t>
+          <t>Ак Барс – СКА</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897819</v>
+        <v>897823</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897819.html</t>
+          <t>https://text.khl.ru/text/897823.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.454545</v>
+        <v>2.240677</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3.923077</v>
       </c>
       <c r="J3" t="n">
-        <v>2.454545</v>
+        <v>6.163754</v>
       </c>
       <c r="K3" t="n">
-        <v>23.48092</v>
+        <v>29.335543</v>
       </c>
       <c r="L3" t="n">
-        <v>23.645876</v>
+        <v>34.435929</v>
       </c>
       <c r="M3" t="n">
-        <v>47.126796</v>
+        <v>63.771472</v>
       </c>
       <c r="N3" t="n">
-        <v>0.59579</v>
+        <v>0.125662</v>
       </c>
       <c r="O3" t="n">
-        <v>0.172039</v>
+        <v>0.108911</v>
       </c>
       <c r="P3" t="n">
-        <v>0.231982</v>
+        <v>0.760551</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.678443746957821</v>
+        <v>7.957855198866802</v>
       </c>
       <c r="R3" t="n">
-        <v>5.812635507065258</v>
+        <v>9.181809000009183</v>
       </c>
       <c r="S3" t="n">
-        <v>4.310679276840444</v>
+        <v>1.314836217426576</v>
       </c>
       <c r="T3" t="n">
-        <v>59.57900000000001</v>
+        <v>12.5662</v>
       </c>
       <c r="U3" t="n">
-        <v>17.2039</v>
+        <v>10.8911</v>
       </c>
       <c r="V3" t="n">
-        <v>23.1982</v>
+        <v>76.0551</v>
       </c>
       <c r="W3" t="n">
-        <v>0.505953</v>
+        <v>0.246453</v>
       </c>
       <c r="X3" t="n">
-        <v>0.493858</v>
+        <v>0.748671</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.024873546647012</v>
+        <v>1.335700194077238</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.679033</v>
+        <v>0.398203</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.320779</v>
+        <v>0.596921</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.117411052469146</v>
+        <v>1.675263560839709</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.81285</v>
+        <v>0.557636</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.186961</v>
+        <v>0.437488</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.348709089061355</v>
+        <v>2.285776981311487</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.775796</v>
+        <v>0.593576</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.224204</v>
+        <v>0.406424</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.288998654285405</v>
+        <v>1.684704233324797</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.540241</v>
+        <v>0.322906</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.459759</v>
+        <v>0.677094</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.8510257459171</v>
+        <v>3.096876490371811</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.536572</v>
+        <v>0.928395</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.463428</v>
+        <v>0.071605</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.863682786280313</v>
+        <v>1.077127731192003</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.268847</v>
+        <v>0.803308</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.7311530000000001</v>
+        <v>0.196692</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.719587720897016</v>
+        <v>1.244852534768731</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.888398</v>
+        <v>0.380078</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.125621624542153</v>
+        <v>2.631038892016901</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.594522</v>
+        <v>0.937003</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.682023541601488</v>
+        <v>1.06723244215867</v>
       </c>
     </row>
     <row r="4">
@@ -982,150 +982,150 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45988.8125</v>
+        <v>45989.79166666666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Спартак – Автомобилист</t>
+          <t>Нефтехимик – Драконы</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897820</v>
+        <v>897826</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897820.html</t>
+          <t>https://text.khl.ru/text/897826.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.07223</v>
+        <v>1.591473</v>
       </c>
       <c r="I4" t="n">
-        <v>2.501555</v>
+        <v>1.848538</v>
       </c>
       <c r="J4" t="n">
-        <v>6.573785</v>
+        <v>3.440011</v>
       </c>
       <c r="K4" t="n">
-        <v>36.594732</v>
+        <v>27.688566</v>
       </c>
       <c r="L4" t="n">
-        <v>28.024318</v>
+        <v>27.29634</v>
       </c>
       <c r="M4" t="n">
-        <v>64.61905</v>
+        <v>54.984906</v>
       </c>
       <c r="N4" t="n">
-        <v>0.409069</v>
+        <v>0.436582</v>
       </c>
       <c r="O4" t="n">
-        <v>0.153703</v>
+        <v>0.157276</v>
       </c>
       <c r="P4" t="n">
-        <v>0.435191</v>
+        <v>0.404708</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.444575365036216</v>
+        <v>2.290520452057116</v>
       </c>
       <c r="R4" t="n">
-        <v>6.50605388313826</v>
+        <v>6.358249192502353</v>
       </c>
       <c r="S4" t="n">
-        <v>2.297841637350037</v>
+        <v>2.470917303339692</v>
       </c>
       <c r="T4" t="n">
-        <v>40.9069</v>
+        <v>43.6582</v>
       </c>
       <c r="U4" t="n">
-        <v>15.3703</v>
+        <v>15.7276</v>
       </c>
       <c r="V4" t="n">
-        <v>43.5191</v>
+        <v>40.4708</v>
       </c>
       <c r="W4" t="n">
-        <v>0.17336</v>
+        <v>0.203053</v>
       </c>
       <c r="X4" t="n">
-        <v>0.824603</v>
+        <v>0.7955140000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.212704780360974</v>
+        <v>1.257048901716374</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.301223</v>
+        <v>0.341846</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.69674</v>
+        <v>0.65672</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.435255619025748</v>
+        <v>1.522718966987453</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.450312</v>
+        <v>0.496633</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.547651</v>
+        <v>0.501934</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.825980414534074</v>
+        <v>1.992293807552387</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.859117</v>
+        <v>0.853008</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.140883</v>
+        <v>0.146992</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.163985813340907</v>
+        <v>1.172321947742577</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.670471</v>
+        <v>0.660005</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.329529</v>
+        <v>0.339995</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.491488819054068</v>
+        <v>1.515140036817903</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.86853</v>
+        <v>0.84051</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.13147</v>
+        <v>0.15949</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.151370706826477</v>
+        <v>1.189753839930518</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.686932</v>
+        <v>0.639103</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.313068</v>
+        <v>0.360897</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.455748167213057</v>
+        <v>1.564693015053912</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.706839</v>
+        <v>0.736572</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.414749327640382</v>
+        <v>1.357640529371195</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.729345</v>
+        <v>0.709293</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.371093241195867</v>
+        <v>1.409854601694927</v>
       </c>
     </row>
     <row r="5">
@@ -1133,150 +1133,301 @@
         <v>1369</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45988.8125</v>
+        <v>45989.79166666666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ЦСКА – Лада</t>
+          <t>Северсталь – Локомотив</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>897822</v>
+        <v>897825</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897822.html</t>
+          <t>https://text.khl.ru/text/897825.html</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.188722</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.117647</v>
+        <v>1.40625</v>
       </c>
       <c r="J5" t="n">
-        <v>3.306369</v>
+        <v>2.90625</v>
       </c>
       <c r="K5" t="n">
-        <v>27.591019</v>
+        <v>22.31792</v>
       </c>
       <c r="L5" t="n">
-        <v>20.850574</v>
+        <v>22.352212</v>
       </c>
       <c r="M5" t="n">
-        <v>48.441593</v>
+        <v>44.670133</v>
       </c>
       <c r="N5" t="n">
-        <v>0.719666</v>
+        <v>0.371378</v>
       </c>
       <c r="O5" t="n">
-        <v>0.151933</v>
+        <v>0.261117</v>
       </c>
       <c r="P5" t="n">
-        <v>0.128229</v>
+        <v>0.367505</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.389533478030086</v>
+        <v>2.692674310271475</v>
       </c>
       <c r="R5" t="n">
-        <v>6.581848577991614</v>
+        <v>3.829700862065664</v>
       </c>
       <c r="S5" t="n">
-        <v>7.798547910379087</v>
+        <v>2.721051414266472</v>
       </c>
       <c r="T5" t="n">
-        <v>71.9666</v>
+        <v>37.1378</v>
       </c>
       <c r="U5" t="n">
-        <v>15.1933</v>
+        <v>26.1117</v>
       </c>
       <c r="V5" t="n">
-        <v>12.8229</v>
+        <v>36.7505</v>
       </c>
       <c r="W5" t="n">
-        <v>0.635914</v>
+        <v>0.87056</v>
       </c>
       <c r="X5" t="n">
-        <v>0.363914</v>
+        <v>0.129439</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.747901976840682</v>
+        <v>7.725646829780824</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.790767</v>
+        <v>0.947361</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.209062</v>
+        <v>0.052639</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.783270034726541</v>
+        <v>18.99732137768575</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.893066</v>
+        <v>0.981255</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.106762</v>
+        <v>0.018745</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.366628575710459</v>
+        <v>53.34755934915977</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.771575</v>
+        <v>0.383108</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.228425</v>
+        <v>0.616892</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.296050286751126</v>
+        <v>2.610230013468787</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.534272</v>
+        <v>0.149413</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.465728</v>
+        <v>0.850587</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.871705797795879</v>
+        <v>6.692858051173593</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.318542</v>
+        <v>0.380173</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.681458</v>
+        <v>0.619827</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.139303451350214</v>
+        <v>2.630381431611398</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.109459</v>
+        <v>0.147469</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.890541</v>
+        <v>0.852531</v>
       </c>
       <c r="AQ5" t="n">
-        <v>9.135840817109603</v>
+        <v>6.781086194386617</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.953673</v>
+        <v>0.835571</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.048577447405977</v>
+        <v>1.196786389187753</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.481443</v>
+        <v>0.832979</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.077089084273736</v>
+        <v>1.200510457046336</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45989.79166666666</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Торпедо – Динамо Мн</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>897824</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897824.html</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2.383937</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.636364</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.0203</v>
+      </c>
+      <c r="K6" t="n">
+        <v>27.808605</v>
+      </c>
+      <c r="L6" t="n">
+        <v>39.608055</v>
+      </c>
+      <c r="M6" t="n">
+        <v>67.41665999999999</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.154026</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.127631</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.716317</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.492410372274811</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.835087086992973</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.396029969971395</v>
+      </c>
+      <c r="T6" t="n">
+        <v>15.4026</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12.7631</v>
+      </c>
+      <c r="V6" t="n">
+        <v>71.6317</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.318863</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.679112</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.472511161634605</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.485416</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.512559</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.95099490985428</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.64523</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.352744</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.834917107023791</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.575909</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.424091</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.736385435893518</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.305537</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.6944630000000001</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3.272926028598828</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.894557</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.105443</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.117871751045489</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.734795</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.265205</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.360923795072095</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.443622</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>2.254171344072205</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.925895</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.080036073204845</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,153 +1468,191 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45988.70833333334</v>
+        <v>45989.70833333334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Металлург Мг – Авангард</t>
+          <t>Трактор – ХК Сочи</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 27.11.2025
-Металлург Мг – Авангард
+          <t>КХЛ • Регулярный чемпионат • 28.11.2025
+Трактор – ХК Сочи
 Ожидания модели (60’):
-• Голы: λ_total ≈ 9.27 (4.13 : 5.14)
-• Броски: SOG λ ≈ 73 (37 : 36)
+• Голы: λ_total ≈ 9.04 (6.19 : 2.85)
+• Броски: SOG λ ≈ 64 (41 : 23)
 Исход (60’), честные кф:
-• П1: 30.5%  (Kмод 3.28)
-• Х:  12.6%  (Kмод 7.93)
-• П2: 54.9%  (Kмод 1.82)
+• П1: 77.9%  (Kмод 1.28)
+• Х:  7.4%  (Kмод 13.54)
+• П2: 9.6%  (Kмод 10.45)
 Тоталы голов:
-• ТМ 4.5: 4.7%  (Kмод 21.48)
-• ТБ 4.5: 93.4%  (Kмод 1.07)
-• ТМ 5.5: 10.0%  (Kмод 9.97)
-• ТБ 5.5: 88.0%  (Kмод 1.14)
-• ТМ 6.5: 18.3%  (Kмод 5.45)
-• ТБ 6.5: 79.7%  (Kмод 1.26)
+• ТМ 4.5: 5.4%  (Kмод 18.62)
+• ТБ 4.5: 89.5%  (Kмод 1.12)
+• ТМ 5.5: 11.3%  (Kмод 8.82)
+• ТБ 5.5: 83.6%  (Kмод 1.20)
+• ТМ 6.5: 20.3%  (Kмод 4.92)
+• ТБ 6.5: 74.6%  (Kмод 1.34)
 Индивидуальные тоталы:
-• Металлург Мг ИТБ 1.5: 91.7% (Kмод 1.09)
-• Металлург Мг ИТБ 2.5: 78.0% (Kмод 1.28)
-• Авангард ИТБ 1.5: 96.4% (Kмод 1.04)
-• Авангард ИТБ 2.5: 88.7% (Kмод 1.13)
+• Трактор ИТБ 1.5: 98.5% (Kмод 1.01)
+• Трактор ИТБ 2.5: 94.6% (Kмод 1.06)
+• ХК Сочи ИТБ 1.5: 77.7% (Kмод 1.29)
+• ХК Сочи ИТБ 2.5: 54.2% (Kмод 1.84)
 Фора +1.5:
-• Металлург Мг +1.5: 56.4% (Kмод 1.77)
-• Авангард +1.5: 78.2% (Kмод 1.28)</t>
+• Трактор +1.5: 90.0% (Kмод 1.11)
+• ХК Сочи +1.5: 27.2% (Kмод 3.68)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45988.70833333334</v>
+        <v>45989.79166666666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Салават Юлаев – Барыс</t>
+          <t>Ак Барс – СКА</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 27.11.2025
-Салават Юлаев – Барыс
+          <t>КХЛ • Регулярный чемпионат • 28.11.2025
+Ак Барс – СКА
 Ожидания модели (60’):
-• Голы: λ_total ≈ 4.64 (2.84 : 1.80)
-• Броски: SOG λ ≈ 47 (23 : 24)
+• Голы: λ_total ≈ 6.30 (2.00 : 4.31)
+• Броски: SOG λ ≈ 64 (29 : 34)
 Исход (60’), честные кф:
-• П1: 59.6%  (Kмод 1.68)
-• Х:  17.2%  (Kмод 5.81)
-• П2: 23.2%  (Kмод 4.31)
+• П1: 12.6%  (Kмод 7.96)
+• Х:  10.9%  (Kмод 9.18)
+• П2: 76.1%  (Kмод 1.31)
 Тоталы голов:
-• ТМ 4.5: 50.6%  (Kмод 1.98)
-• ТБ 4.5: 49.4%  (Kмод 2.02)
-• ТМ 5.5: 67.9%  (Kмод 1.47)
-• ТБ 5.5: 32.1%  (Kмод 3.12)
-• ТМ 6.5: 81.3%  (Kмод 1.23)
-• ТБ 6.5: 18.7%  (Kмод 5.35)
+• ТМ 4.5: 24.6%  (Kмод 4.06)
+• ТБ 4.5: 74.9%  (Kмод 1.34)
+• ТМ 5.5: 39.8%  (Kмод 2.51)
+• ТБ 5.5: 59.7%  (Kмод 1.68)
+• ТМ 6.5: 55.8%  (Kмод 1.79)
+• ТБ 6.5: 43.7%  (Kмод 2.29)
 Индивидуальные тоталы:
-• Салават Юлаев ИТБ 1.5: 77.6% (Kмод 1.29)
-• Салават Юлаев ИТБ 2.5: 54.0% (Kмод 1.85)
-• Барыс ИТБ 1.5: 53.7% (Kмод 1.86)
-• Барыс ИТБ 2.5: 26.9% (Kмод 3.72)
+• Ак Барс ИТБ 1.5: 59.4% (Kмод 1.68)
+• Ак Барс ИТБ 2.5: 32.3% (Kмод 3.10)
+• СКА ИТБ 1.5: 92.8% (Kмод 1.08)
+• СКА ИТБ 2.5: 80.3% (Kмод 1.24)
 Фора +1.5:
-• Салават Юлаев +1.5: 88.8% (Kмод 1.13)
-• Барыс +1.5: 59.5% (Kмод 1.68)</t>
+• Ак Барс +1.5: 38.0% (Kмод 2.63)
+• СКА +1.5: 93.7% (Kмод 1.07)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45988.8125</v>
+        <v>45989.79166666666</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Спартак – Автомобилист</t>
+          <t>Нефтехимик – Драконы</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 27.11.2025
-Спартак – Автомобилист
+          <t>КХЛ • Регулярный чемпионат • 28.11.2025
+Нефтехимик – Драконы
 Ожидания модели (60’):
-• Голы: λ_total ≈ 7.00 (3.45 : 3.54)
-• Броски: SOG λ ≈ 65 (37 : 28)
+• Голы: λ_total ≈ 6.69 (3.40 : 3.29)
+• Броски: SOG λ ≈ 55 (28 : 27)
 Исход (60’), честные кф:
-• П1: 40.9%  (Kмод 2.44)
-• Х:  15.4%  (Kмод 6.51)
-• П2: 43.5%  (Kмод 2.30)
+• П1: 43.7%  (Kмод 2.29)
+• Х:  15.7%  (Kмод 6.36)
+• П2: 40.5%  (Kмод 2.47)
 Тоталы голов:
-• ТМ 4.5: 17.3%  (Kмод 5.77)
-• ТБ 4.5: 82.5%  (Kмод 1.21)
-• ТМ 5.5: 30.1%  (Kмод 3.32)
-• ТБ 5.5: 69.7%  (Kмод 1.44)
-• ТМ 6.5: 45.0%  (Kмод 2.22)
-• ТБ 6.5: 54.8%  (Kмод 1.83)
+• ТМ 4.5: 20.3%  (Kмод 4.92)
+• ТБ 4.5: 79.6%  (Kмод 1.26)
+• ТМ 5.5: 34.2%  (Kмод 2.93)
+• ТБ 5.5: 65.7%  (Kмод 1.52)
+• ТМ 6.5: 49.7%  (Kмод 2.01)
+• ТБ 6.5: 50.2%  (Kмод 1.99)
 Индивидуальные тоталы:
-• Спартак ИТБ 1.5: 85.9% (Kмод 1.16)
-• Спартак ИТБ 2.5: 67.0% (Kмод 1.49)
-• Автомобилист ИТБ 1.5: 86.9% (Kмод 1.15)
-• Автомобилист ИТБ 2.5: 68.7% (Kмод 1.46)
+• Нефтехимик ИТБ 1.5: 85.3% (Kмод 1.17)
+• Нефтехимик ИТБ 2.5: 66.0% (Kмод 1.52)
+• Драконы ИТБ 1.5: 84.1% (Kмод 1.19)
+• Драконы ИТБ 2.5: 63.9% (Kмод 1.56)
 Фора +1.5:
-• Спартак +1.5: 70.7% (Kмод 1.41)
-• Автомобилист +1.5: 72.9% (Kмод 1.37)</t>
+• Нефтехимик +1.5: 73.7% (Kмод 1.36)
+• Драконы +1.5: 70.9% (Kмод 1.41)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45988.8125</v>
+        <v>45989.79166666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ЦСКА – Лада</t>
+          <t>Северсталь – Локомотив</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 27.11.2025
-ЦСКА – Лада
+          <t>КХЛ • Регулярный чемпионат • 28.11.2025
+Северсталь – Локомотив
 Ожидания модели (60’):
-• Голы: λ_total ≈ 3.96 (2.82 : 1.15)
-• Броски: SOG λ ≈ 48 (28 : 21)
+• Голы: λ_total ≈ 2.65 (1.33 : 1.32)
+• Броски: SOG λ ≈ 45 (22 : 22)
 Исход (60’), честные кф:
-• П1: 72.0%  (Kмод 1.39)
-• Х:  15.2%  (Kмод 6.58)
-• П2: 12.8%  (Kмод 7.80)
+• П1: 37.1%  (Kмод 2.69)
+• Х:  26.1%  (Kмод 3.83)
+• П2: 36.8%  (Kмод 2.72)
 Тоталы голов:
-• ТМ 4.5: 63.6%  (Kмод 1.57)
-• ТБ 4.5: 36.4%  (Kмод 2.75)
-• ТМ 5.5: 79.1%  (Kмод 1.26)
-• ТБ 5.5: 20.9%  (Kмод 4.78)
-• ТМ 6.5: 89.3%  (Kмод 1.12)
-• ТБ 6.5: 10.7%  (Kмод 9.37)
+• ТМ 4.5: 87.1%  (Kмод 1.15)
+• ТБ 4.5: 12.9%  (Kмод 7.73)
+• ТМ 5.5: 94.7%  (Kмод 1.06)
+• ТБ 5.5: 5.3%  (Kмод 19.00)
+• ТМ 6.5: 98.1%  (Kмод 1.02)
+• ТБ 6.5: 1.9%  (Kмод 53.35)
 Индивидуальные тоталы:
-• ЦСКА ИТБ 1.5: 77.2% (Kмод 1.30)
-• ЦСКА ИТБ 2.5: 53.4% (Kмод 1.87)
-• Лада ИТБ 1.5: 31.9% (Kмод 3.14)
-• Лада ИТБ 2.5: 10.9% (Kмод 9.14)
+• Северсталь ИТБ 1.5: 38.3% (Kмод 2.61)
+• Северсталь ИТБ 2.5: 14.9% (Kмод 6.69)
+• Локомотив ИТБ 1.5: 38.0% (Kмод 2.63)
+• Локомотив ИТБ 2.5: 14.7% (Kмод 6.78)
 Фора +1.5:
-• ЦСКА +1.5: 95.4% (Kмод 1.05)
-• Лада +1.5: 48.1% (Kмод 2.08)</t>
+• Северсталь +1.5: 83.6% (Kмод 1.20)
+• Локомотив +1.5: 83.3% (Kмод 1.20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45989.79166666666</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Торпедо – Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 28.11.2025
+Торпедо – Динамо Мн
+Ожидания модели (60’):
+• Голы: λ_total ≈ 5.76 (1.93 : 3.82)
+• Броски: SOG λ ≈ 67 (28 : 40)
+Исход (60’), честные кф:
+• П1: 15.4%  (Kмод 6.49)
+• Х:  12.8%  (Kмод 7.84)
+• П2: 71.6%  (Kмод 1.40)
+Тоталы голов:
+• ТМ 4.5: 31.9%  (Kмод 3.14)
+• ТБ 4.5: 67.9%  (Kмод 1.47)
+• ТМ 5.5: 48.5%  (Kмод 2.06)
+• ТБ 5.5: 51.3%  (Kмод 1.95)
+• ТМ 6.5: 64.5%  (Kмод 1.55)
+• ТБ 6.5: 35.3%  (Kмод 2.83)
+Индивидуальные тоталы:
+• Торпедо ИТБ 1.5: 57.6% (Kмод 1.74)
+• Торпедо ИТБ 2.5: 30.6% (Kмод 3.27)
+• Динамо Мн ИТБ 1.5: 89.5% (Kмод 1.12)
+• Динамо Мн ИТБ 2.5: 73.5% (Kмод 1.36)
+Фора +1.5:
+• Торпедо +1.5: 44.4% (Kмод 2.25)
+• Динамо Мн +1.5: 92.6% (Kмод 1.08)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU6"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45989.70833333334</v>
+        <v>45990.5625</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Трактор – ХК Сочи</t>
+          <t>Сибирь – Автомобилист</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897827</v>
+        <v>897828</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897827.html</t>
+          <t>https://text.khl.ru/text/897828.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>0.833333</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3.061201</v>
       </c>
       <c r="J2" t="n">
-        <v>6.5</v>
+        <v>3.894535</v>
       </c>
       <c r="K2" t="n">
-        <v>41.132791</v>
+        <v>22.523066</v>
       </c>
       <c r="L2" t="n">
-        <v>22.883368</v>
+        <v>33.006542</v>
       </c>
       <c r="M2" t="n">
-        <v>64.016159</v>
+        <v>55.529608</v>
       </c>
       <c r="N2" t="n">
-        <v>0.779471</v>
+        <v>0.225401</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07383199999999999</v>
+        <v>0.171304</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09566</v>
+        <v>0.6031069999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.28292136590072</v>
+        <v>4.436537548635543</v>
       </c>
       <c r="R2" t="n">
-        <v>13.54426265034132</v>
+        <v>5.83757530472143</v>
       </c>
       <c r="S2" t="n">
-        <v>10.45369015262388</v>
+        <v>1.658080572767353</v>
       </c>
       <c r="T2" t="n">
-        <v>77.94710000000001</v>
+        <v>22.5401</v>
       </c>
       <c r="U2" t="n">
-        <v>7.3832</v>
+        <v>17.1304</v>
       </c>
       <c r="V2" t="n">
-        <v>9.565999999999999</v>
+        <v>60.3107</v>
       </c>
       <c r="W2" t="n">
-        <v>0.053712</v>
+        <v>0.513157</v>
       </c>
       <c r="X2" t="n">
-        <v>0.895251</v>
+        <v>0.486655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.117005175084976</v>
+        <v>2.054843780501587</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.113432</v>
+        <v>0.685689</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.835531</v>
+        <v>0.314124</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.196843683836985</v>
+        <v>3.183456214743222</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.203386</v>
+        <v>0.817975</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.745577</v>
+        <v>0.181838</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.341243090921528</v>
+        <v>5.499400565338378</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.9852300000000001</v>
+        <v>0.525037</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01477</v>
+        <v>0.474963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.014991423322473</v>
+        <v>1.904627673859176</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.945893</v>
+        <v>0.258588</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.054107</v>
+        <v>0.741412</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.057202030250779</v>
+        <v>3.867155475118722</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.777299</v>
+        <v>0.775779</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.222701</v>
+        <v>0.224221</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.286506222187344</v>
+        <v>1.289026900702391</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5423789999999999</v>
+        <v>0.540216</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.457621</v>
+        <v>0.459784</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.843729200429958</v>
+        <v>1.851111407288936</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.90032</v>
+        <v>0.588135</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.110716189799182</v>
+        <v>1.700289899427853</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.271571</v>
+        <v>0.892984</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.682278299229299</v>
+        <v>1.119840893005922</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45989.79166666666</v>
+        <v>45990.60416666666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ак Барс – СКА</t>
+          <t>Металлург Мг – Барыс</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897823</v>
+        <v>897829</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897823.html</t>
+          <t>https://text.khl.ru/text/897829.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.240677</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.923077</v>
+        <v>1.808836</v>
       </c>
       <c r="J3" t="n">
-        <v>6.163754</v>
+        <v>7.808836</v>
       </c>
       <c r="K3" t="n">
-        <v>29.335543</v>
+        <v>38.880765</v>
       </c>
       <c r="L3" t="n">
-        <v>34.435929</v>
+        <v>26.496915</v>
       </c>
       <c r="M3" t="n">
-        <v>63.771472</v>
+        <v>65.37768</v>
       </c>
       <c r="N3" t="n">
-        <v>0.125662</v>
+        <v>0.693818</v>
       </c>
       <c r="O3" t="n">
-        <v>0.108911</v>
+        <v>0.106573</v>
       </c>
       <c r="P3" t="n">
-        <v>0.760551</v>
+        <v>0.177431</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.957855198866802</v>
+        <v>1.441300168055599</v>
       </c>
       <c r="R3" t="n">
-        <v>9.181809000009183</v>
+        <v>9.383239657324088</v>
       </c>
       <c r="S3" t="n">
-        <v>1.314836217426576</v>
+        <v>5.635993710231019</v>
       </c>
       <c r="T3" t="n">
-        <v>12.5662</v>
+        <v>69.3818</v>
       </c>
       <c r="U3" t="n">
-        <v>10.8911</v>
+        <v>10.6573</v>
       </c>
       <c r="V3" t="n">
-        <v>76.0551</v>
+        <v>17.7431</v>
       </c>
       <c r="W3" t="n">
-        <v>0.246453</v>
+        <v>0.07134600000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>0.748671</v>
+        <v>0.9064759999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.335700194077238</v>
+        <v>1.103173167298417</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.398203</v>
+        <v>0.144446</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.596921</v>
+        <v>0.833376</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.675263560839709</v>
+        <v>1.199938563145567</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.557636</v>
+        <v>0.248851</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.437488</v>
+        <v>0.728972</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.285776981311487</v>
+        <v>1.371794801446421</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.593576</v>
+        <v>0.970307</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.406424</v>
+        <v>0.029693</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.684704233324797</v>
+        <v>1.030601654940138</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.322906</v>
+        <v>0.903124</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.677094</v>
+        <v>0.096876</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.096876490371811</v>
+        <v>1.107267662026477</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.928395</v>
+        <v>0.828967</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.071605</v>
+        <v>0.171033</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.077127731192003</v>
+        <v>1.206320637612836</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.803308</v>
+        <v>0.620366</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.196692</v>
+        <v>0.379634</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.244852534768731</v>
+        <v>1.611951654345983</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.380078</v>
+        <v>0.877549</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.631038892016901</v>
+        <v>1.139537507307284</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.937003</v>
+        <v>0.413387</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.06723244215867</v>
+        <v>2.419040753579575</v>
       </c>
     </row>
     <row r="4">
@@ -982,452 +982,150 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45989.79166666666</v>
+        <v>45990.70833333334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Нефтехимик – Драконы</t>
+          <t>Спартак – Лада</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897826</v>
+        <v>897830</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897826.html</t>
+          <t>https://text.khl.ru/text/897830.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.591473</v>
+        <v>4.421053</v>
       </c>
       <c r="I4" t="n">
-        <v>1.848538</v>
+        <v>1.111111</v>
       </c>
       <c r="J4" t="n">
-        <v>3.440011</v>
+        <v>5.532164</v>
       </c>
       <c r="K4" t="n">
-        <v>27.688566</v>
+        <v>41.634955</v>
       </c>
       <c r="L4" t="n">
-        <v>27.29634</v>
+        <v>21.960244</v>
       </c>
       <c r="M4" t="n">
-        <v>54.984906</v>
+        <v>63.595199</v>
       </c>
       <c r="N4" t="n">
-        <v>0.436582</v>
+        <v>0.591843</v>
       </c>
       <c r="O4" t="n">
-        <v>0.157276</v>
+        <v>0.153703</v>
       </c>
       <c r="P4" t="n">
-        <v>0.404708</v>
+        <v>0.253435</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.290520452057116</v>
+        <v>1.689637285563908</v>
       </c>
       <c r="R4" t="n">
-        <v>6.358249192502353</v>
+        <v>6.50605388313826</v>
       </c>
       <c r="S4" t="n">
-        <v>2.470917303339692</v>
+        <v>3.945784915264269</v>
       </c>
       <c r="T4" t="n">
-        <v>43.6582</v>
+        <v>59.1843</v>
       </c>
       <c r="U4" t="n">
-        <v>15.7276</v>
+        <v>15.3703</v>
       </c>
       <c r="V4" t="n">
-        <v>40.4708</v>
+        <v>25.3435</v>
       </c>
       <c r="W4" t="n">
-        <v>0.203053</v>
+        <v>0.301673</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7955140000000001</v>
+        <v>0.697308</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.257048901716374</v>
+        <v>1.434086515571311</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.341846</v>
+        <v>0.465416</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.65672</v>
+        <v>0.533565</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.522718966987453</v>
+        <v>1.874185900499471</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.496633</v>
+        <v>0.625838</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.501934</v>
+        <v>0.373142</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.992293807552387</v>
+        <v>2.679944900332849</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.853008</v>
+        <v>0.862108</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.146992</v>
+        <v>0.137892</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.172321947742577</v>
+        <v>1.159947477578215</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.660005</v>
+        <v>0.675656</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.339995</v>
+        <v>0.324344</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.515140036817903</v>
+        <v>1.480043098855039</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.84051</v>
+        <v>0.690939</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.15949</v>
+        <v>0.309061</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.189753839930518</v>
+        <v>1.447305767947677</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.639103</v>
+        <v>0.429548</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.360897</v>
+        <v>0.570452</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.564693015053912</v>
+        <v>2.328028532317692</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.736572</v>
+        <v>0.861453</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.357640529371195</v>
+        <v>1.160829435848503</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.709293</v>
+        <v>0.575461</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.409854601694927</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45989.79166666666</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Северсталь</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Локомотив</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Северсталь – Локомотив</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>897825</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897825.html</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.40625</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.90625</v>
-      </c>
-      <c r="K5" t="n">
-        <v>22.31792</v>
-      </c>
-      <c r="L5" t="n">
-        <v>22.352212</v>
-      </c>
-      <c r="M5" t="n">
-        <v>44.670133</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.371378</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.261117</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.367505</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.692674310271475</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3.829700862065664</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.721051414266472</v>
-      </c>
-      <c r="T5" t="n">
-        <v>37.1378</v>
-      </c>
-      <c r="U5" t="n">
-        <v>26.1117</v>
-      </c>
-      <c r="V5" t="n">
-        <v>36.7505</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.87056</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.129439</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7.725646829780824</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.947361</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.052639</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>18.99732137768575</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.981255</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.018745</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>53.34755934915977</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.383108</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.616892</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2.610230013468787</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.149413</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.850587</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>6.692858051173593</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.380173</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.619827</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.630381431611398</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.147469</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.852531</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>6.781086194386617</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.835571</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1.196786389187753</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0.832979</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>1.200510457046336</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45989.79166666666</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Торпедо</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Динамо Мн</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Торпедо – Динамо Мн</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>897824</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897824.html</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2.383937</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.636364</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.0203</v>
-      </c>
-      <c r="K6" t="n">
-        <v>27.808605</v>
-      </c>
-      <c r="L6" t="n">
-        <v>39.608055</v>
-      </c>
-      <c r="M6" t="n">
-        <v>67.41665999999999</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.154026</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.127631</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.716317</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6.492410372274811</v>
-      </c>
-      <c r="R6" t="n">
-        <v>7.835087086992973</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.396029969971395</v>
-      </c>
-      <c r="T6" t="n">
-        <v>15.4026</v>
-      </c>
-      <c r="U6" t="n">
-        <v>12.7631</v>
-      </c>
-      <c r="V6" t="n">
-        <v>71.6317</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.318863</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.679112</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.472511161634605</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.485416</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.512559</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.95099490985428</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.64523</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.352744</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>2.834917107023791</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.575909</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.424091</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.736385435893518</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.305537</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.6944630000000001</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>3.272926028598828</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.894557</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.105443</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1.117871751045489</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.734795</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.265205</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.360923795072095</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.443622</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>2.254171344072205</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.925895</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>1.080036073204845</v>
+        <v>1.737737222852635</v>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,191 +1166,115 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45989.70833333334</v>
+        <v>45990.5625</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Трактор – ХК Сочи</t>
+          <t>Сибирь – Автомобилист</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 28.11.2025
-Трактор – ХК Сочи
+          <t>КХЛ • Регулярный чемпионат • 29.11.2025
+Сибирь – Автомобилист
 Ожидания модели (60’):
-• Голы: λ_total ≈ 9.04 (6.19 : 2.85)
-• Броски: SOG λ ≈ 64 (41 : 23)
+• Голы: λ_total ≈ 4.60 (1.76 : 2.84)
+• Броски: SOG λ ≈ 56 (23 : 33)
 Исход (60’), честные кф:
-• П1: 77.9%  (Kмод 1.28)
-• Х:  7.4%  (Kмод 13.54)
-• П2: 9.6%  (Kмод 10.45)
+• П1: 22.5%  (Kмод 4.44)
+• Х:  17.1%  (Kмод 5.84)
+• П2: 60.3%  (Kмод 1.66)
 Тоталы голов:
-• ТМ 4.5: 5.4%  (Kмод 18.62)
-• ТБ 4.5: 89.5%  (Kмод 1.12)
-• ТМ 5.5: 11.3%  (Kмод 8.82)
-• ТБ 5.5: 83.6%  (Kмод 1.20)
-• ТМ 6.5: 20.3%  (Kмод 4.92)
-• ТБ 6.5: 74.6%  (Kмод 1.34)
+• ТМ 4.5: 51.3%  (Kмод 1.95)
+• ТБ 4.5: 48.7%  (Kмод 2.05)
+• ТМ 5.5: 68.6%  (Kмод 1.46)
+• ТБ 5.5: 31.4%  (Kмод 3.18)
+• ТМ 6.5: 81.8%  (Kмод 1.22)
+• ТБ 6.5: 18.2%  (Kмод 5.50)
 Индивидуальные тоталы:
-• Трактор ИТБ 1.5: 98.5% (Kмод 1.01)
-• Трактор ИТБ 2.5: 94.6% (Kмод 1.06)
-• ХК Сочи ИТБ 1.5: 77.7% (Kмод 1.29)
-• ХК Сочи ИТБ 2.5: 54.2% (Kмод 1.84)
+• Сибирь ИТБ 1.5: 52.5% (Kмод 1.90)
+• Сибирь ИТБ 2.5: 25.9% (Kмод 3.87)
+• Автомобилист ИТБ 1.5: 77.6% (Kмод 1.29)
+• Автомобилист ИТБ 2.5: 54.0% (Kмод 1.85)
 Фора +1.5:
-• Трактор +1.5: 90.0% (Kмод 1.11)
-• ХК Сочи +1.5: 27.2% (Kмод 3.68)</t>
+• Сибирь +1.5: 58.8% (Kмод 1.70)
+• Автомобилист +1.5: 89.3% (Kмод 1.12)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45989.79166666666</v>
+        <v>45990.60416666666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ак Барс – СКА</t>
+          <t>Металлург Мг – Барыс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 28.11.2025
-Ак Барс – СКА
+          <t>КХЛ • Регулярный чемпионат • 29.11.2025
+Металлург Мг – Барыс
 Ожидания модели (60’):
-• Голы: λ_total ≈ 6.30 (2.00 : 4.31)
-• Броски: SOG λ ≈ 64 (29 : 34)
+• Голы: λ_total ≈ 8.57 (5.37 : 3.20)
+• Броски: SOG λ ≈ 65 (39 : 26)
 Исход (60’), честные кф:
-• П1: 12.6%  (Kмод 7.96)
-• Х:  10.9%  (Kмод 9.18)
-• П2: 76.1%  (Kмод 1.31)
+• П1: 69.4%  (Kмод 1.44)
+• Х:  10.7%  (Kмод 9.38)
+• П2: 17.7%  (Kмод 5.64)
 Тоталы голов:
-• ТМ 4.5: 24.6%  (Kмод 4.06)
-• ТБ 4.5: 74.9%  (Kмод 1.34)
-• ТМ 5.5: 39.8%  (Kмод 2.51)
-• ТБ 5.5: 59.7%  (Kмод 1.68)
-• ТМ 6.5: 55.8%  (Kмод 1.79)
-• ТБ 6.5: 43.7%  (Kмод 2.29)
+• ТМ 4.5: 7.1%  (Kмод 14.02)
+• ТБ 4.5: 90.6%  (Kмод 1.10)
+• ТМ 5.5: 14.4%  (Kмод 6.92)
+• ТБ 5.5: 83.3%  (Kмод 1.20)
+• ТМ 6.5: 24.9%  (Kмод 4.02)
+• ТБ 6.5: 72.9%  (Kмод 1.37)
 Индивидуальные тоталы:
-• Ак Барс ИТБ 1.5: 59.4% (Kмод 1.68)
-• Ак Барс ИТБ 2.5: 32.3% (Kмод 3.10)
-• СКА ИТБ 1.5: 92.8% (Kмод 1.08)
-• СКА ИТБ 2.5: 80.3% (Kмод 1.24)
+• Металлург Мг ИТБ 1.5: 97.0% (Kмод 1.03)
+• Металлург Мг ИТБ 2.5: 90.3% (Kмод 1.11)
+• Барыс ИТБ 1.5: 82.9% (Kмод 1.21)
+• Барыс ИТБ 2.5: 62.0% (Kмод 1.61)
 Фора +1.5:
-• Ак Барс +1.5: 38.0% (Kмод 2.63)
-• СКА +1.5: 93.7% (Kмод 1.07)</t>
+• Металлург Мг +1.5: 87.8% (Kмод 1.14)
+• Барыс +1.5: 41.3% (Kмод 2.42)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45989.79166666666</v>
+        <v>45990.70833333334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Нефтехимик – Драконы</t>
+          <t>Спартак – Лада</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 28.11.2025
-Нефтехимик – Драконы
+          <t>КХЛ • Регулярный чемпионат • 29.11.2025
+Спартак – Лада
 Ожидания модели (60’):
-• Голы: λ_total ≈ 6.69 (3.40 : 3.29)
-• Броски: SOG λ ≈ 55 (28 : 27)
+• Голы: λ_total ≈ 5.88 (3.48 : 2.40)
+• Броски: SOG λ ≈ 64 (42 : 22)
 Исход (60’), честные кф:
-• П1: 43.7%  (Kмод 2.29)
-• Х:  15.7%  (Kмод 6.36)
-• П2: 40.5%  (Kмод 2.47)
+• П1: 59.2%  (Kмод 1.69)
+• Х:  15.4%  (Kмод 6.51)
+• П2: 25.3%  (Kмод 3.95)
 Тоталы голов:
-• ТМ 4.5: 20.3%  (Kмод 4.92)
-• ТБ 4.5: 79.6%  (Kмод 1.26)
-• ТМ 5.5: 34.2%  (Kмод 2.93)
-• ТБ 5.5: 65.7%  (Kмод 1.52)
-• ТМ 6.5: 49.7%  (Kмод 2.01)
-• ТБ 6.5: 50.2%  (Kмод 1.99)
+• ТМ 4.5: 30.2%  (Kмод 3.31)
+• ТБ 4.5: 69.7%  (Kмод 1.43)
+• ТМ 5.5: 46.5%  (Kмод 2.15)
+• ТБ 5.5: 53.4%  (Kмод 1.87)
+• ТМ 6.5: 62.6%  (Kмод 1.60)
+• ТБ 6.5: 37.3%  (Kмод 2.68)
 Индивидуальные тоталы:
-• Нефтехимик ИТБ 1.5: 85.3% (Kмод 1.17)
-• Нефтехимик ИТБ 2.5: 66.0% (Kмод 1.52)
-• Драконы ИТБ 1.5: 84.1% (Kмод 1.19)
-• Драконы ИТБ 2.5: 63.9% (Kмод 1.56)
+• Спартак ИТБ 1.5: 86.2% (Kмод 1.16)
+• Спартак ИТБ 2.5: 67.6% (Kмод 1.48)
+• Лада ИТБ 1.5: 69.1% (Kмод 1.45)
+• Лада ИТБ 2.5: 43.0% (Kмод 2.33)
 Фора +1.5:
-• Нефтехимик +1.5: 73.7% (Kмод 1.36)
-• Драконы +1.5: 70.9% (Kмод 1.41)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45989.79166666666</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Северсталь – Локомотив</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>КХЛ • Регулярный чемпионат • 28.11.2025
-Северсталь – Локомотив
-Ожидания модели (60’):
-• Голы: λ_total ≈ 2.65 (1.33 : 1.32)
-• Броски: SOG λ ≈ 45 (22 : 22)
-Исход (60’), честные кф:
-• П1: 37.1%  (Kмод 2.69)
-• Х:  26.1%  (Kмод 3.83)
-• П2: 36.8%  (Kмод 2.72)
-Тоталы голов:
-• ТМ 4.5: 87.1%  (Kмод 1.15)
-• ТБ 4.5: 12.9%  (Kмод 7.73)
-• ТМ 5.5: 94.7%  (Kмод 1.06)
-• ТБ 5.5: 5.3%  (Kмод 19.00)
-• ТМ 6.5: 98.1%  (Kмод 1.02)
-• ТБ 6.5: 1.9%  (Kмод 53.35)
-Индивидуальные тоталы:
-• Северсталь ИТБ 1.5: 38.3% (Kмод 2.61)
-• Северсталь ИТБ 2.5: 14.9% (Kмод 6.69)
-• Локомотив ИТБ 1.5: 38.0% (Kмод 2.63)
-• Локомотив ИТБ 2.5: 14.7% (Kмод 6.78)
-Фора +1.5:
-• Северсталь +1.5: 83.6% (Kмод 1.20)
-• Локомотив +1.5: 83.3% (Kмод 1.20)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45989.79166666666</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Торпедо – Динамо Мн</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>КХЛ • Регулярный чемпионат • 28.11.2025
-Торпедо – Динамо Мн
-Ожидания модели (60’):
-• Голы: λ_total ≈ 5.76 (1.93 : 3.82)
-• Броски: SOG λ ≈ 67 (28 : 40)
-Исход (60’), честные кф:
-• П1: 15.4%  (Kмод 6.49)
-• Х:  12.8%  (Kмод 7.84)
-• П2: 71.6%  (Kмод 1.40)
-Тоталы голов:
-• ТМ 4.5: 31.9%  (Kмод 3.14)
-• ТБ 4.5: 67.9%  (Kмод 1.47)
-• ТМ 5.5: 48.5%  (Kмод 2.06)
-• ТБ 5.5: 51.3%  (Kмод 1.95)
-• ТМ 6.5: 64.5%  (Kмод 1.55)
-• ТБ 6.5: 35.3%  (Kмод 2.83)
-Индивидуальные тоталы:
-• Торпедо ИТБ 1.5: 57.6% (Kмод 1.74)
-• Торпедо ИТБ 2.5: 30.6% (Kмод 3.27)
-• Динамо Мн ИТБ 1.5: 89.5% (Kмод 1.12)
-• Динамо Мн ИТБ 2.5: 73.5% (Kмод 1.36)
-Фора +1.5:
-• Торпедо +1.5: 44.4% (Kмод 2.25)
-• Динамо Мн +1.5: 92.6% (Kмод 1.08)</t>
+• Спартак +1.5: 86.1% (Kмод 1.16)
+• Лада +1.5: 57.5% (Kмод 1.74)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45990.5625</v>
+        <v>45991.41666666666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Сибирь – Автомобилист</t>
+          <t>Адмирал – Динамо Мн</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897828</v>
+        <v>897831</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897828.html</t>
+          <t>https://text.khl.ru/text/897831.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.833333</v>
+        <v>2.617412</v>
       </c>
       <c r="I2" t="n">
-        <v>3.061201</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.894535</v>
+        <v>7.117412</v>
       </c>
       <c r="K2" t="n">
-        <v>22.523066</v>
+        <v>28.706351</v>
       </c>
       <c r="L2" t="n">
-        <v>33.006542</v>
+        <v>36.917927</v>
       </c>
       <c r="M2" t="n">
-        <v>55.529608</v>
+        <v>65.624278</v>
       </c>
       <c r="N2" t="n">
-        <v>0.225401</v>
+        <v>0.284707</v>
       </c>
       <c r="O2" t="n">
-        <v>0.171304</v>
+        <v>0.176781</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6031069999999999</v>
+        <v>0.53833</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.436537548635543</v>
+        <v>3.512382905934873</v>
       </c>
       <c r="R2" t="n">
-        <v>5.83757530472143</v>
+        <v>5.656716502339052</v>
       </c>
       <c r="S2" t="n">
-        <v>1.658080572767353</v>
+        <v>1.857596641465272</v>
       </c>
       <c r="T2" t="n">
-        <v>22.5401</v>
+        <v>28.4707</v>
       </c>
       <c r="U2" t="n">
-        <v>17.1304</v>
+        <v>17.6781</v>
       </c>
       <c r="V2" t="n">
-        <v>60.3107</v>
+        <v>53.833</v>
       </c>
       <c r="W2" t="n">
-        <v>0.513157</v>
+        <v>0.459734</v>
       </c>
       <c r="X2" t="n">
-        <v>0.486655</v>
+        <v>0.540084</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.054843780501587</v>
+        <v>1.851563830811503</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.685689</v>
+        <v>0.634992</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.314124</v>
+        <v>0.364827</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.183456214743222</v>
+        <v>2.741025198244647</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.817975</v>
+        <v>0.77787</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.181838</v>
+        <v>0.221948</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.499400565338378</v>
+        <v>4.505559860868312</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.525037</v>
+        <v>0.614955</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.474963</v>
+        <v>0.385045</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.904627673859176</v>
+        <v>1.626135245668382</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.258588</v>
+        <v>0.344695</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.741412</v>
+        <v>0.655305</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.867155475118722</v>
+        <v>2.901115478901638</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.775779</v>
+        <v>0.771042</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.224221</v>
+        <v>0.228958</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.289026900702391</v>
+        <v>1.296946210452868</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.540216</v>
+        <v>0.533521</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.459784</v>
+        <v>0.466479</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.851111407288936</v>
+        <v>1.874340466448368</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.588135</v>
+        <v>0.644371</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.700289899427853</v>
+        <v>1.551901001131336</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.892984</v>
+        <v>0.850298</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.119840893005922</v>
+        <v>1.176058276039694</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45990.60416666666</v>
+        <v>45991.41666666666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Металлург Мг – Барыс</t>
+          <t>Амур – ХК Сочи</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897829</v>
+        <v>897832</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897829.html</t>
+          <t>https://text.khl.ru/text/897832.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1.225758</v>
       </c>
       <c r="I3" t="n">
-        <v>1.808836</v>
+        <v>0.961538</v>
       </c>
       <c r="J3" t="n">
-        <v>7.808836</v>
+        <v>2.187297</v>
       </c>
       <c r="K3" t="n">
-        <v>38.880765</v>
+        <v>24.98031</v>
       </c>
       <c r="L3" t="n">
-        <v>26.496915</v>
+        <v>25.615145</v>
       </c>
       <c r="M3" t="n">
-        <v>65.37768</v>
+        <v>50.595455</v>
       </c>
       <c r="N3" t="n">
-        <v>0.693818</v>
+        <v>0.827776</v>
       </c>
       <c r="O3" t="n">
-        <v>0.106573</v>
+        <v>0.091762</v>
       </c>
       <c r="P3" t="n">
-        <v>0.177431</v>
+        <v>0.07685</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.441300168055599</v>
+        <v>1.208056285758466</v>
       </c>
       <c r="R3" t="n">
-        <v>9.383239657324088</v>
+        <v>10.89775724155969</v>
       </c>
       <c r="S3" t="n">
-        <v>5.635993710231019</v>
+        <v>13.01236174365647</v>
       </c>
       <c r="T3" t="n">
-        <v>69.3818</v>
+        <v>82.77759999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>10.6573</v>
+        <v>9.1762</v>
       </c>
       <c r="V3" t="n">
-        <v>17.7431</v>
+        <v>7.685</v>
       </c>
       <c r="W3" t="n">
-        <v>0.07134600000000001</v>
+        <v>0.350229</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9064759999999999</v>
+        <v>0.646159</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.103173167298417</v>
+        <v>1.547606703613197</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.144446</v>
+        <v>0.520867</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.833376</v>
+        <v>0.475522</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.199938563145567</v>
+        <v>2.10295212419194</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.248851</v>
+        <v>0.678623</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.728972</v>
+        <v>0.317765</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.371794801446421</v>
+        <v>3.146979686246125</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.970307</v>
+        <v>0.917635</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.029693</v>
+        <v>0.08236499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.030601654940138</v>
+        <v>1.089757910280231</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.903124</v>
+        <v>0.780622</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.096876</v>
+        <v>0.219378</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.107267662026477</v>
+        <v>1.281029742948572</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.828967</v>
+        <v>0.413325</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.171033</v>
+        <v>0.5866749999999999</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.206320637612836</v>
+        <v>2.419403617008407</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.620366</v>
+        <v>0.170132</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.379634</v>
+        <v>0.8298680000000001</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.611951654345983</v>
+        <v>5.877789010885665</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.877549</v>
+        <v>0.967298</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.139537507307284</v>
+        <v>1.033807575328389</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.413387</v>
+        <v>0.308085</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.419040753579575</v>
+        <v>3.245857474398299</v>
       </c>
     </row>
     <row r="4">
@@ -982,150 +982,150 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45990.70833333334</v>
+        <v>45991.70833333334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Спартак – Лада</t>
+          <t>Ак Барс – Драконы</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897830</v>
+        <v>897833</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897830.html</t>
+          <t>https://text.khl.ru/text/897833.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.421053</v>
+        <v>3.055625</v>
       </c>
       <c r="I4" t="n">
-        <v>1.111111</v>
+        <v>3.676454</v>
       </c>
       <c r="J4" t="n">
-        <v>5.532164</v>
+        <v>6.732079</v>
       </c>
       <c r="K4" t="n">
-        <v>41.634955</v>
+        <v>33.778683</v>
       </c>
       <c r="L4" t="n">
-        <v>21.960244</v>
+        <v>31.087527</v>
       </c>
       <c r="M4" t="n">
-        <v>63.595199</v>
+        <v>64.86621100000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.591843</v>
+        <v>0.49328</v>
       </c>
       <c r="O4" t="n">
-        <v>0.153703</v>
+        <v>0.140849</v>
       </c>
       <c r="P4" t="n">
-        <v>0.253435</v>
+        <v>0.359373</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.689637285563908</v>
+        <v>2.027246188777165</v>
       </c>
       <c r="R4" t="n">
-        <v>6.50605388313826</v>
+        <v>7.099801915526557</v>
       </c>
       <c r="S4" t="n">
-        <v>3.945784915264269</v>
+        <v>2.782624181560663</v>
       </c>
       <c r="T4" t="n">
-        <v>59.1843</v>
+        <v>49.328</v>
       </c>
       <c r="U4" t="n">
-        <v>15.3703</v>
+        <v>14.0849</v>
       </c>
       <c r="V4" t="n">
-        <v>25.3435</v>
+        <v>35.9373</v>
       </c>
       <c r="W4" t="n">
-        <v>0.301673</v>
+        <v>0.096294</v>
       </c>
       <c r="X4" t="n">
-        <v>0.697308</v>
+        <v>0.897208</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.434086515571311</v>
+        <v>1.11456875105884</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.465416</v>
+        <v>0.185875</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.533565</v>
+        <v>0.807627</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.874185900499471</v>
+        <v>1.238195355033945</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.625838</v>
+        <v>0.3062</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.373142</v>
+        <v>0.687302</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.679944900332849</v>
+        <v>1.454964484316938</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.862108</v>
+        <v>0.926781</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.137892</v>
+        <v>0.07321900000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.159947477578215</v>
+        <v>1.079003561790757</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.675656</v>
+        <v>0.7998459999999999</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.324344</v>
+        <v>0.200154</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.480043098855039</v>
+        <v>1.250240671329231</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.690939</v>
+        <v>0.891025</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.309061</v>
+        <v>0.108975</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.447305767947677</v>
+        <v>1.122302965685587</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.429548</v>
+        <v>0.7280799999999999</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.570452</v>
+        <v>0.27192</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.328028532317692</v>
+        <v>1.373475442259092</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.861453</v>
+        <v>0.758018</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.160829435848503</v>
+        <v>1.319229886361538</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.575461</v>
+        <v>0.6403759999999999</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.737737222852635</v>
+        <v>1.561582570239984</v>
       </c>
     </row>
   </sheetData>
@@ -1166,115 +1166,115 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45990.5625</v>
+        <v>45991.41666666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Сибирь – Автомобилист</t>
+          <t>Адмирал – Динамо Мн</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 29.11.2025
-Сибирь – Автомобилист
+          <t>КХЛ • Регулярный чемпионат • 30.11.2025
+Адмирал – Динамо Мн
 Ожидания модели (60’):
-• Голы: λ_total ≈ 4.60 (1.76 : 2.84)
-• Броски: SOG λ ≈ 56 (23 : 33)
+• Голы: λ_total ≈ 4.89 (2.08 : 2.81)
+• Броски: SOG λ ≈ 66 (29 : 37)
 Исход (60’), честные кф:
-• П1: 22.5%  (Kмод 4.44)
-• Х:  17.1%  (Kмод 5.84)
-• П2: 60.3%  (Kмод 1.66)
+• П1: 28.5%  (Kмод 3.51)
+• Х:  17.7%  (Kмод 5.66)
+• П2: 53.8%  (Kмод 1.86)
 Тоталы голов:
-• ТМ 4.5: 51.3%  (Kмод 1.95)
-• ТБ 4.5: 48.7%  (Kмод 2.05)
-• ТМ 5.5: 68.6%  (Kмод 1.46)
-• ТБ 5.5: 31.4%  (Kмод 3.18)
-• ТМ 6.5: 81.8%  (Kмод 1.22)
-• ТБ 6.5: 18.2%  (Kмод 5.50)
+• ТМ 4.5: 46.0%  (Kмод 2.18)
+• ТБ 4.5: 54.0%  (Kмод 1.85)
+• ТМ 5.5: 63.5%  (Kмод 1.57)
+• ТБ 5.5: 36.5%  (Kмод 2.74)
+• ТМ 6.5: 77.8%  (Kмод 1.29)
+• ТБ 6.5: 22.2%  (Kмод 4.51)
 Индивидуальные тоталы:
-• Сибирь ИТБ 1.5: 52.5% (Kмод 1.90)
-• Сибирь ИТБ 2.5: 25.9% (Kмод 3.87)
-• Автомобилист ИТБ 1.5: 77.6% (Kмод 1.29)
-• Автомобилист ИТБ 2.5: 54.0% (Kмод 1.85)
+• Адмирал ИТБ 1.5: 61.5% (Kмод 1.63)
+• Адмирал ИТБ 2.5: 34.5% (Kмод 2.90)
+• Динамо Мн ИТБ 1.5: 77.1% (Kмод 1.30)
+• Динамо Мн ИТБ 2.5: 53.4% (Kмод 1.87)
 Фора +1.5:
-• Сибирь +1.5: 58.8% (Kмод 1.70)
-• Автомобилист +1.5: 89.3% (Kмод 1.12)</t>
+• Адмирал +1.5: 64.4% (Kмод 1.55)
+• Динамо Мн +1.5: 85.0% (Kмод 1.18)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45990.60416666666</v>
+        <v>45991.41666666666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Металлург Мг – Барыс</t>
+          <t>Амур – ХК Сочи</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 29.11.2025
-Металлург Мг – Барыс
+          <t>КХЛ • Регулярный чемпионат • 30.11.2025
+Амур – ХК Сочи
 Ожидания модели (60’):
-• Голы: λ_total ≈ 8.57 (5.37 : 3.20)
-• Броски: SOG λ ≈ 65 (39 : 26)
+• Голы: λ_total ≈ 5.55 (4.13 : 1.41)
+• Броски: SOG λ ≈ 51 (25 : 26)
 Исход (60’), честные кф:
-• П1: 69.4%  (Kмод 1.44)
-• Х:  10.7%  (Kмод 9.38)
-• П2: 17.7%  (Kмод 5.64)
+• П1: 82.8%  (Kмод 1.21)
+• Х:  9.2%  (Kмод 10.90)
+• П2: 7.7%  (Kмод 13.01)
 Тоталы голов:
-• ТМ 4.5: 7.1%  (Kмод 14.02)
-• ТБ 4.5: 90.6%  (Kмод 1.10)
-• ТМ 5.5: 14.4%  (Kмод 6.92)
-• ТБ 5.5: 83.3%  (Kмод 1.20)
-• ТМ 6.5: 24.9%  (Kмод 4.02)
-• ТБ 6.5: 72.9%  (Kмод 1.37)
+• ТМ 4.5: 35.0%  (Kмод 2.86)
+• ТБ 4.5: 64.6%  (Kмод 1.55)
+• ТМ 5.5: 52.1%  (Kмод 1.92)
+• ТБ 5.5: 47.6%  (Kмод 2.10)
+• ТМ 6.5: 67.9%  (Kмод 1.47)
+• ТБ 6.5: 31.8%  (Kмод 3.15)
 Индивидуальные тоталы:
-• Металлург Мг ИТБ 1.5: 97.0% (Kмод 1.03)
-• Металлург Мг ИТБ 2.5: 90.3% (Kмод 1.11)
-• Барыс ИТБ 1.5: 82.9% (Kмод 1.21)
-• Барыс ИТБ 2.5: 62.0% (Kмод 1.61)
+• Амур ИТБ 1.5: 91.8% (Kмод 1.09)
+• Амур ИТБ 2.5: 78.1% (Kмод 1.28)
+• ХК Сочи ИТБ 1.5: 41.3% (Kмод 2.42)
+• ХК Сочи ИТБ 2.5: 17.0% (Kмод 5.88)
 Фора +1.5:
-• Металлург Мг +1.5: 87.8% (Kмод 1.14)
-• Барыс +1.5: 41.3% (Kмод 2.42)</t>
+• Амур +1.5: 96.7% (Kмод 1.03)
+• ХК Сочи +1.5: 30.8% (Kмод 3.25)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45990.70833333334</v>
+        <v>45991.70833333334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Спартак – Лада</t>
+          <t>Ак Барс – Драконы</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 29.11.2025
-Спартак – Лада
+          <t>КХЛ • Регулярный чемпионат • 30.11.2025
+Ак Барс – Драконы
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.88 (3.48 : 2.40)
-• Броски: SOG λ ≈ 64 (42 : 22)
+• Голы: λ_total ≈ 8.06 (4.28 : 3.78)
+• Броски: SOG λ ≈ 65 (34 : 31)
 Исход (60’), честные кф:
-• П1: 59.2%  (Kмод 1.69)
-• Х:  15.4%  (Kмод 6.51)
-• П2: 25.3%  (Kмод 3.95)
+• П1: 49.3%  (Kмод 2.03)
+• Х:  14.1%  (Kмод 7.10)
+• П2: 35.9%  (Kмод 2.78)
 Тоталы голов:
-• ТМ 4.5: 30.2%  (Kмод 3.31)
-• ТБ 4.5: 69.7%  (Kмод 1.43)
-• ТМ 5.5: 46.5%  (Kмод 2.15)
-• ТБ 5.5: 53.4%  (Kмод 1.87)
-• ТМ 6.5: 62.6%  (Kмод 1.60)
-• ТБ 6.5: 37.3%  (Kмод 2.68)
+• ТМ 4.5: 9.6%  (Kмод 10.38)
+• ТБ 4.5: 89.7%  (Kмод 1.11)
+• ТМ 5.5: 18.6%  (Kмод 5.38)
+• ТБ 5.5: 80.8%  (Kмод 1.24)
+• ТМ 6.5: 30.6%  (Kмод 3.27)
+• ТБ 6.5: 68.7%  (Kмод 1.45)
 Индивидуальные тоталы:
-• Спартак ИТБ 1.5: 86.2% (Kмод 1.16)
-• Спартак ИТБ 2.5: 67.6% (Kмод 1.48)
-• Лада ИТБ 1.5: 69.1% (Kмод 1.45)
-• Лада ИТБ 2.5: 43.0% (Kмод 2.33)
+• Ак Барс ИТБ 1.5: 92.7% (Kмод 1.08)
+• Ак Барс ИТБ 2.5: 80.0% (Kмод 1.25)
+• Драконы ИТБ 1.5: 89.1% (Kмод 1.12)
+• Драконы ИТБ 2.5: 72.8% (Kмод 1.37)
 Фора +1.5:
-• Спартак +1.5: 86.1% (Kмод 1.16)
-• Лада +1.5: 57.5% (Kмод 1.74)</t>
+• Ак Барс +1.5: 75.8% (Kмод 1.32)
+• Драконы +1.5: 64.0% (Kмод 1.56)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45991.41666666666</v>
+        <v>45992.64583333334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Адмирал – Динамо Мн</t>
+          <t>Сибирь – Барыс</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897831</v>
+        <v>897836</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897831.html</t>
+          <t>https://text.khl.ru/text/897836.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.617412</v>
+        <v>0.846154</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>1.854302</v>
       </c>
       <c r="J2" t="n">
-        <v>7.117412</v>
+        <v>2.700456</v>
       </c>
       <c r="K2" t="n">
-        <v>28.706351</v>
+        <v>23.063363</v>
       </c>
       <c r="L2" t="n">
-        <v>36.917927</v>
+        <v>29.982381</v>
       </c>
       <c r="M2" t="n">
-        <v>65.624278</v>
+        <v>53.045744</v>
       </c>
       <c r="N2" t="n">
-        <v>0.284707</v>
+        <v>0.423308</v>
       </c>
       <c r="O2" t="n">
-        <v>0.176781</v>
+        <v>0.17033</v>
       </c>
       <c r="P2" t="n">
-        <v>0.53833</v>
+        <v>0.405949</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.512382905934873</v>
+        <v>2.362346093152031</v>
       </c>
       <c r="R2" t="n">
-        <v>5.656716502339052</v>
+        <v>5.870956378794105</v>
       </c>
       <c r="S2" t="n">
-        <v>1.857596641465272</v>
+        <v>2.463363624494702</v>
       </c>
       <c r="T2" t="n">
-        <v>28.4707</v>
+        <v>42.3308</v>
       </c>
       <c r="U2" t="n">
-        <v>17.6781</v>
+        <v>17.033</v>
       </c>
       <c r="V2" t="n">
-        <v>53.833</v>
+        <v>40.5949</v>
       </c>
       <c r="W2" t="n">
-        <v>0.459734</v>
+        <v>0.319303</v>
       </c>
       <c r="X2" t="n">
-        <v>0.540084</v>
+        <v>0.680284</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.851563830811503</v>
+        <v>1.469974304849151</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.634992</v>
+        <v>0.485923</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.364827</v>
+        <v>0.513664</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.741025198244647</v>
+        <v>1.946797906802891</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.77787</v>
+        <v>0.645717</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.221948</v>
+        <v>0.35387</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.505559860868312</v>
+        <v>2.825896515669596</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.614955</v>
+        <v>0.786022</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.385045</v>
+        <v>0.213978</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.626135245668382</v>
+        <v>1.272229021579549</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.344695</v>
+        <v>0.554926</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.655305</v>
+        <v>0.445074</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.901115478901638</v>
+        <v>1.802042074078345</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.771042</v>
+        <v>0.777357</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.228958</v>
+        <v>0.222643</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.296946210452868</v>
+        <v>1.286410233650691</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.533521</v>
+        <v>0.542462</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.466479</v>
+        <v>0.457538</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.874340466448368</v>
+        <v>1.843447098598612</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.644371</v>
+        <v>0.746927</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.551901001131336</v>
+        <v>1.338818920724515</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.850298</v>
+        <v>0.732445</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.176058276039694</v>
+        <v>1.365290226569913</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45991.41666666666</v>
+        <v>45992.79166666666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Амур – ХК Сочи</t>
+          <t>Северсталь – Трактор</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897832</v>
+        <v>897835</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897832.html</t>
+          <t>https://text.khl.ru/text/897835.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.225758</v>
+        <v>1.46875</v>
       </c>
       <c r="I3" t="n">
-        <v>0.961538</v>
+        <v>3.9375</v>
       </c>
       <c r="J3" t="n">
-        <v>2.187297</v>
+        <v>5.40625</v>
       </c>
       <c r="K3" t="n">
-        <v>24.98031</v>
+        <v>23.963798</v>
       </c>
       <c r="L3" t="n">
-        <v>25.615145</v>
+        <v>35.737266</v>
       </c>
       <c r="M3" t="n">
-        <v>50.595455</v>
+        <v>59.701065</v>
       </c>
       <c r="N3" t="n">
-        <v>0.827776</v>
+        <v>0.427646</v>
       </c>
       <c r="O3" t="n">
-        <v>0.091762</v>
+        <v>0.179644</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07685</v>
+        <v>0.392535</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.208056285758466</v>
+        <v>2.338382681002511</v>
       </c>
       <c r="R3" t="n">
-        <v>10.89775724155969</v>
+        <v>5.566564984079625</v>
       </c>
       <c r="S3" t="n">
-        <v>13.01236174365647</v>
+        <v>2.547543531150088</v>
       </c>
       <c r="T3" t="n">
-        <v>82.77759999999999</v>
+        <v>42.7646</v>
       </c>
       <c r="U3" t="n">
-        <v>9.1762</v>
+        <v>17.9644</v>
       </c>
       <c r="V3" t="n">
-        <v>7.685</v>
+        <v>39.2535</v>
       </c>
       <c r="W3" t="n">
-        <v>0.350229</v>
+        <v>0.406673</v>
       </c>
       <c r="X3" t="n">
-        <v>0.646159</v>
+        <v>0.593153</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.547606703613197</v>
+        <v>1.685905660091072</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.520867</v>
+        <v>0.581479</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.475522</v>
+        <v>0.418346</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.10295212419194</v>
+        <v>2.39036586939997</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.678623</v>
+        <v>0.732884</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.317765</v>
+        <v>0.266941</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.146979686246125</v>
+        <v>3.74614615214598</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.917635</v>
+        <v>0.742102</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.08236499999999999</v>
+        <v>0.257898</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.089757910280231</v>
+        <v>1.347523655777777</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.780622</v>
+        <v>0.494021</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.219378</v>
+        <v>0.505979</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.281029742948572</v>
+        <v>2.024205448756227</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.413325</v>
+        <v>0.722187</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.5866749999999999</v>
+        <v>0.277813</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.419403617008407</v>
+        <v>1.384682914535986</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.170132</v>
+        <v>0.468153</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.8298680000000001</v>
+        <v>0.531847</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5.877789010885665</v>
+        <v>2.136053811467618</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.967298</v>
+        <v>0.765397</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.033807575328389</v>
+        <v>1.306511522778375</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.308085</v>
+        <v>0.736681</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.245857474398299</v>
+        <v>1.357439651626688</v>
       </c>
     </row>
     <row r="4">
@@ -982,150 +982,301 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45991.70833333334</v>
+        <v>45992.8125</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ак Барс – Драконы</t>
+          <t>Динамо М – Торпедо</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897833</v>
+        <v>897837</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897833.html</t>
+          <t>https://text.khl.ru/text/897837.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3.055625</v>
+        <v>1.460695</v>
       </c>
       <c r="I4" t="n">
-        <v>3.676454</v>
+        <v>2.942447</v>
       </c>
       <c r="J4" t="n">
-        <v>6.732079</v>
+        <v>4.403142</v>
       </c>
       <c r="K4" t="n">
-        <v>33.778683</v>
+        <v>24.776157</v>
       </c>
       <c r="L4" t="n">
-        <v>31.087527</v>
+        <v>31.069775</v>
       </c>
       <c r="M4" t="n">
-        <v>64.86621100000001</v>
+        <v>55.845933</v>
       </c>
       <c r="N4" t="n">
-        <v>0.49328</v>
+        <v>0.235408</v>
       </c>
       <c r="O4" t="n">
-        <v>0.140849</v>
+        <v>0.201686</v>
       </c>
       <c r="P4" t="n">
-        <v>0.359373</v>
+        <v>0.5628840000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.027246188777165</v>
+        <v>4.247943995106368</v>
       </c>
       <c r="R4" t="n">
-        <v>7.099801915526557</v>
+        <v>4.958202354154477</v>
       </c>
       <c r="S4" t="n">
-        <v>2.782624181560663</v>
+        <v>1.776564976087435</v>
       </c>
       <c r="T4" t="n">
-        <v>49.328</v>
+        <v>23.5408</v>
       </c>
       <c r="U4" t="n">
-        <v>14.0849</v>
+        <v>20.1686</v>
       </c>
       <c r="V4" t="n">
-        <v>35.9373</v>
+        <v>56.2884</v>
       </c>
       <c r="W4" t="n">
-        <v>0.096294</v>
+        <v>0.703372</v>
       </c>
       <c r="X4" t="n">
-        <v>0.897208</v>
+        <v>0.296606</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.11456875105884</v>
+        <v>3.371475964747848</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.185875</v>
+        <v>0.841905</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.807627</v>
+        <v>0.158073</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.238195355033945</v>
+        <v>6.326191063622504</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3062</v>
+        <v>0.925396</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.687302</v>
+        <v>0.074582</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.454964484316938</v>
+        <v>13.40806092622885</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.926781</v>
+        <v>0.405801</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.07321900000000001</v>
+        <v>0.594199</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.079003561790757</v>
+        <v>2.464262039768261</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.7998459999999999</v>
+        <v>0.16485</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.200154</v>
+        <v>0.8351499999999999</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.250240671329231</v>
+        <v>6.066120715802245</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.891025</v>
+        <v>0.650971</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.108975</v>
+        <v>0.349029</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.122302965685587</v>
+        <v>1.536166741682809</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.7280799999999999</v>
+        <v>0.383413</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.27192</v>
+        <v>0.616587</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.373475442259092</v>
+        <v>2.608153609815004</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.758018</v>
+        <v>0.651632</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.319229886361538</v>
+        <v>1.534608490681857</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.6403759999999999</v>
+        <v>0.899029</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.561582570239984</v>
+        <v>1.112311171274786</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45992.8125</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ЦСКА – Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>897834</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897834.html</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3.561942</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.027778</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.58972</v>
+      </c>
+      <c r="K5" t="n">
+        <v>29.27658</v>
+      </c>
+      <c r="L5" t="n">
+        <v>21.790523</v>
+      </c>
+      <c r="M5" t="n">
+        <v>51.067103</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.736415</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.146246</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.117143</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.357929971551367</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.837793854190885</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8.536574955396397</v>
+      </c>
+      <c r="T5" t="n">
+        <v>73.64150000000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>14.6246</v>
+      </c>
+      <c r="V5" t="n">
+        <v>11.7143</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.637228</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.362576</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.758042451789418</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.791807</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.207997</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4.80776165040842</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.893753</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.106051</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>9.42942546510641</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.778914</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.221086</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.28383878066128</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.5446839999999999</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.455316</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.83592688604769</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.299953</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.700047</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.33385563738319</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.099025</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.900975</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>10.09845998485231</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.959053</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.042695242077341</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.462498</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>2.162171512093025</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,115 +1317,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45991.41666666666</v>
+        <v>45992.64583333334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Адмирал – Динамо Мн</t>
+          <t>Сибирь – Барыс</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 30.11.2025
-Адмирал – Динамо Мн
+          <t>КХЛ • Регулярный чемпионат • 01.12.2025
+Сибирь – Барыс
 Ожидания модели (60’):
-• Голы: λ_total ≈ 4.89 (2.08 : 2.81)
-• Броски: SOG λ ≈ 66 (29 : 37)
+• Голы: λ_total ≈ 5.75 (2.90 : 2.85)
+• Броски: SOG λ ≈ 53 (23 : 30)
 Исход (60’), честные кф:
-• П1: 28.5%  (Kмод 3.51)
-• Х:  17.7%  (Kмод 5.66)
-• П2: 53.8%  (Kмод 1.86)
+• П1: 42.3%  (Kмод 2.36)
+• Х:  17.0%  (Kмод 5.87)
+• П2: 40.6%  (Kмод 2.46)
 Тоталы голов:
-• ТМ 4.5: 46.0%  (Kмод 2.18)
-• ТБ 4.5: 54.0%  (Kмод 1.85)
-• ТМ 5.5: 63.5%  (Kмод 1.57)
-• ТБ 5.5: 36.5%  (Kмод 2.74)
-• ТМ 6.5: 77.8%  (Kмод 1.29)
-• ТБ 6.5: 22.2%  (Kмод 4.51)
+• ТМ 4.5: 31.9%  (Kмод 3.13)
+• ТБ 4.5: 68.0%  (Kмод 1.47)
+• ТМ 5.5: 48.6%  (Kмод 2.06)
+• ТБ 5.5: 51.4%  (Kмод 1.95)
+• ТМ 6.5: 64.6%  (Kмод 1.55)
+• ТБ 6.5: 35.4%  (Kмод 2.83)
 Индивидуальные тоталы:
-• Адмирал ИТБ 1.5: 61.5% (Kмод 1.63)
-• Адмирал ИТБ 2.5: 34.5% (Kмод 2.90)
-• Динамо Мн ИТБ 1.5: 77.1% (Kмод 1.30)
-• Динамо Мн ИТБ 2.5: 53.4% (Kмод 1.87)
+• Сибирь ИТБ 1.5: 78.6% (Kмод 1.27)
+• Сибирь ИТБ 2.5: 55.5% (Kмод 1.80)
+• Барыс ИТБ 1.5: 77.7% (Kмод 1.29)
+• Барыс ИТБ 2.5: 54.2% (Kмод 1.84)
 Фора +1.5:
-• Адмирал +1.5: 64.4% (Kмод 1.55)
-• Динамо Мн +1.5: 85.0% (Kмод 1.18)</t>
+• Сибирь +1.5: 74.7% (Kмод 1.34)
+• Барыс +1.5: 73.2% (Kмод 1.37)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45991.41666666666</v>
+        <v>45992.79166666666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Амур – ХК Сочи</t>
+          <t>Северсталь – Трактор</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 30.11.2025
-Амур – ХК Сочи
+          <t>КХЛ • Регулярный чемпионат • 01.12.2025
+Северсталь – Трактор
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.55 (4.13 : 1.41)
-• Броски: SOG λ ≈ 51 (25 : 26)
+• Голы: λ_total ≈ 5.20 (2.65 : 2.55)
+• Броски: SOG λ ≈ 60 (24 : 36)
 Исход (60’), честные кф:
-• П1: 82.8%  (Kмод 1.21)
-• Х:  9.2%  (Kмод 10.90)
-• П2: 7.7%  (Kмод 13.01)
+• П1: 42.8%  (Kмод 2.34)
+• Х:  18.0%  (Kмод 5.57)
+• П2: 39.3%  (Kмод 2.55)
 Тоталы голов:
-• ТМ 4.5: 35.0%  (Kмод 2.86)
-• ТБ 4.5: 64.6%  (Kмод 1.55)
-• ТМ 5.5: 52.1%  (Kмод 1.92)
-• ТБ 5.5: 47.6%  (Kмод 2.10)
-• ТМ 6.5: 67.9%  (Kмод 1.47)
-• ТБ 6.5: 31.8%  (Kмод 3.15)
+• ТМ 4.5: 40.7%  (Kмод 2.46)
+• ТБ 4.5: 59.3%  (Kмод 1.69)
+• ТМ 5.5: 58.1%  (Kмод 1.72)
+• ТБ 5.5: 41.8%  (Kмод 2.39)
+• ТМ 6.5: 73.3%  (Kмод 1.36)
+• ТБ 6.5: 26.7%  (Kмод 3.75)
 Индивидуальные тоталы:
-• Амур ИТБ 1.5: 91.8% (Kмод 1.09)
-• Амур ИТБ 2.5: 78.1% (Kмод 1.28)
-• ХК Сочи ИТБ 1.5: 41.3% (Kмод 2.42)
-• ХК Сочи ИТБ 2.5: 17.0% (Kмод 5.88)
+• Северсталь ИТБ 1.5: 74.2% (Kмод 1.35)
+• Северсталь ИТБ 2.5: 49.4% (Kмод 2.02)
+• Трактор ИТБ 1.5: 72.2% (Kмод 1.38)
+• Трактор ИТБ 2.5: 46.8% (Kмод 2.14)
 Фора +1.5:
-• Амур +1.5: 96.7% (Kмод 1.03)
-• ХК Сочи +1.5: 30.8% (Kмод 3.25)</t>
+• Северсталь +1.5: 76.5% (Kмод 1.31)
+• Трактор +1.5: 73.7% (Kмод 1.36)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45991.70833333334</v>
+        <v>45992.8125</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ак Барс – Драконы</t>
+          <t>Динамо М – Торпедо</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 30.11.2025
-Ак Барс – Драконы
+          <t>КХЛ • Регулярный чемпионат • 01.12.2025
+Динамо М – Торпедо
 Ожидания модели (60’):
-• Голы: λ_total ≈ 8.06 (4.28 : 3.78)
-• Броски: SOG λ ≈ 65 (34 : 31)
+• Голы: λ_total ≈ 3.62 (1.39 : 2.22)
+• Броски: SOG λ ≈ 56 (25 : 31)
 Исход (60’), честные кф:
-• П1: 49.3%  (Kмод 2.03)
-• Х:  14.1%  (Kмод 7.10)
-• П2: 35.9%  (Kмод 2.78)
+• П1: 23.5%  (Kмод 4.25)
+• Х:  20.2%  (Kмод 4.96)
+• П2: 56.3%  (Kмод 1.78)
 Тоталы голов:
-• ТМ 4.5: 9.6%  (Kмод 10.38)
-• ТБ 4.5: 89.7%  (Kмод 1.11)
-• ТМ 5.5: 18.6%  (Kмод 5.38)
-• ТБ 5.5: 80.8%  (Kмод 1.24)
-• ТМ 6.5: 30.6%  (Kмод 3.27)
-• ТБ 6.5: 68.7%  (Kмод 1.45)
+• ТМ 4.5: 70.3%  (Kмод 1.42)
+• ТБ 4.5: 29.7%  (Kмод 3.37)
+• ТМ 5.5: 84.2%  (Kмод 1.19)
+• ТБ 5.5: 15.8%  (Kмод 6.33)
+• ТМ 6.5: 92.5%  (Kмод 1.08)
+• ТБ 6.5: 7.5%  (Kмод 13.41)
 Индивидуальные тоталы:
-• Ак Барс ИТБ 1.5: 92.7% (Kмод 1.08)
-• Ак Барс ИТБ 2.5: 80.0% (Kмод 1.25)
-• Драконы ИТБ 1.5: 89.1% (Kмод 1.12)
-• Драконы ИТБ 2.5: 72.8% (Kмод 1.37)
+• Динамо М ИТБ 1.5: 40.6% (Kмод 2.46)
+• Динамо М ИТБ 2.5: 16.5% (Kмод 6.07)
+• Торпедо ИТБ 1.5: 65.1% (Kмод 1.54)
+• Торпедо ИТБ 2.5: 38.3% (Kмод 2.61)
 Фора +1.5:
-• Ак Барс +1.5: 75.8% (Kмод 1.32)
-• Драконы +1.5: 64.0% (Kмод 1.56)</t>
+• Динамо М +1.5: 65.2% (Kмод 1.53)
+• Торпедо +1.5: 89.9% (Kмод 1.11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45992.8125</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ЦСКА – Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 01.12.2025
+ЦСКА – Салават Юлаев
+Ожидания модели (60’):
+• Голы: λ_total ≈ 3.96 (2.86 : 1.10)
+• Броски: SOG λ ≈ 51 (29 : 22)
+Исход (60’), честные кф:
+• П1: 73.6%  (Kмод 1.36)
+• Х:  14.6%  (Kмод 6.84)
+• П2: 11.7%  (Kмод 8.54)
+Тоталы голов:
+• ТМ 4.5: 63.7%  (Kмод 1.57)
+• ТБ 4.5: 36.3%  (Kмод 2.76)
+• ТМ 5.5: 79.2%  (Kмод 1.26)
+• ТБ 5.5: 20.8%  (Kмод 4.81)
+• ТМ 6.5: 89.4%  (Kмод 1.12)
+• ТБ 6.5: 10.6%  (Kмод 9.43)
+Индивидуальные тоталы:
+• ЦСКА ИТБ 1.5: 77.9% (Kмод 1.28)
+• ЦСКА ИТБ 2.5: 54.5% (Kмод 1.84)
+• Салават Юлаев ИТБ 1.5: 30.0% (Kмод 3.33)
+• Салават Юлаев ИТБ 2.5: 9.9% (Kмод 10.10)
+Фора +1.5:
+• ЦСКА +1.5: 95.9% (Kмод 1.04)
+• Салават Юлаев +1.5: 46.2% (Kмод 2.16)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45992.64583333334</v>
+        <v>45993.51041666666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Сибирь – Барыс</t>
+          <t>Амур – Динамо Мн</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897836</v>
+        <v>897838</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897836.html</t>
+          <t>https://text.khl.ru/text/897838.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.846154</v>
+        <v>1.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.854302</v>
+        <v>4.615385</v>
       </c>
       <c r="J2" t="n">
-        <v>2.700456</v>
+        <v>5.715385</v>
       </c>
       <c r="K2" t="n">
-        <v>23.063363</v>
+        <v>22.192716</v>
       </c>
       <c r="L2" t="n">
-        <v>29.982381</v>
+        <v>42.630188</v>
       </c>
       <c r="M2" t="n">
-        <v>53.045744</v>
+        <v>64.82290399999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0.423308</v>
+        <v>0.110222</v>
       </c>
       <c r="O2" t="n">
-        <v>0.17033</v>
+        <v>0.134865</v>
       </c>
       <c r="P2" t="n">
-        <v>0.405949</v>
+        <v>0.7545460000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.362346093152031</v>
+        <v>9.072598936691405</v>
       </c>
       <c r="R2" t="n">
-        <v>5.870956378794105</v>
+        <v>7.414822229637044</v>
       </c>
       <c r="S2" t="n">
-        <v>2.463363624494702</v>
+        <v>1.325300246770906</v>
       </c>
       <c r="T2" t="n">
-        <v>42.3308</v>
+        <v>11.0222</v>
       </c>
       <c r="U2" t="n">
-        <v>17.033</v>
+        <v>13.4865</v>
       </c>
       <c r="V2" t="n">
-        <v>40.5949</v>
+        <v>75.4546</v>
       </c>
       <c r="W2" t="n">
-        <v>0.319303</v>
+        <v>0.580246</v>
       </c>
       <c r="X2" t="n">
-        <v>0.680284</v>
+        <v>0.419386</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.469974304849151</v>
+        <v>2.384438202515105</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.485923</v>
+        <v>0.745048</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.513664</v>
+        <v>0.254585</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.946797906802891</v>
+        <v>3.927961191743425</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.645717</v>
+        <v>0.861764</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.35387</v>
+        <v>0.137868</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.825896515669596</v>
+        <v>7.253314764847536</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.786022</v>
+        <v>0.324827</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.213978</v>
+        <v>0.675173</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.272229021579549</v>
+        <v>3.078561819060608</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.554926</v>
+        <v>0.113094</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.445074</v>
+        <v>0.886906</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.802042074078345</v>
+        <v>8.842202062001521</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.777357</v>
+        <v>0.813045</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.222643</v>
+        <v>0.186955</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.286410233650691</v>
+        <v>1.229944222029531</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.542462</v>
+        <v>0.595354</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.457538</v>
+        <v>0.404646</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.843447098598612</v>
+        <v>1.679672934086275</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.746927</v>
+        <v>0.432665</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.338818920724515</v>
+        <v>2.311256977107</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.732445</v>
+        <v>0.960294</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.365290226569913</v>
+        <v>1.041347753917029</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45992.79166666666</v>
+        <v>45993.52083333334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Северсталь – Трактор</t>
+          <t>Адмирал – ХК Сочи</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897835</v>
+        <v>897839</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897835.html</t>
+          <t>https://text.khl.ru/text/897839.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.46875</v>
+        <v>2.505511</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9375</v>
+        <v>0.928571</v>
       </c>
       <c r="J3" t="n">
-        <v>5.40625</v>
+        <v>3.434082</v>
       </c>
       <c r="K3" t="n">
-        <v>23.963798</v>
+        <v>32.125309</v>
       </c>
       <c r="L3" t="n">
-        <v>35.737266</v>
+        <v>21.640231</v>
       </c>
       <c r="M3" t="n">
-        <v>59.701065</v>
+        <v>53.76554</v>
       </c>
       <c r="N3" t="n">
-        <v>0.427646</v>
+        <v>0.856225</v>
       </c>
       <c r="O3" t="n">
-        <v>0.179644</v>
+        <v>0.07615</v>
       </c>
       <c r="P3" t="n">
-        <v>0.392535</v>
+        <v>0.060739</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.338382681002511</v>
+        <v>1.167917311454349</v>
       </c>
       <c r="R3" t="n">
-        <v>5.566564984079625</v>
+        <v>13.13197636244255</v>
       </c>
       <c r="S3" t="n">
-        <v>2.547543531150088</v>
+        <v>16.46388646503894</v>
       </c>
       <c r="T3" t="n">
-        <v>42.7646</v>
+        <v>85.6225</v>
       </c>
       <c r="U3" t="n">
-        <v>17.9644</v>
+        <v>7.614999999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>39.2535</v>
+        <v>6.0739</v>
       </c>
       <c r="W3" t="n">
-        <v>0.406673</v>
+        <v>0.292915</v>
       </c>
       <c r="X3" t="n">
-        <v>0.593153</v>
+        <v>0.700198</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.685905660091072</v>
+        <v>1.428167461203831</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.581479</v>
+        <v>0.455064</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.418346</v>
+        <v>0.538049</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.39036586939997</v>
+        <v>1.858566784809562</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.732884</v>
+        <v>0.615642</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.266941</v>
+        <v>0.377472</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.74614615214598</v>
+        <v>2.649203119701594</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.742102</v>
+        <v>0.939923</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.257898</v>
+        <v>0.060077</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.347523655777777</v>
+        <v>1.063916937876826</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.494021</v>
+        <v>0.828727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.505979</v>
+        <v>0.171273</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.024205448756227</v>
+        <v>1.20666998903137</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.722187</v>
+        <v>0.415477</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.277813</v>
+        <v>0.584523</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.384682914535986</v>
+        <v>2.406872101223413</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.468153</v>
+        <v>0.171658</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.531847</v>
+        <v>0.828342</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.136053811467618</v>
+        <v>5.825536823218259</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.765397</v>
+        <v>0.970588</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.306511522778375</v>
+        <v>1.030303280073522</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.736681</v>
+        <v>0.258435</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.357439651626688</v>
+        <v>3.86944492812506</v>
       </c>
     </row>
     <row r="4">
@@ -982,301 +982,150 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45992.8125</v>
+        <v>45993.79166666666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Динамо М – Торпедо</t>
+          <t>Локомотив – СКА</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897837</v>
+        <v>897840</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897837.html</t>
+          <t>https://text.khl.ru/text/897840.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.460695</v>
+        <v>2.392003</v>
       </c>
       <c r="I4" t="n">
-        <v>2.942447</v>
+        <v>3.857143</v>
       </c>
       <c r="J4" t="n">
-        <v>4.403142</v>
+        <v>6.249146</v>
       </c>
       <c r="K4" t="n">
-        <v>24.776157</v>
+        <v>28.33909</v>
       </c>
       <c r="L4" t="n">
-        <v>31.069775</v>
+        <v>33.415371</v>
       </c>
       <c r="M4" t="n">
-        <v>55.845933</v>
+        <v>61.75446</v>
       </c>
       <c r="N4" t="n">
-        <v>0.235408</v>
+        <v>0.401901</v>
       </c>
       <c r="O4" t="n">
-        <v>0.201686</v>
+        <v>0.162865</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5628840000000001</v>
+        <v>0.434399</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.247943995106368</v>
+        <v>2.488174948556983</v>
       </c>
       <c r="R4" t="n">
-        <v>4.958202354154477</v>
+        <v>6.140054646486353</v>
       </c>
       <c r="S4" t="n">
-        <v>1.776564976087435</v>
+        <v>2.30203108202367</v>
       </c>
       <c r="T4" t="n">
-        <v>23.5408</v>
+        <v>40.1901</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1686</v>
+        <v>16.2865</v>
       </c>
       <c r="V4" t="n">
-        <v>56.2884</v>
+        <v>43.43989999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>0.703372</v>
+        <v>0.251846</v>
       </c>
       <c r="X4" t="n">
-        <v>0.296606</v>
+        <v>0.747318</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.371475964747848</v>
+        <v>1.338118444892268</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.841905</v>
+        <v>0.404979</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.158073</v>
+        <v>0.594185</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.326191063622504</v>
+        <v>1.682977523835169</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.925396</v>
+        <v>0.56473</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.074582</v>
+        <v>0.434434</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.40806092622885</v>
+        <v>2.30184561981797</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.405801</v>
+        <v>0.812122</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.594199</v>
+        <v>0.187878</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.464262039768261</v>
+        <v>1.231342088996481</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.16485</v>
+        <v>0.593931</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.8351499999999999</v>
+        <v>0.406069</v>
       </c>
       <c r="AK4" t="n">
-        <v>6.066120715802245</v>
+        <v>1.683697264497054</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.650971</v>
+        <v>0.826419</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.349029</v>
+        <v>0.173581</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.536166741682809</v>
+        <v>1.210039943418532</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.383413</v>
+        <v>0.616299</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.616587</v>
+        <v>0.383701</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.608153609815004</v>
+        <v>1.622589035516851</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.651632</v>
+        <v>0.716493</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.534608490681857</v>
+        <v>1.395687047884627</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.899029</v>
+        <v>0.744011</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.112311171274786</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45992.8125</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ЦСКА</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Салават Юлаев</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ЦСКА – Салават Юлаев</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>897834</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897834.html</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3.561942</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.027778</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.58972</v>
-      </c>
-      <c r="K5" t="n">
-        <v>29.27658</v>
-      </c>
-      <c r="L5" t="n">
-        <v>21.790523</v>
-      </c>
-      <c r="M5" t="n">
-        <v>51.067103</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.736415</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.146246</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.117143</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.357929971551367</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6.837793854190885</v>
-      </c>
-      <c r="S5" t="n">
-        <v>8.536574955396397</v>
-      </c>
-      <c r="T5" t="n">
-        <v>73.64150000000001</v>
-      </c>
-      <c r="U5" t="n">
-        <v>14.6246</v>
-      </c>
-      <c r="V5" t="n">
-        <v>11.7143</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.637228</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.362576</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2.758042451789418</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.791807</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.207997</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>4.80776165040842</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.893753</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.106051</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>9.42942546510641</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.778914</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.221086</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.28383878066128</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.5446839999999999</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.455316</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1.83592688604769</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.299953</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.700047</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.33385563738319</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.099025</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.900975</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>10.09845998485231</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.959053</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1.042695242077341</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0.462498</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>2.162171512093025</v>
+        <v>1.344066149559617</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,153 +1166,115 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45992.64583333334</v>
+        <v>45993.51041666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Сибирь – Барыс</t>
+          <t>Амур – Динамо Мн</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 01.12.2025
-Сибирь – Барыс
+          <t>КХЛ • Регулярный чемпионат • 02.12.2025
+Амур – Динамо Мн
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.75 (2.90 : 2.85)
-• Броски: SOG λ ≈ 53 (23 : 30)
+• Голы: λ_total ≈ 4.25 (1.17 : 3.08)
+• Броски: SOG λ ≈ 65 (22 : 43)
 Исход (60’), честные кф:
-• П1: 42.3%  (Kмод 2.36)
-• Х:  17.0%  (Kмод 5.87)
-• П2: 40.6%  (Kмод 2.46)
+• П1: 11.0%  (Kмод 9.07)
+• Х:  13.5%  (Kмод 7.41)
+• П2: 75.5%  (Kмод 1.33)
 Тоталы голов:
-• ТМ 4.5: 31.9%  (Kмод 3.13)
-• ТБ 4.5: 68.0%  (Kмод 1.47)
-• ТМ 5.5: 48.6%  (Kмод 2.06)
-• ТБ 5.5: 51.4%  (Kмод 1.95)
-• ТМ 6.5: 64.6%  (Kмод 1.55)
-• ТБ 6.5: 35.4%  (Kмод 2.83)
+• ТМ 4.5: 58.0%  (Kмод 1.72)
+• ТБ 4.5: 41.9%  (Kмод 2.38)
+• ТМ 5.5: 74.5%  (Kмод 1.34)
+• ТБ 5.5: 25.5%  (Kмод 3.93)
+• ТМ 6.5: 86.2%  (Kмод 1.16)
+• ТБ 6.5: 13.8%  (Kмод 7.25)
 Индивидуальные тоталы:
-• Сибирь ИТБ 1.5: 78.6% (Kмод 1.27)
-• Сибирь ИТБ 2.5: 55.5% (Kмод 1.80)
-• Барыс ИТБ 1.5: 77.7% (Kмод 1.29)
-• Барыс ИТБ 2.5: 54.2% (Kмод 1.84)
+• Амур ИТБ 1.5: 32.5% (Kмод 3.08)
+• Амур ИТБ 2.5: 11.3% (Kмод 8.84)
+• Динамо Мн ИТБ 1.5: 81.3% (Kмод 1.23)
+• Динамо Мн ИТБ 2.5: 59.5% (Kмод 1.68)
 Фора +1.5:
-• Сибирь +1.5: 74.7% (Kмод 1.34)
-• Барыс +1.5: 73.2% (Kмод 1.37)</t>
+• Амур +1.5: 43.3% (Kмод 2.31)
+• Динамо Мн +1.5: 96.0% (Kмод 1.04)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45992.79166666666</v>
+        <v>45993.52083333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Северсталь – Трактор</t>
+          <t>Адмирал – ХК Сочи</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 01.12.2025
-Северсталь – Трактор
+          <t>КХЛ • Регулярный чемпионат • 02.12.2025
+Адмирал – ХК Сочи
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.20 (2.65 : 2.55)
-• Броски: SOG λ ≈ 60 (24 : 36)
+• Голы: λ_total ≈ 5.94 (4.52 : 1.42)
+• Броски: SOG λ ≈ 54 (32 : 22)
 Исход (60’), честные кф:
-• П1: 42.8%  (Kмод 2.34)
-• Х:  18.0%  (Kмод 5.57)
-• П2: 39.3%  (Kмод 2.55)
+• П1: 85.6%  (Kмод 1.17)
+• Х:  7.6%  (Kмод 13.13)
+• П2: 6.1%  (Kмод 16.46)
 Тоталы голов:
-• ТМ 4.5: 40.7%  (Kмод 2.46)
-• ТБ 4.5: 59.3%  (Kмод 1.69)
-• ТМ 5.5: 58.1%  (Kмод 1.72)
-• ТБ 5.5: 41.8%  (Kмод 2.39)
-• ТМ 6.5: 73.3%  (Kмод 1.36)
-• ТБ 6.5: 26.7%  (Kмод 3.75)
+• ТМ 4.5: 29.3%  (Kмод 3.41)
+• ТБ 4.5: 70.0%  (Kмод 1.43)
+• ТМ 5.5: 45.5%  (Kмод 2.20)
+• ТБ 5.5: 53.8%  (Kмод 1.86)
+• ТМ 6.5: 61.6%  (Kмод 1.62)
+• ТБ 6.5: 37.7%  (Kмод 2.65)
 Индивидуальные тоталы:
-• Северсталь ИТБ 1.5: 74.2% (Kмод 1.35)
-• Северсталь ИТБ 2.5: 49.4% (Kмод 2.02)
-• Трактор ИТБ 1.5: 72.2% (Kмод 1.38)
-• Трактор ИТБ 2.5: 46.8% (Kмод 2.14)
+• Адмирал ИТБ 1.5: 94.0% (Kмод 1.06)
+• Адмирал ИТБ 2.5: 82.9% (Kмод 1.21)
+• ХК Сочи ИТБ 1.5: 41.5% (Kмод 2.41)
+• ХК Сочи ИТБ 2.5: 17.2% (Kмод 5.83)
 Фора +1.5:
-• Северсталь +1.5: 76.5% (Kмод 1.31)
-• Трактор +1.5: 73.7% (Kмод 1.36)</t>
+• Адмирал +1.5: 97.1% (Kмод 1.03)
+• ХК Сочи +1.5: 25.8% (Kмод 3.87)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45992.8125</v>
+        <v>45993.79166666666</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Динамо М – Торпедо</t>
+          <t>Локомотив – СКА</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 01.12.2025
-Динамо М – Торпедо
+          <t>КХЛ • Регулярный чемпионат • 02.12.2025
+Локомотив – СКА
 Ожидания модели (60’):
-• Голы: λ_total ≈ 3.62 (1.39 : 2.22)
-• Броски: SOG λ ≈ 56 (25 : 31)
+• Голы: λ_total ≈ 6.26 (3.08 : 3.18)
+• Броски: SOG λ ≈ 62 (28 : 33)
 Исход (60’), честные кф:
-• П1: 23.5%  (Kмод 4.25)
-• Х:  20.2%  (Kмод 4.96)
-• П2: 56.3%  (Kмод 1.78)
+• П1: 40.2%  (Kмод 2.49)
+• Х:  16.3%  (Kмод 6.14)
+• П2: 43.4%  (Kмод 2.30)
 Тоталы голов:
-• ТМ 4.5: 70.3%  (Kмод 1.42)
-• ТБ 4.5: 29.7%  (Kмод 3.37)
-• ТМ 5.5: 84.2%  (Kмод 1.19)
-• ТБ 5.5: 15.8%  (Kмод 6.33)
-• ТМ 6.5: 92.5%  (Kмод 1.08)
-• ТБ 6.5: 7.5%  (Kмод 13.41)
+• ТМ 4.5: 25.2%  (Kмод 3.97)
+• ТБ 4.5: 74.7%  (Kмод 1.34)
+• ТМ 5.5: 40.5%  (Kмод 2.47)
+• ТБ 5.5: 59.4%  (Kмод 1.68)
+• ТМ 6.5: 56.5%  (Kмод 1.77)
+• ТБ 6.5: 43.4%  (Kмод 2.30)
 Индивидуальные тоталы:
-• Динамо М ИТБ 1.5: 40.6% (Kмод 2.46)
-• Динамо М ИТБ 2.5: 16.5% (Kмод 6.07)
-• Торпедо ИТБ 1.5: 65.1% (Kмод 1.54)
-• Торпедо ИТБ 2.5: 38.3% (Kмод 2.61)
+• Локомотив ИТБ 1.5: 81.2% (Kмод 1.23)
+• Локомотив ИТБ 2.5: 59.4% (Kмод 1.68)
+• СКА ИТБ 1.5: 82.6% (Kмод 1.21)
+• СКА ИТБ 2.5: 61.6% (Kмод 1.62)
 Фора +1.5:
-• Динамо М +1.5: 65.2% (Kмод 1.53)
-• Торпедо +1.5: 89.9% (Kмод 1.11)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45992.8125</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ЦСКА – Салават Юлаев</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>КХЛ • Регулярный чемпионат • 01.12.2025
-ЦСКА – Салават Юлаев
-Ожидания модели (60’):
-• Голы: λ_total ≈ 3.96 (2.86 : 1.10)
-• Броски: SOG λ ≈ 51 (29 : 22)
-Исход (60’), честные кф:
-• П1: 73.6%  (Kмод 1.36)
-• Х:  14.6%  (Kмод 6.84)
-• П2: 11.7%  (Kмод 8.54)
-Тоталы голов:
-• ТМ 4.5: 63.7%  (Kмод 1.57)
-• ТБ 4.5: 36.3%  (Kмод 2.76)
-• ТМ 5.5: 79.2%  (Kмод 1.26)
-• ТБ 5.5: 20.8%  (Kмод 4.81)
-• ТМ 6.5: 89.4%  (Kмод 1.12)
-• ТБ 6.5: 10.6%  (Kмод 9.43)
-Индивидуальные тоталы:
-• ЦСКА ИТБ 1.5: 77.9% (Kмод 1.28)
-• ЦСКА ИТБ 2.5: 54.5% (Kмод 1.84)
-• Салават Юлаев ИТБ 1.5: 30.0% (Kмод 3.33)
-• Салават Юлаев ИТБ 2.5: 9.9% (Kмод 10.10)
-Фора +1.5:
-• ЦСКА +1.5: 95.9% (Kмод 1.04)
-• Салават Юлаев +1.5: 46.2% (Kмод 2.16)</t>
+• Локомотив +1.5: 71.6% (Kмод 1.40)
+• СКА +1.5: 74.4% (Kмод 1.34)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -680,7 +680,7 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45993.51041666666</v>
+        <v>45995.51041666666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -689,141 +689,141 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Амур – Динамо Мн</t>
+          <t>Амур – Локомотив</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897838</v>
+        <v>897848</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897838.html</t>
+          <t>https://text.khl.ru/text/897848.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.1</v>
+        <v>1.09375</v>
       </c>
       <c r="I2" t="n">
-        <v>4.615385</v>
+        <v>1.323529</v>
       </c>
       <c r="J2" t="n">
-        <v>5.715385</v>
+        <v>2.417279</v>
       </c>
       <c r="K2" t="n">
-        <v>22.192716</v>
+        <v>21.410046</v>
       </c>
       <c r="L2" t="n">
-        <v>42.630188</v>
+        <v>27.038132</v>
       </c>
       <c r="M2" t="n">
-        <v>64.82290399999999</v>
+        <v>48.448178</v>
       </c>
       <c r="N2" t="n">
-        <v>0.110222</v>
+        <v>0.30718</v>
       </c>
       <c r="O2" t="n">
-        <v>0.134865</v>
+        <v>0.261547</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7545460000000001</v>
+        <v>0.431273</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.072598936691405</v>
+        <v>3.255420274757471</v>
       </c>
       <c r="R2" t="n">
-        <v>7.414822229637044</v>
+        <v>3.823404588850188</v>
       </c>
       <c r="S2" t="n">
-        <v>1.325300246770906</v>
+        <v>2.318716914808022</v>
       </c>
       <c r="T2" t="n">
-        <v>11.0222</v>
+        <v>30.718</v>
       </c>
       <c r="U2" t="n">
-        <v>13.4865</v>
+        <v>26.1547</v>
       </c>
       <c r="V2" t="n">
-        <v>75.4546</v>
+        <v>43.12730000000001</v>
       </c>
       <c r="W2" t="n">
-        <v>0.580246</v>
+        <v>0.878381</v>
       </c>
       <c r="X2" t="n">
-        <v>0.419386</v>
+        <v>0.121619</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.384438202515105</v>
+        <v>8.222399460610594</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.745048</v>
+        <v>0.95146</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.254585</v>
+        <v>0.04854</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.927961191743425</v>
+        <v>20.60156571899464</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.861764</v>
+        <v>0.9830449999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.137868</v>
+        <v>0.016955</v>
       </c>
       <c r="AE2" t="n">
-        <v>7.253314764847536</v>
+        <v>58.97965202005307</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.324827</v>
+        <v>0.324304</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.675173</v>
+        <v>0.675696</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.078561819060608</v>
+        <v>3.083526567664907</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.113094</v>
+        <v>0.112789</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.886906</v>
+        <v>0.887211</v>
       </c>
       <c r="AK2" t="n">
-        <v>8.842202062001521</v>
+        <v>8.866112830151877</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.813045</v>
+        <v>0.418231</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.186955</v>
+        <v>0.581769</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.229944222029531</v>
+        <v>2.391023142712998</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.595354</v>
+        <v>0.173621</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.404646</v>
+        <v>0.826379</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.679672934086275</v>
+        <v>5.759671929086919</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.432665</v>
+        <v>0.792876</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.311256977107</v>
+        <v>1.261231264409567</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.960294</v>
+        <v>0.875358</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.041347753917029</v>
+        <v>1.142389742254026</v>
       </c>
     </row>
     <row r="3">
@@ -831,7 +831,7 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45993.52083333334</v>
+        <v>45995.52083333334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -840,141 +840,141 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Адмирал – ХК Сочи</t>
+          <t>Адмирал – СКА</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897839</v>
+        <v>897849</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897839.html</t>
+          <t>https://text.khl.ru/text/897849.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.505511</v>
+        <v>2.285128</v>
       </c>
       <c r="I3" t="n">
-        <v>0.928571</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.434082</v>
+        <v>6.285128</v>
       </c>
       <c r="K3" t="n">
-        <v>32.125309</v>
+        <v>30.885829</v>
       </c>
       <c r="L3" t="n">
-        <v>21.640231</v>
+        <v>34.182529</v>
       </c>
       <c r="M3" t="n">
-        <v>53.76554</v>
+        <v>65.068358</v>
       </c>
       <c r="N3" t="n">
-        <v>0.856225</v>
+        <v>0.37997</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07615</v>
+        <v>0.157033</v>
       </c>
       <c r="P3" t="n">
-        <v>0.060739</v>
+        <v>0.461572</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.167917311454349</v>
+        <v>2.631786720004211</v>
       </c>
       <c r="R3" t="n">
-        <v>13.13197636244255</v>
+        <v>6.368088236230601</v>
       </c>
       <c r="S3" t="n">
-        <v>16.46388646503894</v>
+        <v>2.166509233662354</v>
       </c>
       <c r="T3" t="n">
-        <v>85.6225</v>
+        <v>37.997</v>
       </c>
       <c r="U3" t="n">
-        <v>7.614999999999999</v>
+        <v>15.7033</v>
       </c>
       <c r="V3" t="n">
-        <v>6.0739</v>
+        <v>46.1572</v>
       </c>
       <c r="W3" t="n">
-        <v>0.292915</v>
+        <v>0.206735</v>
       </c>
       <c r="X3" t="n">
-        <v>0.700198</v>
+        <v>0.791839</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.428167461203831</v>
+        <v>1.262882985051254</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.455064</v>
+        <v>0.346762</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.538049</v>
+        <v>0.651813</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.858566784809562</v>
+        <v>1.534182349845738</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.615642</v>
+        <v>0.5021</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.377472</v>
+        <v>0.496474</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.649203119701594</v>
+        <v>2.014204167791264</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.939923</v>
+        <v>0.827826</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.060077</v>
+        <v>0.172174</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.063916937876826</v>
+        <v>1.207983320166315</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.828727</v>
+        <v>0.618542</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.171273</v>
+        <v>0.381458</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.20666998903137</v>
+        <v>1.616705090357647</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.415477</v>
+        <v>0.860208</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.584523</v>
+        <v>0.139792</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.406872101223413</v>
+        <v>1.162509532578167</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.171658</v>
+        <v>0.672358</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.828342</v>
+        <v>0.327642</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5.825536823218259</v>
+        <v>1.487302895183816</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.970588</v>
+        <v>0.687709</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.030303280073522</v>
+        <v>1.454103407109693</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.258435</v>
+        <v>0.75752</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.86944492812506</v>
+        <v>1.320097159150914</v>
       </c>
     </row>
     <row r="4">
@@ -982,150 +982,150 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45993.79166666666</v>
+        <v>45995.6875</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Локомотив – СКА</t>
+          <t>Авангард – ХК Сочи</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897840</v>
+        <v>897847</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897840.html</t>
+          <t>https://text.khl.ru/text/897847.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.392003</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.857143</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>6.249146</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>28.33909</v>
+        <v>40.265219</v>
       </c>
       <c r="L4" t="n">
-        <v>33.415371</v>
+        <v>23.307977</v>
       </c>
       <c r="M4" t="n">
-        <v>61.75446</v>
+        <v>63.573196</v>
       </c>
       <c r="N4" t="n">
-        <v>0.401901</v>
+        <v>0.896996</v>
       </c>
       <c r="O4" t="n">
-        <v>0.162865</v>
+        <v>0.055477</v>
       </c>
       <c r="P4" t="n">
-        <v>0.434399</v>
+        <v>0.036569</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.488174948556983</v>
+        <v>1.114832173164652</v>
       </c>
       <c r="R4" t="n">
-        <v>6.140054646486353</v>
+        <v>18.02548804008869</v>
       </c>
       <c r="S4" t="n">
-        <v>2.30203108202367</v>
+        <v>27.34556591648665</v>
       </c>
       <c r="T4" t="n">
-        <v>40.1901</v>
+        <v>89.6996</v>
       </c>
       <c r="U4" t="n">
-        <v>16.2865</v>
+        <v>5.5477</v>
       </c>
       <c r="V4" t="n">
-        <v>43.43989999999999</v>
+        <v>3.6569</v>
       </c>
       <c r="W4" t="n">
-        <v>0.251846</v>
+        <v>0.279957</v>
       </c>
       <c r="X4" t="n">
-        <v>0.747318</v>
+        <v>0.709085</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.338118444892268</v>
+        <v>1.410268162491098</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.404979</v>
+        <v>0.43954</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.594185</v>
+        <v>0.549501</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.682977523835169</v>
+        <v>1.819832902942852</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.56473</v>
+        <v>0.600144</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.434434</v>
+        <v>0.388898</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.30184561981797</v>
+        <v>2.571368327942031</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.812122</v>
+        <v>0.953672</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.187878</v>
+        <v>0.046328</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.231342088996481</v>
+        <v>1.048578546921793</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.593931</v>
+        <v>0.8608440000000001</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.406069</v>
+        <v>0.139156</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.683697264497054</v>
+        <v>1.161650659120584</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.826419</v>
+        <v>0.338198</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.173581</v>
+        <v>0.661802</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.210039943418532</v>
+        <v>2.956847763736036</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.616299</v>
+        <v>0.121009</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.383701</v>
+        <v>0.878991</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.622589035516851</v>
+        <v>8.263848143526515</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.716493</v>
+        <v>0.977066</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.395687047884627</v>
+        <v>1.023472314050433</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.744011</v>
+        <v>0.19097</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.344066149559617</v>
+        <v>5.236424569304079</v>
       </c>
     </row>
   </sheetData>
@@ -1166,115 +1166,115 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45993.51041666666</v>
+        <v>45995.51041666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Амур – Динамо Мн</t>
+          <t>Амур – Локомотив</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 02.12.2025
-Амур – Динамо Мн
+          <t>КХЛ • Регулярный чемпионат • 04.12.2025
+Амур – Локомотив
 Ожидания модели (60’):
-• Голы: λ_total ≈ 4.25 (1.17 : 3.08)
-• Броски: SOG λ ≈ 65 (22 : 43)
+• Голы: λ_total ≈ 2.59 (1.16 : 1.43)
+• Броски: SOG λ ≈ 48 (21 : 27)
 Исход (60’), честные кф:
-• П1: 11.0%  (Kмод 9.07)
-• Х:  13.5%  (Kмод 7.41)
-• П2: 75.5%  (Kмод 1.33)
+• П1: 30.7%  (Kмод 3.26)
+• Х:  26.2%  (Kмод 3.82)
+• П2: 43.1%  (Kмод 2.32)
 Тоталы голов:
-• ТМ 4.5: 58.0%  (Kмод 1.72)
-• ТБ 4.5: 41.9%  (Kмод 2.38)
-• ТМ 5.5: 74.5%  (Kмод 1.34)
-• ТБ 5.5: 25.5%  (Kмод 3.93)
-• ТМ 6.5: 86.2%  (Kмод 1.16)
-• ТБ 6.5: 13.8%  (Kмод 7.25)
+• ТМ 4.5: 87.8%  (Kмод 1.14)
+• ТБ 4.5: 12.2%  (Kмод 8.22)
+• ТМ 5.5: 95.1%  (Kмод 1.05)
+• ТБ 5.5: 4.9%  (Kмод 20.60)
+• ТМ 6.5: 98.3%  (Kмод 1.02)
+• ТБ 6.5: 1.7%  (Kмод 58.98)
 Индивидуальные тоталы:
-• Амур ИТБ 1.5: 32.5% (Kмод 3.08)
-• Амур ИТБ 2.5: 11.3% (Kмод 8.84)
-• Динамо Мн ИТБ 1.5: 81.3% (Kмод 1.23)
-• Динамо Мн ИТБ 2.5: 59.5% (Kмод 1.68)
+• Амур ИТБ 1.5: 32.4% (Kмод 3.08)
+• Амур ИТБ 2.5: 11.3% (Kмод 8.87)
+• Локомотив ИТБ 1.5: 41.8% (Kмод 2.39)
+• Локомотив ИТБ 2.5: 17.4% (Kмод 5.76)
 Фора +1.5:
-• Амур +1.5: 43.3% (Kмод 2.31)
-• Динамо Мн +1.5: 96.0% (Kмод 1.04)</t>
+• Амур +1.5: 79.3% (Kмод 1.26)
+• Локомотив +1.5: 87.5% (Kмод 1.14)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45993.52083333334</v>
+        <v>45995.52083333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Адмирал – ХК Сочи</t>
+          <t>Адмирал – СКА</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 02.12.2025
-Адмирал – ХК Сочи
+          <t>КХЛ • Регулярный чемпионат • 04.12.2025
+Адмирал – СКА
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.94 (4.52 : 1.42)
-• Броски: SOG λ ≈ 54 (32 : 22)
+• Голы: λ_total ≈ 6.66 (3.19 : 3.46)
+• Броски: SOG λ ≈ 65 (31 : 34)
 Исход (60’), честные кф:
-• П1: 85.6%  (Kмод 1.17)
-• Х:  7.6%  (Kмод 13.13)
-• П2: 6.1%  (Kмод 16.46)
+• П1: 38.0%  (Kмод 2.63)
+• Х:  15.7%  (Kмод 6.37)
+• П2: 46.2%  (Kмод 2.17)
 Тоталы голов:
-• ТМ 4.5: 29.3%  (Kмод 3.41)
-• ТБ 4.5: 70.0%  (Kмод 1.43)
-• ТМ 5.5: 45.5%  (Kмод 2.20)
-• ТБ 5.5: 53.8%  (Kмод 1.86)
-• ТМ 6.5: 61.6%  (Kмод 1.62)
-• ТБ 6.5: 37.7%  (Kмод 2.65)
+• ТМ 4.5: 20.7%  (Kмод 4.84)
+• ТБ 4.5: 79.2%  (Kмод 1.26)
+• ТМ 5.5: 34.7%  (Kмод 2.88)
+• ТБ 5.5: 65.2%  (Kмод 1.53)
+• ТМ 6.5: 50.2%  (Kмод 1.99)
+• ТБ 6.5: 49.6%  (Kмод 2.01)
 Индивидуальные тоталы:
-• Адмирал ИТБ 1.5: 94.0% (Kмод 1.06)
-• Адмирал ИТБ 2.5: 82.9% (Kмод 1.21)
-• ХК Сочи ИТБ 1.5: 41.5% (Kмод 2.41)
-• ХК Сочи ИТБ 2.5: 17.2% (Kмод 5.83)
+• Адмирал ИТБ 1.5: 82.8% (Kмод 1.21)
+• Адмирал ИТБ 2.5: 61.9% (Kмод 1.62)
+• СКА ИТБ 1.5: 86.0% (Kмод 1.16)
+• СКА ИТБ 2.5: 67.2% (Kмод 1.49)
 Фора +1.5:
-• Адмирал +1.5: 97.1% (Kмод 1.03)
-• ХК Сочи +1.5: 25.8% (Kмод 3.87)</t>
+• Адмирал +1.5: 68.8% (Kмод 1.45)
+• СКА +1.5: 75.8% (Kмод 1.32)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45993.79166666666</v>
+        <v>45995.6875</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Локомотив – СКА</t>
+          <t>Авангард – ХК Сочи</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 02.12.2025
-Локомотив – СКА
+          <t>КХЛ • Регулярный чемпионат • 04.12.2025
+Авангард – ХК Сочи
 Ожидания модели (60’):
-• Голы: λ_total ≈ 6.26 (3.08 : 3.18)
-• Броски: SOG λ ≈ 62 (28 : 33)
+• Голы: λ_total ≈ 6.04 (4.84 : 1.20)
+• Броски: SOG λ ≈ 64 (40 : 23)
 Исход (60’), честные кф:
-• П1: 40.2%  (Kмод 2.49)
-• Х:  16.3%  (Kмод 6.14)
-• П2: 43.4%  (Kмод 2.30)
+• П1: 89.7%  (Kмод 1.11)
+• Х:  5.5%  (Kмод 18.03)
+• П2: 3.7%  (Kмод 27.35)
 Тоталы голов:
-• ТМ 4.5: 25.2%  (Kмод 3.97)
-• ТБ 4.5: 74.7%  (Kмод 1.34)
-• ТМ 5.5: 40.5%  (Kмод 2.47)
-• ТБ 5.5: 59.4%  (Kмод 1.68)
-• ТМ 6.5: 56.5%  (Kмод 1.77)
-• ТБ 6.5: 43.4%  (Kмод 2.30)
+• ТМ 4.5: 28.0%  (Kмод 3.57)
+• ТБ 4.5: 70.9%  (Kмод 1.41)
+• ТМ 5.5: 44.0%  (Kмод 2.28)
+• ТБ 5.5: 55.0%  (Kмод 1.82)
+• ТМ 6.5: 60.0%  (Kмод 1.67)
+• ТБ 6.5: 38.9%  (Kмод 2.57)
 Индивидуальные тоталы:
-• Локомотив ИТБ 1.5: 81.2% (Kмод 1.23)
-• Локомотив ИТБ 2.5: 59.4% (Kмод 1.68)
-• СКА ИТБ 1.5: 82.6% (Kмод 1.21)
-• СКА ИТБ 2.5: 61.6% (Kмод 1.62)
+• Авангард ИТБ 1.5: 95.4% (Kмод 1.05)
+• Авангард ИТБ 2.5: 86.1% (Kмод 1.16)
+• ХК Сочи ИТБ 1.5: 33.8% (Kмод 2.96)
+• ХК Сочи ИТБ 2.5: 12.1% (Kмод 8.26)
 Фора +1.5:
-• Локомотив +1.5: 71.6% (Kмод 1.40)
-• СКА +1.5: 74.4% (Kмод 1.34)</t>
+• Авангард +1.5: 97.7% (Kмод 1.02)
+• ХК Сочи +1.5: 19.1% (Kмод 5.24)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45995.51041666666</v>
+        <v>45996.70833333334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Амур – Локомотив</t>
+          <t>Автомобилист – Северсталь</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897848</v>
+        <v>897855</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897848.html</t>
+          <t>https://text.khl.ru/text/897855.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.09375</v>
+        <v>5.25</v>
       </c>
       <c r="I2" t="n">
-        <v>1.323529</v>
+        <v>1.59375</v>
       </c>
       <c r="J2" t="n">
-        <v>2.417279</v>
+        <v>6.84375</v>
       </c>
       <c r="K2" t="n">
-        <v>21.410046</v>
+        <v>32.058457</v>
       </c>
       <c r="L2" t="n">
-        <v>27.038132</v>
+        <v>24.168153</v>
       </c>
       <c r="M2" t="n">
-        <v>48.448178</v>
+        <v>56.226611</v>
       </c>
       <c r="N2" t="n">
-        <v>0.30718</v>
+        <v>0.50456</v>
       </c>
       <c r="O2" t="n">
-        <v>0.261547</v>
+        <v>0.164426</v>
       </c>
       <c r="P2" t="n">
-        <v>0.431273</v>
+        <v>0.330383</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.255420274757471</v>
+        <v>1.981924845409862</v>
       </c>
       <c r="R2" t="n">
-        <v>3.823404588850188</v>
+        <v>6.081763224794133</v>
       </c>
       <c r="S2" t="n">
-        <v>2.318716914808022</v>
+        <v>3.026790119346335</v>
       </c>
       <c r="T2" t="n">
-        <v>30.718</v>
+        <v>50.456</v>
       </c>
       <c r="U2" t="n">
-        <v>26.1547</v>
+        <v>16.4426</v>
       </c>
       <c r="V2" t="n">
-        <v>43.12730000000001</v>
+        <v>33.0383</v>
       </c>
       <c r="W2" t="n">
-        <v>0.878381</v>
+        <v>0.299963</v>
       </c>
       <c r="X2" t="n">
-        <v>0.121619</v>
+        <v>0.699406</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.222399460610594</v>
+        <v>1.429784703019419</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.95146</v>
+        <v>0.463404</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04854</v>
+        <v>0.535965</v>
       </c>
       <c r="AB2" t="n">
-        <v>20.60156571899464</v>
+        <v>1.865793475320217</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9830449999999999</v>
+        <v>0.623865</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.016955</v>
+        <v>0.375504</v>
       </c>
       <c r="AE2" t="n">
-        <v>58.97965202005307</v>
+        <v>2.663087477097448</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.324304</v>
+        <v>0.831229</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.675696</v>
+        <v>0.168771</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.083526567664907</v>
+        <v>1.2030379113337</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.112789</v>
+        <v>0.623996</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.887211</v>
+        <v>0.376004</v>
       </c>
       <c r="AK2" t="n">
-        <v>8.866112830151877</v>
+        <v>1.602574375476766</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.418231</v>
+        <v>0.746191</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.581769</v>
+        <v>0.253809</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.391023142712998</v>
+        <v>1.340139454911678</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.173621</v>
+        <v>0.499461</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.826379</v>
+        <v>0.500539</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.759671929086919</v>
+        <v>2.002158326676157</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.792876</v>
+        <v>0.805343</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.261231264409567</v>
+        <v>1.241706949709627</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.875358</v>
+        <v>0.659074</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.142389742254026</v>
+        <v>1.51728030539818</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45995.52083333334</v>
+        <v>45996.70833333334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Адмирал – СКА</t>
+          <t>Салават Юлаев – Ак Барс</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897849</v>
+        <v>897851</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897849.html</t>
+          <t>https://text.khl.ru/text/897851.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.285128</v>
+        <v>3.104859</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>1.541765</v>
       </c>
       <c r="J3" t="n">
-        <v>6.285128</v>
+        <v>4.646624</v>
       </c>
       <c r="K3" t="n">
-        <v>30.885829</v>
+        <v>27.108074</v>
       </c>
       <c r="L3" t="n">
-        <v>34.182529</v>
+        <v>26.186936</v>
       </c>
       <c r="M3" t="n">
-        <v>65.068358</v>
+        <v>53.29501</v>
       </c>
       <c r="N3" t="n">
-        <v>0.37997</v>
+        <v>0.374402</v>
       </c>
       <c r="O3" t="n">
-        <v>0.157033</v>
+        <v>0.198276</v>
       </c>
       <c r="P3" t="n">
-        <v>0.461572</v>
+        <v>0.427287</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.631786720004211</v>
+        <v>2.670925903173594</v>
       </c>
       <c r="R3" t="n">
-        <v>6.368088236230601</v>
+        <v>5.043474752365389</v>
       </c>
       <c r="S3" t="n">
-        <v>2.166509233662354</v>
+        <v>2.340347354354333</v>
       </c>
       <c r="T3" t="n">
-        <v>37.997</v>
+        <v>37.4402</v>
       </c>
       <c r="U3" t="n">
-        <v>15.7033</v>
+        <v>19.8276</v>
       </c>
       <c r="V3" t="n">
-        <v>46.1572</v>
+        <v>42.7287</v>
       </c>
       <c r="W3" t="n">
-        <v>0.206735</v>
+        <v>0.567805</v>
       </c>
       <c r="X3" t="n">
-        <v>0.791839</v>
+        <v>0.432161</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.262882985051254</v>
+        <v>2.313952439021568</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.346762</v>
+        <v>0.734394</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.651813</v>
+        <v>0.265571</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.534182349845738</v>
+        <v>3.765471380534772</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.5021</v>
+        <v>0.854162</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.496474</v>
+        <v>0.145804</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.014204167791264</v>
+        <v>6.858522399934158</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.827826</v>
+        <v>0.61671</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.172174</v>
+        <v>0.38329</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.207983320166315</v>
+        <v>1.621507677838855</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.618542</v>
+        <v>0.346523</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.381458</v>
+        <v>0.653477</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.616705090357647</v>
+        <v>2.885811331426774</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.860208</v>
+        <v>0.652172</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.139792</v>
+        <v>0.347828</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.162509532578167</v>
+        <v>1.533337831124305</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.672358</v>
+        <v>0.384749</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.327642</v>
+        <v>0.615251</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.487302895183816</v>
+        <v>2.599097073676605</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.687709</v>
+        <v>0.7518820000000001</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.454103407109693</v>
+        <v>1.329995930212454</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.75752</v>
+        <v>0.793337</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.320097159150914</v>
+        <v>1.260498375847843</v>
       </c>
     </row>
     <row r="4">
@@ -982,150 +982,754 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45995.6875</v>
+        <v>45996.70833333334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Авангард – ХК Сочи</t>
+          <t>Трактор – ЦСКА</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897847</v>
+        <v>897850</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897847.html</t>
+          <t>https://text.khl.ru/text/897850.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>5.71875</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>1.312362</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>7.031112</v>
       </c>
       <c r="K4" t="n">
-        <v>40.265219</v>
+        <v>36.896451</v>
       </c>
       <c r="L4" t="n">
-        <v>23.307977</v>
+        <v>23.317432</v>
       </c>
       <c r="M4" t="n">
-        <v>63.573196</v>
+        <v>60.213883</v>
       </c>
       <c r="N4" t="n">
-        <v>0.896996</v>
+        <v>0.64388</v>
       </c>
       <c r="O4" t="n">
-        <v>0.055477</v>
+        <v>0.145519</v>
       </c>
       <c r="P4" t="n">
-        <v>0.036569</v>
+        <v>0.209371</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.114832173164652</v>
+        <v>1.553084425669379</v>
       </c>
       <c r="R4" t="n">
-        <v>18.02548804008869</v>
+        <v>6.871954865000446</v>
       </c>
       <c r="S4" t="n">
-        <v>27.34556591648665</v>
+        <v>4.776210649994507</v>
       </c>
       <c r="T4" t="n">
-        <v>89.6996</v>
+        <v>64.38800000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>5.5477</v>
+        <v>14.5519</v>
       </c>
       <c r="V4" t="n">
-        <v>3.6569</v>
+        <v>20.9371</v>
       </c>
       <c r="W4" t="n">
-        <v>0.279957</v>
+        <v>0.319654</v>
       </c>
       <c r="X4" t="n">
-        <v>0.709085</v>
+        <v>0.6791160000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.410268162491098</v>
+        <v>1.472502488529206</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.43954</v>
+        <v>0.486326</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.549501</v>
+        <v>0.512444</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.819832902942852</v>
+        <v>1.951432741919117</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.600144</v>
+        <v>0.646103</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.388898</v>
+        <v>0.352667</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.571368327942031</v>
+        <v>2.835536072272143</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.953672</v>
+        <v>0.872142</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.046328</v>
+        <v>0.127858</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.048578546921793</v>
+        <v>1.146602273482988</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.8608440000000001</v>
+        <v>0.693361</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.139156</v>
+        <v>0.306639</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.161650659120584</v>
+        <v>1.442250140979951</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.338198</v>
+        <v>0.638961</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.661802</v>
+        <v>0.361039</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.956847763736036</v>
+        <v>1.565040745835818</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.121009</v>
+        <v>0.370213</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.878991</v>
+        <v>0.629787</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8.263848143526515</v>
+        <v>2.701147717665236</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.977066</v>
+        <v>0.892073</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.023472314050433</v>
+        <v>1.120984493421503</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.19097</v>
+        <v>0.523904</v>
       </c>
       <c r="AU4" t="n">
-        <v>5.236424569304079</v>
+        <v>1.908746640605912</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45996.72916666666</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Барыс – Спартак</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>897856</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897856.html</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.394737</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.961538</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.356275</v>
+      </c>
+      <c r="K5" t="n">
+        <v>23.887111</v>
+      </c>
+      <c r="L5" t="n">
+        <v>38.240211</v>
+      </c>
+      <c r="M5" t="n">
+        <v>62.127322</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.29229</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.131939</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.56549</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.421259707824421</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7.579260112627805</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.768377866982617</v>
+      </c>
+      <c r="T5" t="n">
+        <v>29.229</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13.1939</v>
+      </c>
+      <c r="V5" t="n">
+        <v>56.54900000000001</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.082187</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.907533</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.101888305989975</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.162762</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.8269570000000001</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.209252718097797</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.274641</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.715079</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.398446884889641</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.878158</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.121842</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.138747241384808</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.704216</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.295784</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.420018857850432</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.947784</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.052216</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.05509272154837</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.846823</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.153177</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.180884317029651</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.564631</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.771068184354029</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.806358</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.240143955910402</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45996.75</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Лада – Динамо М</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>897854</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897854.html</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.923077</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.631811</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.554888</v>
+      </c>
+      <c r="K6" t="n">
+        <v>21.218038</v>
+      </c>
+      <c r="L6" t="n">
+        <v>31.26235</v>
+      </c>
+      <c r="M6" t="n">
+        <v>52.480388</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.169416</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.194473</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.63609</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5.902630212022477</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5.142101988450839</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.572104576396422</v>
+      </c>
+      <c r="T6" t="n">
+        <v>16.9416</v>
+      </c>
+      <c r="U6" t="n">
+        <v>19.4473</v>
+      </c>
+      <c r="V6" t="n">
+        <v>63.609</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.768243</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.231736</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4.315255290502987</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.88659</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.113389</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.819197629399676</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.951067</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.048912</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>20.44488060189729</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.284571</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.715429</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3.514061517160919</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.09074699999999999</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.909253</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>11.01964803244184</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.64873</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.35127</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.541473340218581</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.380928</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.619072</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>2.625168010752688</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.593186</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.68581187013854</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.939876</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.06397014074197</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45996.79166666666</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Нефтехимик – Металлург Мг</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>897853</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897853.html</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.71875</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9.768750000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>34.193418</v>
+      </c>
+      <c r="L7" t="n">
+        <v>41.360427</v>
+      </c>
+      <c r="M7" t="n">
+        <v>75.553845</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.256289</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.120081</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.6016049999999999</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.901845182586845</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8.327712127647173</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.662220227557949</v>
+      </c>
+      <c r="T7" t="n">
+        <v>25.6289</v>
+      </c>
+      <c r="U7" t="n">
+        <v>12.0081</v>
+      </c>
+      <c r="V7" t="n">
+        <v>60.16049999999999</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.050109</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.9278650000000001</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.077742990629025</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.10688</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.871094</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.147981733314659</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.193457</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.784518</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.274668012716088</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.897049</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.102951</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.114766305965449</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.739576</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.260424</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.352126083052992</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.9684700000000001</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.03153</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.032556506654827</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.898227</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.101773</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.113304320622738</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.50909</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.964289221945039</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.818231</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.222148757502466</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45996.8125</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Драконы – Торпедо</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>897852</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897852.html</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2.330401</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.382353</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.712754</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.821065</v>
+      </c>
+      <c r="L8" t="n">
+        <v>26.902948</v>
+      </c>
+      <c r="M8" t="n">
+        <v>53.724013</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.264389</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.179804</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.555678</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.782305617858535</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.561611532557674</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.799603367417821</v>
+      </c>
+      <c r="T8" t="n">
+        <v>26.4389</v>
+      </c>
+      <c r="U8" t="n">
+        <v>17.9804</v>
+      </c>
+      <c r="V8" t="n">
+        <v>55.5678</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.513456</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.486415</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.055857652416147</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.685963</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.313908</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3.185646750003186</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.8181850000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.181686</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5.504001409024361</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.562949</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.437051</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.776359847872542</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.293152</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.706848</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>3.411199650693156</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.7532219999999999</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.246778</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.327629835559769</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.508921</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.491079</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1.96494151351585</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.633982</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.577331848538287</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.867713</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.152454786317596</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,115 +1770,267 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45995.51041666666</v>
+        <v>45996.70833333334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Амур – Локомотив</t>
+          <t>Автомобилист – Северсталь</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 04.12.2025
-Амур – Локомотив
+          <t>КХЛ • Регулярный чемпионат • 05.12.2025
+Автомобилист – Северсталь
 Ожидания модели (60’):
-• Голы: λ_total ≈ 2.59 (1.16 : 1.43)
-• Броски: SOG λ ≈ 48 (21 : 27)
+• Голы: λ_total ≈ 5.89 (3.22 : 2.67)
+• Броски: SOG λ ≈ 56 (32 : 24)
 Исход (60’), честные кф:
-• П1: 30.7%  (Kмод 3.26)
-• Х:  26.2%  (Kмод 3.82)
-• П2: 43.1%  (Kмод 2.32)
+• П1: 50.5%  (Kмод 1.98)
+• Х:  16.4%  (Kмод 6.08)
+• П2: 33.0%  (Kмод 3.03)
 Тоталы голов:
-• ТМ 4.5: 87.8%  (Kмод 1.14)
-• ТБ 4.5: 12.2%  (Kмод 8.22)
-• ТМ 5.5: 95.1%  (Kмод 1.05)
-• ТБ 5.5: 4.9%  (Kмод 20.60)
-• ТМ 6.5: 98.3%  (Kмод 1.02)
-• ТБ 6.5: 1.7%  (Kмод 58.98)
+• ТМ 4.5: 30.0%  (Kмод 3.33)
+• ТБ 4.5: 69.9%  (Kмод 1.43)
+• ТМ 5.5: 46.3%  (Kмод 2.16)
+• ТБ 5.5: 53.6%  (Kмод 1.87)
+• ТМ 6.5: 62.4%  (Kмод 1.60)
+• ТБ 6.5: 37.6%  (Kмод 2.66)
 Индивидуальные тоталы:
-• Амур ИТБ 1.5: 32.4% (Kмод 3.08)
-• Амур ИТБ 2.5: 11.3% (Kмод 8.87)
-• Локомотив ИТБ 1.5: 41.8% (Kмод 2.39)
-• Локомотив ИТБ 2.5: 17.4% (Kмод 5.76)
+• Автомобилист ИТБ 1.5: 83.1% (Kмод 1.20)
+• Автомобилист ИТБ 2.5: 62.4% (Kмод 1.60)
+• Северсталь ИТБ 1.5: 74.6% (Kмод 1.34)
+• Северсталь ИТБ 2.5: 49.9% (Kмод 2.00)
 Фора +1.5:
-• Амур +1.5: 79.3% (Kмод 1.26)
-• Локомотив +1.5: 87.5% (Kмод 1.14)</t>
+• Автомобилист +1.5: 80.5% (Kмод 1.24)
+• Северсталь +1.5: 65.9% (Kмод 1.52)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45995.52083333334</v>
+        <v>45996.70833333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Адмирал – СКА</t>
+          <t>Салават Юлаев – Ак Барс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 04.12.2025
-Адмирал – СКА
+          <t>КХЛ • Регулярный чемпионат • 05.12.2025
+Салават Юлаев – Ак Барс
 Ожидания модели (60’):
-• Голы: λ_total ≈ 6.66 (3.19 : 3.46)
-• Броски: SOG λ ≈ 65 (31 : 34)
+• Голы: λ_total ≈ 4.31 (2.09 : 2.23)
+• Броски: SOG λ ≈ 53 (27 : 26)
 Исход (60’), честные кф:
-• П1: 38.0%  (Kмод 2.63)
-• Х:  15.7%  (Kмод 6.37)
-• П2: 46.2%  (Kмод 2.17)
+• П1: 37.4%  (Kмод 2.67)
+• Х:  19.8%  (Kмод 5.04)
+• П2: 42.7%  (Kмод 2.34)
 Тоталы голов:
-• ТМ 4.5: 20.7%  (Kмод 4.84)
-• ТБ 4.5: 79.2%  (Kмод 1.26)
-• ТМ 5.5: 34.7%  (Kмод 2.88)
-• ТБ 5.5: 65.2%  (Kмод 1.53)
-• ТМ 6.5: 50.2%  (Kмод 1.99)
-• ТБ 6.5: 49.6%  (Kмод 2.01)
+• ТМ 4.5: 56.8%  (Kмод 1.76)
+• ТБ 4.5: 43.2%  (Kмод 2.31)
+• ТМ 5.5: 73.4%  (Kмод 1.36)
+• ТБ 5.5: 26.6%  (Kмод 3.77)
+• ТМ 6.5: 85.4%  (Kмод 1.17)
+• ТБ 6.5: 14.6%  (Kмод 6.86)
 Индивидуальные тоталы:
-• Адмирал ИТБ 1.5: 82.8% (Kмод 1.21)
-• Адмирал ИТБ 2.5: 61.9% (Kмод 1.62)
-• СКА ИТБ 1.5: 86.0% (Kмод 1.16)
-• СКА ИТБ 2.5: 67.2% (Kмод 1.49)
+• Салават Юлаев ИТБ 1.5: 61.7% (Kмод 1.62)
+• Салават Юлаев ИТБ 2.5: 34.7% (Kмод 2.89)
+• Ак Барс ИТБ 1.5: 65.2% (Kмод 1.53)
+• Ак Барс ИТБ 2.5: 38.5% (Kмод 2.60)
 Фора +1.5:
-• Адмирал +1.5: 68.8% (Kмод 1.45)
-• СКА +1.5: 75.8% (Kмод 1.32)</t>
+• Салават Юлаев +1.5: 75.2% (Kмод 1.33)
+• Ак Барс +1.5: 79.3% (Kмод 1.26)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45995.6875</v>
+        <v>45996.70833333334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Авангард – ХК Сочи</t>
+          <t>Трактор – ЦСКА</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 04.12.2025
-Авангард – ХК Сочи
+          <t>КХЛ • Регулярный чемпионат • 05.12.2025
+Трактор – ЦСКА
 Ожидания модели (60’):
-• Голы: λ_total ≈ 6.04 (4.84 : 1.20)
-• Броски: SOG λ ≈ 64 (40 : 23)
+• Голы: λ_total ≈ 5.75 (3.58 : 2.17)
+• Броски: SOG λ ≈ 60 (37 : 23)
 Исход (60’), честные кф:
-• П1: 89.7%  (Kмод 1.11)
-• Х:  5.5%  (Kмод 18.03)
-• П2: 3.7%  (Kмод 27.35)
+• П1: 64.4%  (Kмод 1.55)
+• Х:  14.6%  (Kмод 6.87)
+• П2: 20.9%  (Kмод 4.78)
 Тоталы голов:
-• ТМ 4.5: 28.0%  (Kмод 3.57)
-• ТБ 4.5: 70.9%  (Kмод 1.41)
-• ТМ 5.5: 44.0%  (Kмод 2.28)
-• ТБ 5.5: 55.0%  (Kмод 1.82)
-• ТМ 6.5: 60.0%  (Kмод 1.67)
-• ТБ 6.5: 38.9%  (Kмод 2.57)
+• ТМ 4.5: 32.0%  (Kмод 3.13)
+• ТБ 4.5: 67.9%  (Kмод 1.47)
+• ТМ 5.5: 48.6%  (Kмод 2.06)
+• ТБ 5.5: 51.2%  (Kмод 1.95)
+• ТМ 6.5: 64.6%  (Kмод 1.55)
+• ТБ 6.5: 35.3%  (Kмод 2.84)
 Индивидуальные тоталы:
-• Авангард ИТБ 1.5: 95.4% (Kмод 1.05)
-• Авангард ИТБ 2.5: 86.1% (Kмод 1.16)
-• ХК Сочи ИТБ 1.5: 33.8% (Kмод 2.96)
-• ХК Сочи ИТБ 2.5: 12.1% (Kмод 8.26)
+• Трактор ИТБ 1.5: 87.2% (Kмод 1.15)
+• Трактор ИТБ 2.5: 69.3% (Kмод 1.44)
+• ЦСКА ИТБ 1.5: 63.9% (Kмод 1.57)
+• ЦСКА ИТБ 2.5: 37.0% (Kмод 2.70)
 Фора +1.5:
-• Авангард +1.5: 97.7% (Kмод 1.02)
-• ХК Сочи +1.5: 19.1% (Kмод 5.24)</t>
+• Трактор +1.5: 89.2% (Kмод 1.12)
+• ЦСКА +1.5: 52.4% (Kмод 1.91)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45996.72916666666</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Барыс – Спартак</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 05.12.2025
+Барыс – Спартак
+Ожидания модели (60’):
+• Голы: λ_total ≈ 8.33 (3.64 : 4.69)
+• Броски: SOG λ ≈ 62 (24 : 38)
+Исход (60’), честные кф:
+• П1: 29.2%  (Kмод 3.42)
+• Х:  13.2%  (Kмод 7.58)
+• П2: 56.5%  (Kмод 1.77)
+Тоталы голов:
+• ТМ 4.5: 8.2%  (Kмод 12.17)
+• ТБ 4.5: 90.8%  (Kмод 1.10)
+• ТМ 5.5: 16.3%  (Kмод 6.14)
+• ТБ 5.5: 82.7%  (Kмод 1.21)
+• ТМ 6.5: 27.5%  (Kмод 3.64)
+• ТБ 6.5: 71.5%  (Kмод 1.40)
+Индивидуальные тоталы:
+• Барыс ИТБ 1.5: 87.8% (Kмод 1.14)
+• Барыс ИТБ 2.5: 70.4% (Kмод 1.42)
+• Спартак ИТБ 1.5: 94.8% (Kмод 1.06)
+• Спартак ИТБ 2.5: 84.7% (Kмод 1.18)
+Фора +1.5:
+• Барыс +1.5: 56.5% (Kмод 1.77)
+• Спартак +1.5: 80.6% (Kмод 1.24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45996.75</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Лада – Динамо М</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 05.12.2025
+Лада – Динамо М
+Ожидания модели (60’):
+• Голы: λ_total ≈ 3.27 (1.06 : 2.21)
+• Броски: SOG λ ≈ 52 (21 : 31)
+Исход (60’), честные кф:
+• П1: 16.9%  (Kмод 5.90)
+• Х:  19.4%  (Kмод 5.14)
+• П2: 63.6%  (Kмод 1.57)
+Тоталы голов:
+• ТМ 4.5: 76.8%  (Kмод 1.30)
+• ТБ 4.5: 23.2%  (Kмод 4.32)
+• ТМ 5.5: 88.7%  (Kмод 1.13)
+• ТБ 5.5: 11.3%  (Kмод 8.82)
+• ТМ 6.5: 95.1%  (Kмод 1.05)
+• ТБ 6.5: 4.9%  (Kмод 20.44)
+Индивидуальные тоталы:
+• Лада ИТБ 1.5: 28.5% (Kмод 3.51)
+• Лада ИТБ 2.5: 9.1% (Kмод 11.02)
+• Динамо М ИТБ 1.5: 64.9% (Kмод 1.54)
+• Динамо М ИТБ 2.5: 38.1% (Kмод 2.63)
+Фора +1.5:
+• Лада +1.5: 59.3% (Kмод 1.69)
+• Динамо М +1.5: 94.0% (Kмод 1.06)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45996.79166666666</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Нефтехимик – Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 05.12.2025
+Нефтехимик – Металлург Мг
+Ожидания модели (60’):
+• Голы: λ_total ≈ 9.15 (3.85 : 5.30)
+• Броски: SOG λ ≈ 76 (34 : 41)
+Исход (60’), честные кф:
+• П1: 25.6%  (Kмод 3.90)
+• Х:  12.0%  (Kмод 8.33)
+• П2: 60.2%  (Kмод 1.66)
+Тоталы голов:
+• ТМ 4.5: 5.0%  (Kмод 19.96)
+• ТБ 4.5: 92.8%  (Kмод 1.08)
+• ТМ 5.5: 10.7%  (Kмод 9.36)
+• ТБ 5.5: 87.1%  (Kмод 1.15)
+• ТМ 6.5: 19.3%  (Kмод 5.17)
+• ТБ 6.5: 78.5%  (Kмод 1.27)
+Индивидуальные тоталы:
+• Нефтехимик ИТБ 1.5: 89.7% (Kмод 1.11)
+• Нефтехимик ИТБ 2.5: 74.0% (Kмод 1.35)
+• Металлург Мг ИТБ 1.5: 96.8% (Kмод 1.03)
+• Металлург Мг ИТБ 2.5: 89.8% (Kмод 1.11)
+Фора +1.5:
+• Нефтехимик +1.5: 50.9% (Kмод 1.96)
+• Металлург Мг +1.5: 81.8% (Kмод 1.22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45996.8125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Драконы – Торпедо</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 05.12.2025
+Драконы – Торпедо
+Ожидания модели (60’):
+• Голы: λ_total ≈ 4.60 (1.89 : 2.71)
+• Броски: SOG λ ≈ 54 (27 : 27)
+Исход (60’), честные кф:
+• П1: 26.4%  (Kмод 3.78)
+• Х:  18.0%  (Kмод 5.56)
+• П2: 55.6%  (Kмод 1.80)
+Тоталы голов:
+• ТМ 4.5: 51.3%  (Kмод 1.95)
+• ТБ 4.5: 48.6%  (Kмод 2.06)
+• ТМ 5.5: 68.6%  (Kмод 1.46)
+• ТБ 5.5: 31.4%  (Kмод 3.19)
+• ТМ 6.5: 81.8%  (Kмод 1.22)
+• ТБ 6.5: 18.2%  (Kмод 5.50)
+Индивидуальные тоталы:
+• Драконы ИТБ 1.5: 56.3% (Kмод 1.78)
+• Драконы ИТБ 2.5: 29.3% (Kмод 3.41)
+• Торпедо ИТБ 1.5: 75.3% (Kмод 1.33)
+• Торпедо ИТБ 2.5: 50.9% (Kмод 1.96)
+Фора +1.5:
+• Драконы +1.5: 63.4% (Kмод 1.58)
+• Торпедо +1.5: 86.8% (Kмод 1.15)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU3"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45997.41666666666</v>
+        <v>45998.41666666666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Адмирал – Локомотив</t>
+          <t>СКА – Амур</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897857</v>
+        <v>897941</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897857.html</t>
+          <t>https://text.khl.ru/text/897941.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.484553</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.333333</v>
+        <v>1.125</v>
       </c>
       <c r="J2" t="n">
-        <v>3.817887</v>
+        <v>5.825</v>
       </c>
       <c r="K2" t="n">
-        <v>28.531358</v>
+        <v>39.750373</v>
       </c>
       <c r="L2" t="n">
-        <v>23.34155</v>
+        <v>24.609235</v>
       </c>
       <c r="M2" t="n">
-        <v>51.872908</v>
+        <v>64.35960900000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.273982</v>
+        <v>0.845659</v>
       </c>
       <c r="O2" t="n">
-        <v>0.189318</v>
+        <v>0.076852</v>
       </c>
       <c r="P2" t="n">
-        <v>0.536636</v>
+        <v>0.067797</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.649874809294041</v>
+        <v>1.182509735011393</v>
       </c>
       <c r="R2" t="n">
-        <v>5.282117918000401</v>
+        <v>13.01202310935304</v>
       </c>
       <c r="S2" t="n">
-        <v>1.863460520725408</v>
+        <v>14.74991518798767</v>
       </c>
       <c r="T2" t="n">
-        <v>27.3982</v>
+        <v>84.5659</v>
       </c>
       <c r="U2" t="n">
-        <v>18.9318</v>
+        <v>7.6852</v>
       </c>
       <c r="V2" t="n">
-        <v>53.6636</v>
+        <v>6.7797</v>
       </c>
       <c r="W2" t="n">
-        <v>0.573963</v>
+        <v>0.237297</v>
       </c>
       <c r="X2" t="n">
-        <v>0.425973</v>
+        <v>0.753011</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.347566629809871</v>
+        <v>1.328001848578573</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.739687</v>
+        <v>0.38659</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.260249</v>
+        <v>0.603718</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.842473938420512</v>
+        <v>1.656402492554471</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.857953</v>
+        <v>0.54536</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.141983</v>
+        <v>0.444948</v>
       </c>
       <c r="AE2" t="n">
-        <v>7.043096708760908</v>
+        <v>2.247453635031509</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.532369</v>
+        <v>0.950224</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.467631</v>
+        <v>0.049776</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.878396375446354</v>
+        <v>1.052383438010406</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.265083</v>
+        <v>0.852582</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.734917</v>
+        <v>0.147418</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.772403360456913</v>
+        <v>1.172907708584042</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.712257</v>
+        <v>0.485216</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.287743</v>
+        <v>0.514784</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.403987605597418</v>
+        <v>2.060937809140671</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.455631</v>
+        <v>0.224839</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.544369</v>
+        <v>0.775161</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.19475847780331</v>
+        <v>4.447626968630887</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.658541</v>
+        <v>0.96328</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.518508338888543</v>
+        <v>1.038119757495225</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.865394</v>
+        <v>0.26332</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.155543024333425</v>
+        <v>3.797660641045116</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,905 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45997.41666666666</v>
+        <v>45998.58333333334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Амур – СКА</t>
+          <t>Авангард – Спартак</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897858</v>
+        <v>897861</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897858.html</t>
+          <t>https://text.khl.ru/text/897861.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.029412</v>
+        <v>4.6875</v>
       </c>
       <c r="I3" t="n">
-        <v>4.03125</v>
+        <v>4.928571</v>
       </c>
       <c r="J3" t="n">
-        <v>5.060662</v>
+        <v>9.616071</v>
       </c>
       <c r="K3" t="n">
-        <v>24.42176</v>
+        <v>37.804084</v>
       </c>
       <c r="L3" t="n">
-        <v>39.711177</v>
+        <v>37.736471</v>
       </c>
       <c r="M3" t="n">
-        <v>64.132937</v>
+        <v>75.540555</v>
       </c>
       <c r="N3" t="n">
-        <v>0.282618</v>
+        <v>0.706041</v>
       </c>
       <c r="O3" t="n">
-        <v>0.164186</v>
+        <v>0.105533</v>
       </c>
       <c r="P3" t="n">
-        <v>0.552678</v>
+        <v>0.168326</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.538345045255433</v>
+        <v>1.416348342376717</v>
       </c>
       <c r="R3" t="n">
-        <v>6.090653283471185</v>
+        <v>9.475709019927416</v>
       </c>
       <c r="S3" t="n">
-        <v>1.809371822290737</v>
+        <v>5.94085286883785</v>
       </c>
       <c r="T3" t="n">
-        <v>28.2618</v>
+        <v>70.6041</v>
       </c>
       <c r="U3" t="n">
-        <v>16.4186</v>
+        <v>10.5533</v>
       </c>
       <c r="V3" t="n">
-        <v>55.2678</v>
+        <v>16.8326</v>
       </c>
       <c r="W3" t="n">
-        <v>0.350835</v>
+        <v>0.081357</v>
       </c>
       <c r="X3" t="n">
-        <v>0.648647</v>
+        <v>0.898543</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.541670585079404</v>
+        <v>1.112912793266432</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5215379999999999</v>
+        <v>0.161378</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.477944</v>
+        <v>0.818522</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.092295331670656</v>
+        <v>1.221714260581878</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.679244</v>
+        <v>0.272716</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.320238</v>
+        <v>0.707183</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.122677508602976</v>
+        <v>1.414061141175622</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.681817</v>
+        <v>0.968292</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.318183</v>
+        <v>0.031708</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.466669208893295</v>
+        <v>1.032746320324861</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.41871</v>
+        <v>0.897755</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.58129</v>
+        <v>0.102245</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.388287836450049</v>
+        <v>1.113889646952676</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.827137</v>
+        <v>0.809354</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.172863</v>
+        <v>0.190646</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.208989562793104</v>
+        <v>1.235553293120192</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.617443</v>
+        <v>0.589686</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.382557</v>
+        <v>0.410314</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.619582698321951</v>
+        <v>1.695817774205255</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.619339</v>
+        <v>0.88664</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.614624623994291</v>
+        <v>1.127853469277271</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.84439</v>
+        <v>0.403716</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.184286881654212</v>
+        <v>2.476988774286875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45998.58333333334</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Трактор – Динамо М</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>897862</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897862.html</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5.558824</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.00263</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.561453999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37.356179</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29.123491</v>
+      </c>
+      <c r="M4" t="n">
+        <v>66.47967</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.540125</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.159755</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.299282</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.851423281647767</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.259584989515194</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.341330250399289</v>
+      </c>
+      <c r="T4" t="n">
+        <v>54.0125</v>
+      </c>
+      <c r="U4" t="n">
+        <v>15.9755</v>
+      </c>
+      <c r="V4" t="n">
+        <v>29.9282</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.289234</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.709928</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.408593547514678</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.45068</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.5484830000000001</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.823210564411294</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.61129</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.387873</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2.578163471033044</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.849444</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.150556</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.177240642114136</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.6539779999999999</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.346022</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.529103425497494</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.732867</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.267133</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.364504064175355</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.481898</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.518102</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2.075127931636986</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.827803</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.20801688324396</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.624646</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.600906753585231</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45998.60416666666</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Салават Юлаев – ЦСКА</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>897860</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897860.html</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4.178855</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.702577</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.881432</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30.132629</v>
+      </c>
+      <c r="L5" t="n">
+        <v>24.929885</v>
+      </c>
+      <c r="M5" t="n">
+        <v>55.062514</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.472573</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.177216</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.350001</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.116075188383594</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.642831347056699</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.857134693900874</v>
+      </c>
+      <c r="T5" t="n">
+        <v>47.2573</v>
+      </c>
+      <c r="U5" t="n">
+        <v>17.7216</v>
+      </c>
+      <c r="V5" t="n">
+        <v>35.0001</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.401303</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.598487</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.67088006924127</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.575881</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.423909</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2.358996860175179</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.72802</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.27177</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3.679581999484858</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.768122</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.231878</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.30187652482288</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.529428</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.470572</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.888830964739304</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.698781</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.301219</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.431063523478744</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.439018</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.560982</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2.277810932581352</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.798301</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.252660337391535</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.69781</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.433054843008842</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45998.625</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Барыс – Сибирь</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>897864</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897864.html</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1.731076</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.083333</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.81441</v>
+      </c>
+      <c r="K6" t="n">
+        <v>26.573095</v>
+      </c>
+      <c r="L6" t="n">
+        <v>22.690164</v>
+      </c>
+      <c r="M6" t="n">
+        <v>49.263259</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.56577</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15049</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.282029</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.767502695441611</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.644959797993222</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.545734658492567</v>
+      </c>
+      <c r="T6" t="n">
+        <v>56.577</v>
+      </c>
+      <c r="U6" t="n">
+        <v>15.049</v>
+      </c>
+      <c r="V6" t="n">
+        <v>28.2029</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.228971</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.769319</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.299850907100956</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.375904</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.622385</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.606722527053191</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.533932</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.464357</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.153515506388404</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.883696</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.116304</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.131610870706668</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.714376</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.285624</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.399823062364917</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.761002</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.238998</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.314056993279913</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.51955</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.48045</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.92474256568184</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.835461</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.1969439626745</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.592606</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.687461821176296</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45998.66666666666</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Лада – Северсталь</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>897863</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897863.html</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.928571</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.529412</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.457983</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20.050089</v>
+      </c>
+      <c r="L7" t="n">
+        <v>26.643695</v>
+      </c>
+      <c r="M7" t="n">
+        <v>46.693784</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.217122</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.213919</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.568951</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.605705548032903</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4.674666579406224</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.757620603531763</v>
+      </c>
+      <c r="T7" t="n">
+        <v>21.7122</v>
+      </c>
+      <c r="U7" t="n">
+        <v>21.3919</v>
+      </c>
+      <c r="V7" t="n">
+        <v>56.8951</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.782989</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.217002</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4.608252458502687</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.89611</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.103881</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.626399437818273</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.956189</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.043802</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>22.83000776220264</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.326966</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.673034</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>3.058421976596955</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.114344</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.885656</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>8.745539774714896</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.598136</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.401864</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.671860580202496</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.327481</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.672519</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>3.053612270635548</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.659797</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.515617682408377</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.915817</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.091921202598336</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45998.70833333334</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Нефтехимик – Ак Барс</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>897859</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897859.html</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.28125</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.28125</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34.740097</v>
+      </c>
+      <c r="L8" t="n">
+        <v>27.309915</v>
+      </c>
+      <c r="M8" t="n">
+        <v>62.050012</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.342928</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.170823</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.485882</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.916064013437223</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.854012632959262</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.058112875142525</v>
+      </c>
+      <c r="T8" t="n">
+        <v>34.2928</v>
+      </c>
+      <c r="U8" t="n">
+        <v>17.0823</v>
+      </c>
+      <c r="V8" t="n">
+        <v>48.5882</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.348205</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.651428</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.535089065867602</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.518618</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.481015</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2.078937247279191</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.676542</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.323091</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>3.095103237168475</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.725289</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.274711</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.378760742269633</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.472116</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.527884</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.118123512018233</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.800518</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.199482</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.249191148731197</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.57631</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.42369</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1.73517724835592</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.680891</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.468663853685832</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.799577</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.250661287155584</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,77 +1770,267 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45997.41666666666</v>
+        <v>45998.41666666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Адмирал – Локомотив</t>
+          <t>СКА – Амур</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 06.12.2025
-Адмирал – Локомотив
+          <t>КХЛ • Регулярный чемпионат • 07.12.2025
+СКА – Амур
 Ожидания модели (60’):
-• Голы: λ_total ≈ 4.28 (1.78 : 2.50)
-• Броски: SOG λ ≈ 52 (29 : 23)
+• Голы: λ_total ≈ 6.38 (4.75 : 1.63)
+• Броски: SOG λ ≈ 64 (40 : 25)
 Исход (60’), честные кф:
-• П1: 27.4%  (Kмод 3.65)
-• Х:  18.9%  (Kмод 5.28)
-• П2: 53.7%  (Kмод 1.86)
+• П1: 84.6%  (Kмод 1.18)
+• Х:  7.7%  (Kмод 13.01)
+• П2: 6.8%  (Kмод 14.75)
 Тоталы голов:
-• ТМ 4.5: 57.4%  (Kмод 1.74)
-• ТБ 4.5: 42.6%  (Kмод 2.35)
-• ТМ 5.5: 74.0%  (Kмод 1.35)
-• ТБ 5.5: 26.0%  (Kмод 3.84)
-• ТМ 6.5: 85.8%  (Kмод 1.17)
-• ТБ 6.5: 14.2%  (Kмод 7.04)
+• ТМ 4.5: 23.7%  (Kмод 4.21)
+• ТБ 4.5: 75.3%  (Kмод 1.33)
+• ТМ 5.5: 38.7%  (Kмод 2.59)
+• ТБ 5.5: 60.4%  (Kмод 1.66)
+• ТМ 6.5: 54.5%  (Kмод 1.83)
+• ТБ 6.5: 44.5%  (Kмод 2.25)
 Индивидуальные тоталы:
-• Адмирал ИТБ 1.5: 53.2% (Kмод 1.88)
-• Адмирал ИТБ 2.5: 26.5% (Kмод 3.77)
-• Локомотив ИТБ 1.5: 71.2% (Kмод 1.40)
-• Локомотив ИТБ 2.5: 45.6% (Kмод 2.19)
+• СКА ИТБ 1.5: 95.0% (Kмод 1.05)
+• СКА ИТБ 2.5: 85.3% (Kмод 1.17)
+• Амур ИТБ 1.5: 48.5% (Kмод 2.06)
+• Амур ИТБ 2.5: 22.5% (Kмод 4.45)
 Фора +1.5:
-• Адмирал +1.5: 65.9% (Kмод 1.52)
-• Локомотив +1.5: 86.5% (Kмод 1.16)</t>
+• СКА +1.5: 96.3% (Kмод 1.04)
+• Амур +1.5: 26.3% (Kмод 3.80)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45997.41666666666</v>
+        <v>45998.58333333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Амур – СКА</t>
+          <t>Авангард – Спартак</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 06.12.2025
-Амур – СКА
+          <t>КХЛ • Регулярный чемпионат • 07.12.2025
+Авангард – Спартак
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.54 (2.36 : 3.19)
-• Броски: SOG λ ≈ 64 (24 : 40)
+• Голы: λ_total ≈ 8.35 (5.29 : 3.06)
+• Броски: SOG λ ≈ 76 (38 : 38)
 Исход (60’), честные кф:
-• П1: 28.3%  (Kмод 3.54)
-• Х:  16.4%  (Kмод 6.09)
-• П2: 55.3%  (Kмод 1.81)
+• П1: 70.6%  (Kмод 1.42)
+• Х:  10.6%  (Kмод 9.48)
+• П2: 16.8%  (Kмод 5.94)
 Тоталы голов:
-• ТМ 4.5: 35.1%  (Kмод 2.85)
-• ТБ 4.5: 64.9%  (Kмод 1.54)
-• ТМ 5.5: 52.2%  (Kмод 1.92)
-• ТБ 5.5: 47.8%  (Kмод 2.09)
-• ТМ 6.5: 67.9%  (Kмод 1.47)
-• ТБ 6.5: 32.0%  (Kмод 3.12)
+• ТМ 4.5: 8.1%  (Kмод 12.29)
+• ТБ 4.5: 89.9%  (Kмод 1.11)
+• ТМ 5.5: 16.1%  (Kмод 6.20)
+• ТБ 5.5: 81.9%  (Kмод 1.22)
+• ТМ 6.5: 27.3%  (Kмод 3.67)
+• ТБ 6.5: 70.7%  (Kмод 1.41)
 Индивидуальные тоталы:
-• Амур ИТБ 1.5: 68.2% (Kмод 1.47)
-• Амур ИТБ 2.5: 41.9% (Kмод 2.39)
-• СКА ИТБ 1.5: 82.7% (Kмод 1.21)
-• СКА ИТБ 2.5: 61.7% (Kмод 1.62)
+• Авангард ИТБ 1.5: 96.8% (Kмод 1.03)
+• Авангард ИТБ 2.5: 89.8% (Kмод 1.11)
+• Спартак ИТБ 1.5: 80.9% (Kмод 1.24)
+• Спартак ИТБ 2.5: 59.0% (Kмод 1.70)
 Фора +1.5:
-• Амур +1.5: 61.9% (Kмод 1.61)
-• СКА +1.5: 84.4% (Kмод 1.18)</t>
+• Авангард +1.5: 88.7% (Kмод 1.13)
+• Спартак +1.5: 40.4% (Kмод 2.48)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45998.58333333334</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Трактор – Динамо М</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 07.12.2025
+Трактор – Динамо М
+Ожидания модели (60’):
+• Голы: λ_total ≈ 5.97 (3.37 : 2.60)
+• Броски: SOG λ ≈ 66 (37 : 29)
+Исход (60’), честные кф:
+• П1: 54.0%  (Kмод 1.85)
+• Х:  16.0%  (Kмод 6.26)
+• П2: 29.9%  (Kмод 3.34)
+Тоталы голов:
+• ТМ 4.5: 28.9%  (Kмод 3.46)
+• ТБ 4.5: 71.0%  (Kмод 1.41)
+• ТМ 5.5: 45.1%  (Kмод 2.22)
+• ТБ 5.5: 54.8%  (Kмод 1.82)
+• ТМ 6.5: 61.1%  (Kмод 1.64)
+• ТБ 6.5: 38.8%  (Kмод 2.58)
+Индивидуальные тоталы:
+• Трактор ИТБ 1.5: 84.9% (Kмод 1.18)
+• Трактор ИТБ 2.5: 65.4% (Kмод 1.53)
+• Динамо М ИТБ 1.5: 73.3% (Kмод 1.36)
+• Динамо М ИТБ 2.5: 48.2% (Kмод 2.08)
+Фора +1.5:
+• Трактор +1.5: 82.8% (Kмод 1.21)
+• Динамо М +1.5: 62.5% (Kмод 1.60)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45998.60416666666</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Салават Юлаев – ЦСКА</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 07.12.2025
+Салават Юлаев – ЦСКА
+Ожидания модели (60’):
+• Голы: λ_total ≈ 5.23 (2.80 : 2.43)
+• Броски: SOG λ ≈ 55 (30 : 25)
+Исход (60’), честные кф:
+• П1: 47.3%  (Kмод 2.12)
+• Х:  17.7%  (Kмод 5.64)
+• П2: 35.0%  (Kмод 2.86)
+Тоталы голов:
+• ТМ 4.5: 40.1%  (Kмод 2.49)
+• ТБ 4.5: 59.8%  (Kмод 1.67)
+• ТМ 5.5: 57.6%  (Kмод 1.74)
+• ТБ 5.5: 42.4%  (Kмод 2.36)
+• ТМ 6.5: 72.8%  (Kмод 1.37)
+• ТБ 6.5: 27.2%  (Kмод 3.68)
+Индивидуальные тоталы:
+• Салават Юлаев ИТБ 1.5: 76.8% (Kмод 1.30)
+• Салават Юлаев ИТБ 2.5: 52.9% (Kмод 1.89)
+• ЦСКА ИТБ 1.5: 69.9% (Kмод 1.43)
+• ЦСКА ИТБ 2.5: 43.9% (Kмод 2.28)
+Фора +1.5:
+• Салават Юлаев +1.5: 79.8% (Kмод 1.25)
+• ЦСКА +1.5: 69.8% (Kмод 1.43)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45998.625</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Барыс – Сибирь</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 07.12.2025
+Барыс – Сибирь
+Ожидания модели (60’):
+• Голы: λ_total ≈ 6.45 (3.70 : 2.75)
+• Броски: SOG λ ≈ 49 (27 : 23)
+Исход (60’), честные кф:
+• П1: 56.6%  (Kмод 1.77)
+• Х:  15.0%  (Kмод 6.64)
+• П2: 28.2%  (Kмод 3.55)
+Тоталы голов:
+• ТМ 4.5: 22.9%  (Kмод 4.37)
+• ТБ 4.5: 76.9%  (Kмод 1.30)
+• ТМ 5.5: 37.6%  (Kмод 2.66)
+• ТБ 5.5: 62.2%  (Kмод 1.61)
+• ТМ 6.5: 53.4%  (Kмод 1.87)
+• ТБ 6.5: 46.4%  (Kмод 2.15)
+Индивидуальные тоталы:
+• Барыс ИТБ 1.5: 88.4% (Kмод 1.13)
+• Барыс ИТБ 2.5: 71.4% (Kмод 1.40)
+• Сибирь ИТБ 1.5: 76.1% (Kмод 1.31)
+• Сибирь ИТБ 2.5: 52.0% (Kмод 1.92)
+Фора +1.5:
+• Барыс +1.5: 83.5% (Kмод 1.20)
+• Сибирь +1.5: 59.3% (Kмод 1.69)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45998.66666666666</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Лада – Северсталь</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 07.12.2025
+Лада – Северсталь
+Ожидания модели (60’):
+• Голы: λ_total ≈ 3.19 (1.17 : 2.02)
+• Броски: SOG λ ≈ 47 (20 : 27)
+Исход (60’), честные кф:
+• П1: 21.7%  (Kмод 4.61)
+• Х:  21.4%  (Kмод 4.67)
+• П2: 56.9%  (Kмод 1.76)
+Тоталы голов:
+• ТМ 4.5: 78.3%  (Kмод 1.28)
+• ТБ 4.5: 21.7%  (Kмод 4.61)
+• ТМ 5.5: 89.6%  (Kмод 1.12)
+• ТБ 5.5: 10.4%  (Kмод 9.63)
+• ТМ 6.5: 95.6%  (Kмод 1.05)
+• ТБ 6.5: 4.4%  (Kмод 22.83)
+Индивидуальные тоталы:
+• Лада ИТБ 1.5: 32.7% (Kмод 3.06)
+• Лада ИТБ 2.5: 11.4% (Kмод 8.75)
+• Северсталь ИТБ 1.5: 59.8% (Kмод 1.67)
+• Северсталь ИТБ 2.5: 32.7% (Kмод 3.05)
+Фора +1.5:
+• Лада +1.5: 66.0% (Kмод 1.52)
+• Северсталь +1.5: 91.6% (Kмод 1.09)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45998.70833333334</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Нефтехимик – Ак Барс</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 07.12.2025
+Нефтехимик – Ак Барс
+Ожидания модели (60’):
+• Голы: λ_total ≈ 5.56 (2.56 : 3.00)
+• Броски: SOG λ ≈ 62 (35 : 27)
+Исход (60’), честные кф:
+• П1: 34.3%  (Kмод 2.92)
+• Х:  17.1%  (Kмод 5.85)
+• П2: 48.6%  (Kмод 2.06)
+Тоталы голов:
+• ТМ 4.5: 34.8%  (Kмод 2.87)
+• ТБ 4.5: 65.1%  (Kмод 1.54)
+• ТМ 5.5: 51.9%  (Kмод 1.93)
+• ТБ 5.5: 48.1%  (Kмод 2.08)
+• ТМ 6.5: 67.7%  (Kмод 1.48)
+• ТБ 6.5: 32.3%  (Kмод 3.10)
+Индивидуальные тоталы:
+• Нефтехимик ИТБ 1.5: 72.5% (Kмод 1.38)
+• Нефтехимик ИТБ 2.5: 47.2% (Kмод 2.12)
+• Ак Барс ИТБ 1.5: 80.1% (Kмод 1.25)
+• Ак Барс ИТБ 2.5: 57.6% (Kмод 1.74)
+Фора +1.5:
+• Нефтехимик +1.5: 68.1% (Kмод 1.47)
+• Ак Барс +1.5: 80.0% (Kмод 1.25)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU8"/>
+  <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45998.41666666666</v>
+        <v>46007.64583333334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>СКА – Амур</t>
+          <t>Сибирь – Авангард</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897941</v>
+        <v>897869</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897941.html</t>
+          <t>https://text.khl.ru/text/897869.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>1.066667</v>
       </c>
       <c r="I2" t="n">
-        <v>1.125</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
-        <v>5.825</v>
+        <v>6.666667</v>
       </c>
       <c r="K2" t="n">
-        <v>39.750373</v>
+        <v>22.624</v>
       </c>
       <c r="L2" t="n">
-        <v>24.609235</v>
+        <v>39.66778</v>
       </c>
       <c r="M2" t="n">
-        <v>64.35960900000001</v>
+        <v>62.29178</v>
       </c>
       <c r="N2" t="n">
-        <v>0.845659</v>
+        <v>0.061991</v>
       </c>
       <c r="O2" t="n">
-        <v>0.076852</v>
+        <v>0.073958</v>
       </c>
       <c r="P2" t="n">
-        <v>0.067797</v>
+        <v>0.85472</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.182509735011393</v>
+        <v>16.13137390911584</v>
       </c>
       <c r="R2" t="n">
-        <v>13.01202310935304</v>
+        <v>13.52118770112767</v>
       </c>
       <c r="S2" t="n">
-        <v>14.74991518798767</v>
+        <v>1.169973792587046</v>
       </c>
       <c r="T2" t="n">
-        <v>84.5659</v>
+        <v>6.1991</v>
       </c>
       <c r="U2" t="n">
-        <v>7.6852</v>
+        <v>7.395799999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>6.7797</v>
+        <v>85.47200000000001</v>
       </c>
       <c r="W2" t="n">
-        <v>0.237297</v>
+        <v>0.251294</v>
       </c>
       <c r="X2" t="n">
-        <v>0.753011</v>
+        <v>0.739376</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.328001848578573</v>
+        <v>1.352491830949341</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.38659</v>
+        <v>0.404287</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.603718</v>
+        <v>0.586383</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.656402492554471</v>
+        <v>1.705370039718068</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.54536</v>
+        <v>0.564008</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.444948</v>
+        <v>0.426662</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.247453635031509</v>
+        <v>2.343775635046009</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.950224</v>
+        <v>0.455751</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.049776</v>
+        <v>0.544249</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.052383438010406</v>
+        <v>2.194180594227988</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.852582</v>
+        <v>0.201474</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.147418</v>
+        <v>0.798526</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.172907708584042</v>
+        <v>4.963419597565939</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.485216</v>
+        <v>0.94913</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.514784</v>
+        <v>0.05087</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.060937809140671</v>
+        <v>1.053596451487151</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.224839</v>
+        <v>0.849992</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.775161</v>
+        <v>0.150008</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4.447626968630887</v>
+        <v>1.176481661003868</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.96328</v>
+        <v>0.25272</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.038119757495225</v>
+        <v>3.956948401392846</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.26332</v>
+        <v>0.966774</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.797660641045116</v>
+        <v>1.03436790811503</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45998.58333333334</v>
+        <v>46007.70833333334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Авангард – Спартак</t>
+          <t>Автомобилист – Барыс</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897861</v>
+        <v>897868</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897861.html</t>
+          <t>https://text.khl.ru/text/897868.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4.6875</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.928571</v>
+        <v>1.035714</v>
       </c>
       <c r="J3" t="n">
-        <v>9.616071</v>
+        <v>6.335714</v>
       </c>
       <c r="K3" t="n">
-        <v>37.804084</v>
+        <v>35.22868</v>
       </c>
       <c r="L3" t="n">
-        <v>37.736471</v>
+        <v>24.47065</v>
       </c>
       <c r="M3" t="n">
-        <v>75.540555</v>
+        <v>59.699331</v>
       </c>
       <c r="N3" t="n">
-        <v>0.706041</v>
+        <v>0.814377</v>
       </c>
       <c r="O3" t="n">
-        <v>0.105533</v>
+        <v>0.081043</v>
       </c>
       <c r="P3" t="n">
-        <v>0.168326</v>
+        <v>0.087563</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.416348342376717</v>
+        <v>1.227932517740555</v>
       </c>
       <c r="R3" t="n">
-        <v>9.475709019927416</v>
+        <v>12.33912861073751</v>
       </c>
       <c r="S3" t="n">
-        <v>5.94085286883785</v>
+        <v>11.42034877745166</v>
       </c>
       <c r="T3" t="n">
-        <v>70.6041</v>
+        <v>81.43770000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>10.5533</v>
+        <v>8.1043</v>
       </c>
       <c r="V3" t="n">
-        <v>16.8326</v>
+        <v>8.7563</v>
       </c>
       <c r="W3" t="n">
-        <v>0.081357</v>
+        <v>0.148584</v>
       </c>
       <c r="X3" t="n">
-        <v>0.898543</v>
+        <v>0.834399</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.112912793266432</v>
+        <v>1.198467399889022</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.161378</v>
+        <v>0.265858</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.818522</v>
+        <v>0.717126</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.221714260581878</v>
+        <v>1.394455088784955</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.272716</v>
+        <v>0.408237</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.707183</v>
+        <v>0.574746</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.414061141175622</v>
+        <v>1.739899016261096</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.968292</v>
+        <v>0.964863</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.031708</v>
+        <v>0.035137</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.032746320324861</v>
+        <v>1.036416568984405</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.897755</v>
+        <v>0.888792</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.102245</v>
+        <v>0.111208</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.113889646952676</v>
+        <v>1.125122638367582</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.809354</v>
+        <v>0.624644</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.190646</v>
+        <v>0.375356</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.235553293120192</v>
+        <v>1.60091187940651</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.589686</v>
+        <v>0.354858</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.410314</v>
+        <v>0.645142</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.695817774205255</v>
+        <v>2.818028619898663</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.88664</v>
+        <v>0.943187</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.127853469277271</v>
+        <v>1.060235138949116</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.403716</v>
+        <v>0.28523</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.476988774286875</v>
+        <v>3.50594257266066</v>
       </c>
     </row>
     <row r="4">
@@ -982,150 +982,150 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45998.58333333334</v>
+        <v>46007.75</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Трактор – Динамо М</t>
+          <t>Лада – ЦСКА</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897862</v>
+        <v>897871</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897862.html</t>
+          <t>https://text.khl.ru/text/897871.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5.558824</v>
+        <v>0.933333</v>
       </c>
       <c r="I4" t="n">
-        <v>3.00263</v>
+        <v>1.743933</v>
       </c>
       <c r="J4" t="n">
-        <v>8.561453999999999</v>
+        <v>2.677266</v>
       </c>
       <c r="K4" t="n">
-        <v>37.356179</v>
+        <v>20.472803</v>
       </c>
       <c r="L4" t="n">
-        <v>29.123491</v>
+        <v>28.115807</v>
       </c>
       <c r="M4" t="n">
-        <v>66.47967</v>
+        <v>48.58861</v>
       </c>
       <c r="N4" t="n">
-        <v>0.540125</v>
+        <v>0.232994</v>
       </c>
       <c r="O4" t="n">
-        <v>0.159755</v>
+        <v>0.226297</v>
       </c>
       <c r="P4" t="n">
-        <v>0.299282</v>
+        <v>0.540705</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.851423281647767</v>
+        <v>4.291956016034748</v>
       </c>
       <c r="R4" t="n">
-        <v>6.259584989515194</v>
+        <v>4.418971528566441</v>
       </c>
       <c r="S4" t="n">
-        <v>3.341330250399289</v>
+        <v>1.849437308698828</v>
       </c>
       <c r="T4" t="n">
-        <v>54.0125</v>
+        <v>23.2994</v>
       </c>
       <c r="U4" t="n">
-        <v>15.9755</v>
+        <v>22.6297</v>
       </c>
       <c r="V4" t="n">
-        <v>29.9282</v>
+        <v>54.0705</v>
       </c>
       <c r="W4" t="n">
-        <v>0.289234</v>
+        <v>0.8137450000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>0.709928</v>
+        <v>0.186251</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.408593547514678</v>
+        <v>5.369098689403009</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.45068</v>
+        <v>0.915169</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5484830000000001</v>
+        <v>0.084826</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.823210564411294</v>
+        <v>11.78883832787117</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.61129</v>
+        <v>0.9660339999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.387873</v>
+        <v>0.033961</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.578163471033044</v>
+        <v>29.44554047289538</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.849444</v>
+        <v>0.318219</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.150556</v>
+        <v>0.681781</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.177240642114136</v>
+        <v>3.14248992046358</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6539779999999999</v>
+        <v>0.109274</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.346022</v>
+        <v>0.890726</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.529103425497494</v>
+        <v>9.151307721873456</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.732867</v>
+        <v>0.555298</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.267133</v>
+        <v>0.444702</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.364504064175355</v>
+        <v>1.800834867044362</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.481898</v>
+        <v>0.285979</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.518102</v>
+        <v>0.714021</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.075127931636986</v>
+        <v>3.496760251626868</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.827803</v>
+        <v>0.691107</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.20801688324396</v>
+        <v>1.446953944902888</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.624646</v>
+        <v>0.909845</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.600906753585231</v>
+        <v>1.099088306249966</v>
       </c>
     </row>
     <row r="5">
@@ -1133,150 +1133,150 @@
         <v>1369</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45998.60416666666</v>
+        <v>46007.79166666666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Салават Юлаев</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ЦСКА</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Салават Юлаев – ЦСКА</t>
+          <t>Ак Барс – Салават Юлаев</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>897860</v>
+        <v>897867</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897860.html</t>
+          <t>https://text.khl.ru/text/897867.html</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4.178855</v>
+        <v>3.926991</v>
       </c>
       <c r="I5" t="n">
-        <v>1.702577</v>
+        <v>1.05</v>
       </c>
       <c r="J5" t="n">
-        <v>5.881432</v>
+        <v>4.976991</v>
       </c>
       <c r="K5" t="n">
-        <v>30.132629</v>
+        <v>33.449071</v>
       </c>
       <c r="L5" t="n">
-        <v>24.929885</v>
+        <v>22.215265</v>
       </c>
       <c r="M5" t="n">
-        <v>55.062514</v>
+        <v>55.664336</v>
       </c>
       <c r="N5" t="n">
-        <v>0.472573</v>
+        <v>0.577475</v>
       </c>
       <c r="O5" t="n">
-        <v>0.177216</v>
+        <v>0.16553</v>
       </c>
       <c r="P5" t="n">
-        <v>0.350001</v>
+        <v>0.256607</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.116075188383594</v>
+        <v>1.731676695960864</v>
       </c>
       <c r="R5" t="n">
-        <v>5.642831347056699</v>
+        <v>6.041200990756962</v>
       </c>
       <c r="S5" t="n">
-        <v>2.857134693900874</v>
+        <v>3.897009824361767</v>
       </c>
       <c r="T5" t="n">
-        <v>47.2573</v>
+        <v>57.7475</v>
       </c>
       <c r="U5" t="n">
-        <v>17.7216</v>
+        <v>16.553</v>
       </c>
       <c r="V5" t="n">
-        <v>35.0001</v>
+        <v>25.6607</v>
       </c>
       <c r="W5" t="n">
-        <v>0.401303</v>
+        <v>0.403786</v>
       </c>
       <c r="X5" t="n">
-        <v>0.598487</v>
+        <v>0.595827</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.67088006924127</v>
+        <v>1.678339518014457</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.575881</v>
+        <v>0.578474</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.423909</v>
+        <v>0.421138</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.358996860175179</v>
+        <v>2.37451856636067</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.72802</v>
+        <v>0.730277</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.27177</v>
+        <v>0.269336</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.679581999484858</v>
+        <v>3.712834526390827</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.768122</v>
+        <v>0.813895</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.231878</v>
+        <v>0.186105</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.30187652482288</v>
+        <v>1.228659716548203</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.529428</v>
+        <v>0.596665</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.470572</v>
+        <v>0.403335</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.888830964739304</v>
+        <v>1.675982335146188</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.698781</v>
+        <v>0.626512</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.301219</v>
+        <v>0.373488</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.431063523478744</v>
+        <v>1.596138621446995</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.439018</v>
+        <v>0.356839</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.560982</v>
+        <v>0.643161</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.277810932581352</v>
+        <v>2.80238426853567</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.798301</v>
+        <v>0.865995</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.252660337391535</v>
+        <v>1.154741078181745</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.69781</v>
+        <v>0.601063</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.433054843008842</v>
+        <v>1.663719110975056</v>
       </c>
     </row>
     <row r="6">
@@ -1284,150 +1284,150 @@
         <v>1369</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45998.625</v>
+        <v>46007.79166666666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Барыс – Сибирь</t>
+          <t>Локомотив – Динамо Мн</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>897864</v>
+        <v>897866</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897864.html</t>
+          <t>https://text.khl.ru/text/897866.html</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.731076</v>
+        <v>2.233075</v>
       </c>
       <c r="I6" t="n">
-        <v>1.083333</v>
+        <v>4.376873</v>
       </c>
       <c r="J6" t="n">
-        <v>2.81441</v>
+        <v>6.609949</v>
       </c>
       <c r="K6" t="n">
-        <v>26.573095</v>
+        <v>25.39464</v>
       </c>
       <c r="L6" t="n">
-        <v>22.690164</v>
+        <v>35.477968</v>
       </c>
       <c r="M6" t="n">
-        <v>49.263259</v>
+        <v>60.872609</v>
       </c>
       <c r="N6" t="n">
-        <v>0.56577</v>
+        <v>0.206709</v>
       </c>
       <c r="O6" t="n">
-        <v>0.15049</v>
+        <v>0.164605</v>
       </c>
       <c r="P6" t="n">
-        <v>0.282029</v>
+        <v>0.628429</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.767502695441611</v>
+        <v>4.83771872535787</v>
       </c>
       <c r="R6" t="n">
-        <v>6.644959797993222</v>
+        <v>6.075149600558913</v>
       </c>
       <c r="S6" t="n">
-        <v>3.545734658492567</v>
+        <v>1.591269658147539</v>
       </c>
       <c r="T6" t="n">
-        <v>56.577</v>
+        <v>20.6709</v>
       </c>
       <c r="U6" t="n">
-        <v>15.049</v>
+        <v>16.4605</v>
       </c>
       <c r="V6" t="n">
-        <v>28.2029</v>
+        <v>62.8429</v>
       </c>
       <c r="W6" t="n">
-        <v>0.228971</v>
+        <v>0.499263</v>
       </c>
       <c r="X6" t="n">
-        <v>0.769319</v>
+        <v>0.500479</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.299850907100956</v>
+        <v>1.998085833771247</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.375904</v>
+        <v>0.672802</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.622385</v>
+        <v>0.326941</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.606722527053191</v>
+        <v>3.05865584310319</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.533932</v>
+        <v>0.808014</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.464357</v>
+        <v>0.191729</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.153515506388404</v>
+        <v>5.21569506960345</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.883696</v>
+        <v>0.514073</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.116304</v>
+        <v>0.485927</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.131610870706668</v>
+        <v>1.94524902105343</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.714376</v>
+        <v>0.249041</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.285624</v>
+        <v>0.750959</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.399823062364917</v>
+        <v>4.015403086238812</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.761002</v>
+        <v>0.793443</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.238998</v>
+        <v>0.206557</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.314056993279913</v>
+        <v>1.260329979595258</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.51955</v>
+        <v>0.565787</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.48045</v>
+        <v>0.434213</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.92474256568184</v>
+        <v>1.767449587919129</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.835461</v>
+        <v>0.560992</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.1969439626745</v>
+        <v>1.78255661399806</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.592606</v>
+        <v>0.903817</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.687461821176296</v>
+        <v>1.106418666610608</v>
       </c>
     </row>
     <row r="7">
@@ -1435,150 +1435,150 @@
         <v>1369</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45998.66666666666</v>
+        <v>46007.79166666666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Лада – Северсталь</t>
+          <t>Нефтехимик – Торпедо</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>897863</v>
+        <v>897872</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897863.html</t>
+          <t>https://text.khl.ru/text/897872.html</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.928571</v>
+        <v>3.691483</v>
       </c>
       <c r="I7" t="n">
-        <v>1.529412</v>
+        <v>2.343097</v>
       </c>
       <c r="J7" t="n">
-        <v>2.457983</v>
+        <v>6.03458</v>
       </c>
       <c r="K7" t="n">
-        <v>20.050089</v>
+        <v>35.326163</v>
       </c>
       <c r="L7" t="n">
-        <v>26.643695</v>
+        <v>31.500113</v>
       </c>
       <c r="M7" t="n">
-        <v>46.693784</v>
+        <v>66.826275</v>
       </c>
       <c r="N7" t="n">
-        <v>0.217122</v>
+        <v>0.346666</v>
       </c>
       <c r="O7" t="n">
-        <v>0.213919</v>
+        <v>0.156411</v>
       </c>
       <c r="P7" t="n">
-        <v>0.568951</v>
+        <v>0.49553</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.605705548032903</v>
+        <v>2.884620931963331</v>
       </c>
       <c r="R7" t="n">
-        <v>4.674666579406224</v>
+        <v>6.393412228040227</v>
       </c>
       <c r="S7" t="n">
-        <v>1.757620603531763</v>
+        <v>2.018041289124775</v>
       </c>
       <c r="T7" t="n">
-        <v>21.7122</v>
+        <v>34.6666</v>
       </c>
       <c r="U7" t="n">
-        <v>21.3919</v>
+        <v>15.6411</v>
       </c>
       <c r="V7" t="n">
-        <v>56.8951</v>
+        <v>49.553</v>
       </c>
       <c r="W7" t="n">
-        <v>0.782989</v>
+        <v>0.217553</v>
       </c>
       <c r="X7" t="n">
-        <v>0.217002</v>
+        <v>0.781053</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.608252458502687</v>
+        <v>1.2803228462089</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.89611</v>
+        <v>0.361053</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.103881</v>
+        <v>0.637554</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.626399437818273</v>
+        <v>1.568494590262158</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.956189</v>
+        <v>0.517833</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.043802</v>
+        <v>0.480773</v>
       </c>
       <c r="AE7" t="n">
-        <v>22.83000776220264</v>
+        <v>2.079983692927847</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.326966</v>
+        <v>0.805505</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.673034</v>
+        <v>0.194495</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.058421976596955</v>
+        <v>1.241457222487756</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.114344</v>
+        <v>0.583827</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.885656</v>
+        <v>0.416173</v>
       </c>
       <c r="AK7" t="n">
-        <v>8.745539774714896</v>
+        <v>1.712836165507933</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.598136</v>
+        <v>0.866608</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.401864</v>
+        <v>0.133392</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.671860580202496</v>
+        <v>1.153924265642597</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.327481</v>
+        <v>0.683536</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.672519</v>
+        <v>0.316464</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.053612270635548</v>
+        <v>1.462980735469675</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.659797</v>
+        <v>0.658213</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.515617682408377</v>
+        <v>1.519265040344083</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.915817</v>
+        <v>0.785403</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.091921202598336</v>
+        <v>1.273231703978722</v>
       </c>
     </row>
     <row r="8">
@@ -1586,150 +1586,301 @@
         <v>1369</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45998.70833333334</v>
+        <v>46007.8125</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Нефтехимик – Ак Барс</t>
+          <t>Динамо М – Спартак</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>897859</v>
+        <v>897865</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897859.html</t>
+          <t>https://text.khl.ru/text/897865.html</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2.579904</v>
       </c>
       <c r="I8" t="n">
-        <v>1.28125</v>
+        <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>5.28125</v>
+        <v>7.679904</v>
       </c>
       <c r="K8" t="n">
-        <v>34.740097</v>
+        <v>29.315697</v>
       </c>
       <c r="L8" t="n">
-        <v>27.309915</v>
+        <v>36.075524</v>
       </c>
       <c r="M8" t="n">
-        <v>62.050012</v>
+        <v>65.391221</v>
       </c>
       <c r="N8" t="n">
-        <v>0.342928</v>
+        <v>0.597759</v>
       </c>
       <c r="O8" t="n">
-        <v>0.170823</v>
+        <v>0.134552</v>
       </c>
       <c r="P8" t="n">
-        <v>0.485882</v>
+        <v>0.261647</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.916064013437223</v>
+        <v>1.672915004207381</v>
       </c>
       <c r="R8" t="n">
-        <v>5.854012632959262</v>
+        <v>7.432070872227837</v>
       </c>
       <c r="S8" t="n">
-        <v>2.058112875142525</v>
+        <v>3.821943305293009</v>
       </c>
       <c r="T8" t="n">
-        <v>34.2928</v>
+        <v>59.77590000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>17.0823</v>
+        <v>13.4552</v>
       </c>
       <c r="V8" t="n">
-        <v>48.5882</v>
+        <v>26.1647</v>
       </c>
       <c r="W8" t="n">
-        <v>0.348205</v>
+        <v>0.128506</v>
       </c>
       <c r="X8" t="n">
-        <v>0.651428</v>
+        <v>0.865452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.535089065867602</v>
+        <v>1.155465583302136</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.518618</v>
+        <v>0.236086</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.481015</v>
+        <v>0.757873</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.078937247279191</v>
+        <v>1.319482287929508</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.676542</v>
+        <v>0.371444</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.323091</v>
+        <v>0.622514</v>
       </c>
       <c r="AE8" t="n">
-        <v>3.095103237168475</v>
+        <v>1.606389575174213</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.725289</v>
+        <v>0.933157</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.274711</v>
+        <v>0.066843</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.378760742269633</v>
+        <v>1.071631033148763</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.472116</v>
+        <v>0.81366</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.527884</v>
+        <v>0.18634</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.118123512018233</v>
+        <v>1.229014576112873</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.800518</v>
+        <v>0.823425</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.199482</v>
+        <v>0.176575</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.249191148731197</v>
+        <v>1.214439687889</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.57631</v>
+        <v>0.611553</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.42369</v>
+        <v>0.388447</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.73517724835592</v>
+        <v>1.635181251665841</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.680891</v>
+        <v>0.83849</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.468663853685832</v>
+        <v>1.192620067025248</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.799577</v>
+        <v>0.543736</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.250661287155584</v>
+        <v>1.839127812026425</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>46007.8125</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>СКА – Драконы</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>897870</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897870.html</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2.979392</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.257346</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.236738</v>
+      </c>
+      <c r="K9" t="n">
+        <v>32.012917</v>
+      </c>
+      <c r="L9" t="n">
+        <v>29.012809</v>
+      </c>
+      <c r="M9" t="n">
+        <v>61.025726</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.725148</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.117991</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.152386</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.379028832734835</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.475222686476087</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.562282624388067</v>
+      </c>
+      <c r="T9" t="n">
+        <v>72.51480000000001</v>
+      </c>
+      <c r="U9" t="n">
+        <v>11.7991</v>
+      </c>
+      <c r="V9" t="n">
+        <v>15.2386</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.228944</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.766581</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.304493589066257</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.375869</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.619655</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.613801228102735</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.533895</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.46163</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2.166237029655785</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.9252860000000001</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.074714</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.080746925815369</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.796656</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.203344</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.255246932176498</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.645533</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.354467</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.549107481724404</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.377399</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.622601</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2.649715553035382</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.920724</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1.086101806838966</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.42033</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>2.379083101372731</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1770,267 +1921,305 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45998.41666666666</v>
+        <v>46007.64583333334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>СКА – Амур</t>
+          <t>Сибирь – Авангард</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 07.12.2025
-СКА – Амур
+          <t>КХЛ • Регулярный чемпионат • 16.12.2025
+Сибирь – Авангард
 Ожидания модели (60’):
-• Голы: λ_total ≈ 6.38 (4.75 : 1.63)
-• Броски: SOG λ ≈ 64 (40 : 25)
+• Голы: λ_total ≈ 6.26 (1.54 : 4.72)
+• Броски: SOG λ ≈ 62 (23 : 40)
 Исход (60’), честные кф:
-• П1: 84.6%  (Kмод 1.18)
-• Х:  7.7%  (Kмод 13.01)
-• П2: 6.8%  (Kмод 14.75)
+• П1: 6.2%  (Kмод 16.13)
+• Х:  7.4%  (Kмод 13.52)
+• П2: 85.5%  (Kмод 1.17)
 Тоталы голов:
-• ТМ 4.5: 23.7%  (Kмод 4.21)
-• ТБ 4.5: 75.3%  (Kмод 1.33)
-• ТМ 5.5: 38.7%  (Kмод 2.59)
-• ТБ 5.5: 60.4%  (Kмод 1.66)
-• ТМ 6.5: 54.5%  (Kмод 1.83)
-• ТБ 6.5: 44.5%  (Kмод 2.25)
+• ТМ 4.5: 25.1%  (Kмод 3.98)
+• ТБ 4.5: 73.9%  (Kмод 1.35)
+• ТМ 5.5: 40.4%  (Kмод 2.47)
+• ТБ 5.5: 58.6%  (Kмод 1.71)
+• ТМ 6.5: 56.4%  (Kмод 1.77)
+• ТБ 6.5: 42.7%  (Kмод 2.34)
 Индивидуальные тоталы:
-• СКА ИТБ 1.5: 95.0% (Kмод 1.05)
-• СКА ИТБ 2.5: 85.3% (Kмод 1.17)
-• Амур ИТБ 1.5: 48.5% (Kмод 2.06)
-• Амур ИТБ 2.5: 22.5% (Kмод 4.45)
+• Сибирь ИТБ 1.5: 45.6% (Kмод 2.19)
+• Сибирь ИТБ 2.5: 20.1% (Kмод 4.96)
+• Авангард ИТБ 1.5: 94.9% (Kмод 1.05)
+• Авангард ИТБ 2.5: 85.0% (Kмод 1.18)
 Фора +1.5:
-• СКА +1.5: 96.3% (Kмод 1.04)
-• Амур +1.5: 26.3% (Kмод 3.80)</t>
+• Сибирь +1.5: 25.3% (Kмод 3.96)
+• Авангард +1.5: 96.7% (Kмод 1.03)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45998.58333333334</v>
+        <v>46007.70833333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Авангард – Спартак</t>
+          <t>Автомобилист – Барыс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 07.12.2025
-Авангард – Спартак
+          <t>КХЛ • Регулярный чемпионат • 16.12.2025
+Автомобилист – Барыс
 Ожидания модели (60’):
-• Голы: λ_total ≈ 8.35 (5.29 : 3.06)
-• Броски: SOG λ ≈ 76 (38 : 38)
+• Голы: λ_total ≈ 7.28 (5.17 : 2.12)
+• Броски: SOG λ ≈ 60 (35 : 24)
 Исход (60’), честные кф:
-• П1: 70.6%  (Kмод 1.42)
-• Х:  10.6%  (Kмод 9.48)
-• П2: 16.8%  (Kмод 5.94)
+• П1: 81.4%  (Kмод 1.23)
+• Х:  8.1%  (Kмод 12.34)
+• П2: 8.8%  (Kмод 11.42)
 Тоталы голов:
-• ТМ 4.5: 8.1%  (Kмод 12.29)
-• ТБ 4.5: 89.9%  (Kмод 1.11)
-• ТМ 5.5: 16.1%  (Kмод 6.20)
-• ТБ 5.5: 81.9%  (Kмод 1.22)
-• ТМ 6.5: 27.3%  (Kмод 3.67)
-• ТБ 6.5: 70.7%  (Kмод 1.41)
+• ТМ 4.5: 14.9%  (Kмод 6.73)
+• ТБ 4.5: 83.4%  (Kмод 1.20)
+• ТМ 5.5: 26.6%  (Kмод 3.76)
+• ТБ 5.5: 71.7%  (Kмод 1.39)
+• ТМ 6.5: 40.8%  (Kмод 2.45)
+• ТБ 6.5: 57.5%  (Kмод 1.74)
 Индивидуальные тоталы:
-• Авангард ИТБ 1.5: 96.8% (Kмод 1.03)
-• Авангард ИТБ 2.5: 89.8% (Kмод 1.11)
-• Спартак ИТБ 1.5: 80.9% (Kмод 1.24)
-• Спартак ИТБ 2.5: 59.0% (Kмод 1.70)
+• Автомобилист ИТБ 1.5: 96.5% (Kмод 1.04)
+• Автомобилист ИТБ 2.5: 88.9% (Kмод 1.13)
+• Барыс ИТБ 1.5: 62.5% (Kмод 1.60)
+• Барыс ИТБ 2.5: 35.5% (Kмод 2.82)
 Фора +1.5:
-• Авангард +1.5: 88.7% (Kмод 1.13)
-• Спартак +1.5: 40.4% (Kмод 2.48)</t>
+• Автомобилист +1.5: 94.3% (Kмод 1.06)
+• Барыс +1.5: 28.5% (Kмод 3.51)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45998.58333333334</v>
+        <v>46007.75</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Трактор – Динамо М</t>
+          <t>Лада – ЦСКА</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 07.12.2025
-Трактор – Динамо М
+          <t>КХЛ • Регулярный чемпионат • 16.12.2025
+Лада – ЦСКА
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.97 (3.37 : 2.60)
-• Броски: SOG λ ≈ 66 (37 : 29)
+• Голы: λ_total ≈ 3.01 (1.15 : 1.86)
+• Броски: SOG λ ≈ 49 (20 : 28)
 Исход (60’), честные кф:
-• П1: 54.0%  (Kмод 1.85)
-• Х:  16.0%  (Kмод 6.26)
-• П2: 29.9%  (Kмод 3.34)
+• П1: 23.3%  (Kмод 4.29)
+• Х:  22.6%  (Kмод 4.42)
+• П2: 54.1%  (Kмод 1.85)
 Тоталы голов:
-• ТМ 4.5: 28.9%  (Kмод 3.46)
-• ТБ 4.5: 71.0%  (Kмод 1.41)
-• ТМ 5.5: 45.1%  (Kмод 2.22)
-• ТБ 5.5: 54.8%  (Kмод 1.82)
-• ТМ 6.5: 61.1%  (Kмод 1.64)
-• ТБ 6.5: 38.8%  (Kмод 2.58)
+• ТМ 4.5: 81.4%  (Kмод 1.23)
+• ТБ 4.5: 18.6%  (Kмод 5.37)
+• ТМ 5.5: 91.5%  (Kмод 1.09)
+• ТБ 5.5: 8.5%  (Kмод 11.79)
+• ТМ 6.5: 96.6%  (Kмод 1.04)
+• ТБ 6.5: 3.4%  (Kмод 29.45)
 Индивидуальные тоталы:
-• Трактор ИТБ 1.5: 84.9% (Kмод 1.18)
-• Трактор ИТБ 2.5: 65.4% (Kмод 1.53)
-• Динамо М ИТБ 1.5: 73.3% (Kмод 1.36)
-• Динамо М ИТБ 2.5: 48.2% (Kмод 2.08)
+• Лада ИТБ 1.5: 31.8% (Kмод 3.14)
+• Лада ИТБ 2.5: 10.9% (Kмод 9.15)
+• ЦСКА ИТБ 1.5: 55.5% (Kмод 1.80)
+• ЦСКА ИТБ 2.5: 28.6% (Kмод 3.50)
 Фора +1.5:
-• Трактор +1.5: 82.8% (Kмод 1.21)
-• Динамо М +1.5: 62.5% (Kмод 1.60)</t>
+• Лада +1.5: 69.1% (Kмод 1.45)
+• ЦСКА +1.5: 91.0% (Kмод 1.10)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45998.60416666666</v>
+        <v>46007.79166666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Салават Юлаев – ЦСКА</t>
+          <t>Ак Барс – Салават Юлаев</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 07.12.2025
-Салават Юлаев – ЦСКА
+          <t>КХЛ • Регулярный чемпионат • 16.12.2025
+Ак Барс – Салават Юлаев
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.23 (2.80 : 2.43)
-• Броски: SOG λ ≈ 55 (30 : 25)
+• Голы: λ_total ≈ 5.21 (3.09 : 2.12)
+• Броски: SOG λ ≈ 56 (33 : 22)
 Исход (60’), честные кф:
-• П1: 47.3%  (Kмод 2.12)
-• Х:  17.7%  (Kмод 5.64)
-• П2: 35.0%  (Kмод 2.86)
+• П1: 57.7%  (Kмод 1.73)
+• Х:  16.6%  (Kмод 6.04)
+• П2: 25.7%  (Kмод 3.90)
 Тоталы голов:
-• ТМ 4.5: 40.1%  (Kмод 2.49)
-• ТБ 4.5: 59.8%  (Kмод 1.67)
-• ТМ 5.5: 57.6%  (Kмод 1.74)
-• ТБ 5.5: 42.4%  (Kмод 2.36)
-• ТМ 6.5: 72.8%  (Kмод 1.37)
-• ТБ 6.5: 27.2%  (Kмод 3.68)
+• ТМ 4.5: 40.4%  (Kмод 2.48)
+• ТБ 4.5: 59.6%  (Kмод 1.68)
+• ТМ 5.5: 57.8%  (Kмод 1.73)
+• ТБ 5.5: 42.1%  (Kмод 2.37)
+• ТМ 6.5: 73.0%  (Kмод 1.37)
+• ТБ 6.5: 26.9%  (Kмод 3.71)
 Индивидуальные тоталы:
-• Салават Юлаев ИТБ 1.5: 76.8% (Kмод 1.30)
-• Салават Юлаев ИТБ 2.5: 52.9% (Kмод 1.89)
-• ЦСКА ИТБ 1.5: 69.9% (Kмод 1.43)
-• ЦСКА ИТБ 2.5: 43.9% (Kмод 2.28)
+• Ак Барс ИТБ 1.5: 81.4% (Kмод 1.23)
+• Ак Барс ИТБ 2.5: 59.7% (Kмод 1.68)
+• Салават Юлаев ИТБ 1.5: 62.7% (Kмод 1.60)
+• Салават Юлаев ИТБ 2.5: 35.7% (Kмод 2.80)
 Фора +1.5:
-• Салават Юлаев +1.5: 79.8% (Kмод 1.25)
-• ЦСКА +1.5: 69.8% (Kмод 1.43)</t>
+• Ак Барс +1.5: 86.6% (Kмод 1.15)
+• Салават Юлаев +1.5: 60.1% (Kмод 1.66)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45998.625</v>
+        <v>46007.79166666666</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Барыс – Сибирь</t>
+          <t>Локомотив – Динамо Мн</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 07.12.2025
-Барыс – Сибирь
+          <t>КХЛ • Регулярный чемпионат • 16.12.2025
+Локомотив – Динамо Мн
 Ожидания модели (60’):
-• Голы: λ_total ≈ 6.45 (3.70 : 2.75)
-• Броски: SOG λ ≈ 49 (27 : 23)
+• Голы: λ_total ≈ 4.67 (1.72 : 2.95)
+• Броски: SOG λ ≈ 61 (25 : 35)
 Исход (60’), честные кф:
-• П1: 56.6%  (Kмод 1.77)
-• Х:  15.0%  (Kмод 6.64)
-• П2: 28.2%  (Kмод 3.55)
+• П1: 20.7%  (Kмод 4.84)
+• Х:  16.5%  (Kмод 6.08)
+• П2: 62.8%  (Kмод 1.59)
 Тоталы голов:
-• ТМ 4.5: 22.9%  (Kмод 4.37)
-• ТБ 4.5: 76.9%  (Kмод 1.30)
-• ТМ 5.5: 37.6%  (Kмод 2.66)
-• ТБ 5.5: 62.2%  (Kмод 1.61)
-• ТМ 6.5: 53.4%  (Kмод 1.87)
-• ТБ 6.5: 46.4%  (Kмод 2.15)
+• ТМ 4.5: 49.9%  (Kмод 2.00)
+• ТБ 4.5: 50.0%  (Kмод 2.00)
+• ТМ 5.5: 67.3%  (Kмод 1.49)
+• ТБ 5.5: 32.7%  (Kмод 3.06)
+• ТМ 6.5: 80.8%  (Kмод 1.24)
+• ТБ 6.5: 19.2%  (Kмод 5.22)
 Индивидуальные тоталы:
-• Барыс ИТБ 1.5: 88.4% (Kмод 1.13)
-• Барыс ИТБ 2.5: 71.4% (Kмод 1.40)
-• Сибирь ИТБ 1.5: 76.1% (Kмод 1.31)
-• Сибирь ИТБ 2.5: 52.0% (Kмод 1.92)
+• Локомотив ИТБ 1.5: 51.4% (Kмод 1.95)
+• Локомотив ИТБ 2.5: 24.9% (Kмод 4.02)
+• Динамо Мн ИТБ 1.5: 79.3% (Kмод 1.26)
+• Динамо Мн ИТБ 2.5: 56.6% (Kмод 1.77)
 Фора +1.5:
-• Барыс +1.5: 83.5% (Kмод 1.20)
-• Сибирь +1.5: 59.3% (Kмод 1.69)</t>
+• Локомотив +1.5: 56.1% (Kмод 1.78)
+• Динамо Мн +1.5: 90.4% (Kмод 1.11)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45998.66666666666</v>
+        <v>46007.79166666666</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Лада – Северсталь</t>
+          <t>Нефтехимик – Торпедо</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 07.12.2025
-Лада – Северсталь
+          <t>КХЛ • Регулярный чемпионат • 16.12.2025
+Нефтехимик – Торпедо
 Ожидания модели (60’):
-• Голы: λ_total ≈ 3.19 (1.17 : 2.02)
-• Броски: SOG λ ≈ 47 (20 : 27)
+• Голы: λ_total ≈ 6.56 (3.03 : 3.52)
+• Броски: SOG λ ≈ 67 (35 : 32)
 Исход (60’), честные кф:
-• П1: 21.7%  (Kмод 4.61)
-• Х:  21.4%  (Kмод 4.67)
-• П2: 56.9%  (Kмод 1.76)
+• П1: 34.7%  (Kмод 2.88)
+• Х:  15.6%  (Kмод 6.39)
+• П2: 49.6%  (Kмод 2.02)
 Тоталы голов:
-• ТМ 4.5: 78.3%  (Kмод 1.28)
-• ТБ 4.5: 21.7%  (Kмод 4.61)
-• ТМ 5.5: 89.6%  (Kмод 1.12)
-• ТБ 5.5: 10.4%  (Kмод 9.63)
-• ТМ 6.5: 95.6%  (Kмод 1.05)
-• ТБ 6.5: 4.4%  (Kмод 22.83)
+• ТМ 4.5: 21.8%  (Kмод 4.60)
+• ТБ 4.5: 78.1%  (Kмод 1.28)
+• ТМ 5.5: 36.1%  (Kмод 2.77)
+• ТБ 5.5: 63.8%  (Kмод 1.57)
+• ТМ 6.5: 51.8%  (Kмод 1.93)
+• ТБ 6.5: 48.1%  (Kмод 2.08)
 Индивидуальные тоталы:
-• Лада ИТБ 1.5: 32.7% (Kмод 3.06)
-• Лада ИТБ 2.5: 11.4% (Kмод 8.75)
-• Северсталь ИТБ 1.5: 59.8% (Kмод 1.67)
-• Северсталь ИТБ 2.5: 32.7% (Kмод 3.05)
+• Нефтехимик ИТБ 1.5: 80.6% (Kмод 1.24)
+• Нефтехимик ИТБ 2.5: 58.4% (Kмод 1.71)
+• Торпедо ИТБ 1.5: 86.7% (Kмод 1.15)
+• Торпедо ИТБ 2.5: 68.4% (Kмод 1.46)
 Фора +1.5:
-• Лада +1.5: 66.0% (Kмод 1.52)
-• Северсталь +1.5: 91.6% (Kмод 1.09)</t>
+• Нефтехимик +1.5: 65.8% (Kмод 1.52)
+• Торпедо +1.5: 78.5% (Kмод 1.27)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45998.70833333334</v>
+        <v>46007.8125</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Нефтехимик – Ак Барс</t>
+          <t>Динамо М – Спартак</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 07.12.2025
-Нефтехимик – Ак Барс
+          <t>КХЛ • Регулярный чемпионат • 16.12.2025
+Динамо М – Спартак
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.56 (2.56 : 3.00)
-• Броски: SOG λ ≈ 62 (35 : 27)
+• Голы: λ_total ≈ 7.55 (4.39 : 3.16)
+• Броски: SOG λ ≈ 65 (29 : 36)
 Исход (60’), честные кф:
-• П1: 34.3%  (Kмод 2.92)
-• Х:  17.1%  (Kмод 5.85)
-• П2: 48.6%  (Kмод 2.06)
+• П1: 59.8%  (Kмод 1.67)
+• Х:  13.5%  (Kмод 7.43)
+• П2: 26.2%  (Kмод 3.82)
 Тоталы голов:
-• ТМ 4.5: 34.8%  (Kмод 2.87)
-• ТБ 4.5: 65.1%  (Kмод 1.54)
-• ТМ 5.5: 51.9%  (Kмод 1.93)
-• ТБ 5.5: 48.1%  (Kмод 2.08)
-• ТМ 6.5: 67.7%  (Kмод 1.48)
-• ТБ 6.5: 32.3%  (Kмод 3.10)
+• ТМ 4.5: 12.9%  (Kмод 7.78)
+• ТБ 4.5: 86.5%  (Kмод 1.16)
+• ТМ 5.5: 23.6%  (Kмод 4.24)
+• ТБ 5.5: 75.8%  (Kмод 1.32)
+• ТМ 6.5: 37.1%  (Kмод 2.69)
+• ТБ 6.5: 62.3%  (Kмод 1.61)
 Индивидуальные тоталы:
-• Нефтехимик ИТБ 1.5: 72.5% (Kмод 1.38)
-• Нефтехимик ИТБ 2.5: 47.2% (Kмод 2.12)
-• Ак Барс ИТБ 1.5: 80.1% (Kмод 1.25)
-• Ак Барс ИТБ 2.5: 57.6% (Kмод 1.74)
+• Динамо М ИТБ 1.5: 93.3% (Kмод 1.07)
+• Динамо М ИТБ 2.5: 81.4% (Kмод 1.23)
+• Спартак ИТБ 1.5: 82.3% (Kмод 1.21)
+• Спартак ИТБ 2.5: 61.2% (Kмод 1.64)
 Фора +1.5:
-• Нефтехимик +1.5: 68.1% (Kмод 1.47)
-• Ак Барс +1.5: 80.0% (Kмод 1.25)</t>
+• Динамо М +1.5: 83.8% (Kмод 1.19)
+• Спартак +1.5: 54.4% (Kмод 1.84)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>46007.8125</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>СКА – Драконы</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 16.12.2025
+СКА – Драконы
+Ожидания модели (60’):
+• Голы: λ_total ≈ 6.45 (4.25 : 2.20)
+• Броски: SOG λ ≈ 61 (32 : 29)
+Исход (60’), честные кф:
+• П1: 72.5%  (Kмод 1.38)
+• Х:  11.8%  (Kмод 8.48)
+• П2: 15.2%  (Kмод 6.56)
+Тоталы голов:
+• ТМ 4.5: 22.9%  (Kмод 4.37)
+• ТБ 4.5: 76.7%  (Kмод 1.30)
+• ТМ 5.5: 37.6%  (Kмод 2.66)
+• ТБ 5.5: 62.0%  (Kмод 1.61)
+• ТМ 6.5: 53.4%  (Kмод 1.87)
+• ТБ 6.5: 46.2%  (Kмод 2.17)
+Индивидуальные тоталы:
+• СКА ИТБ 1.5: 92.5% (Kмод 1.08)
+• СКА ИТБ 2.5: 79.7% (Kмод 1.26)
+• Драконы ИТБ 1.5: 64.6% (Kмод 1.55)
+• Драконы ИТБ 2.5: 37.7% (Kмод 2.65)
+Фора +1.5:
+• СКА +1.5: 92.1% (Kмод 1.09)
+• Драконы +1.5: 42.0% (Kмод 2.38)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU3"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46008.51041666666</v>
+        <v>46009.70833333334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Амур – Адмирал</t>
+          <t>Автомобилист – Динамо Мн</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897873</v>
+        <v>897879</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897873.html</t>
+          <t>https://text.khl.ru/text/897879.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4.725</v>
       </c>
       <c r="I2" t="n">
-        <v>1.441115</v>
+        <v>3.748293</v>
       </c>
       <c r="J2" t="n">
-        <v>2.441115</v>
+        <v>8.473293</v>
       </c>
       <c r="K2" t="n">
-        <v>22.261267</v>
+        <v>31.836521</v>
       </c>
       <c r="L2" t="n">
-        <v>30.06417</v>
+        <v>36.171304</v>
       </c>
       <c r="M2" t="n">
-        <v>52.325437</v>
+        <v>68.007825</v>
       </c>
       <c r="N2" t="n">
-        <v>0.576651</v>
+        <v>0.344335</v>
       </c>
       <c r="O2" t="n">
-        <v>0.192334</v>
+        <v>0.154061</v>
       </c>
       <c r="P2" t="n">
-        <v>0.230974</v>
+        <v>0.49988</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.734151159019927</v>
+        <v>2.90414857624116</v>
       </c>
       <c r="R2" t="n">
-        <v>5.199288737300737</v>
+        <v>6.490935408701747</v>
       </c>
       <c r="S2" t="n">
-        <v>4.329491631092677</v>
+        <v>2.000480115227655</v>
       </c>
       <c r="T2" t="n">
-        <v>57.6651</v>
+        <v>34.4335</v>
       </c>
       <c r="U2" t="n">
-        <v>19.2334</v>
+        <v>15.4061</v>
       </c>
       <c r="V2" t="n">
-        <v>23.0974</v>
+        <v>49.988</v>
       </c>
       <c r="W2" t="n">
-        <v>0.655046</v>
+        <v>0.19942</v>
       </c>
       <c r="X2" t="n">
-        <v>0.344913</v>
+        <v>0.798856</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.899281847886278</v>
+        <v>1.251790059785493</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.805746</v>
+        <v>0.336972</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.194213</v>
+        <v>0.661304</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.148985907225572</v>
+        <v>1.512163845977039</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.90284</v>
+        <v>0.491182</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.097118</v>
+        <v>0.507093</v>
       </c>
       <c r="AE2" t="n">
-        <v>10.29675240429169</v>
+        <v>1.972024855401277</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.688484</v>
+        <v>0.815647</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.311516</v>
+        <v>0.184353</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.452466578744023</v>
+        <v>1.226020570173126</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.426613</v>
+        <v>0.599378</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.573387</v>
+        <v>0.400622</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.34404483688964</v>
+        <v>1.668396237432805</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.435394</v>
+        <v>0.876665</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.5646060000000001</v>
+        <v>0.123335</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.296770281629972</v>
+        <v>1.140686579252052</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.186102</v>
+        <v>0.701506</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.813898</v>
+        <v>0.298494</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.373397384230153</v>
+        <v>1.42550455733807</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.898269</v>
+        <v>0.651934</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.113252266303301</v>
+        <v>1.533897603131605</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.631757</v>
+        <v>0.785379</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.582887091080906</v>
+        <v>1.273270612022985</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,754 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46008.8125</v>
+        <v>46009.79166666666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ХК Сочи – Металлург Мг</t>
+          <t>Локомотив – ЦСКА</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897874</v>
+        <v>897877</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897874.html</t>
+          <t>https://text.khl.ru/text/897877.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.1875</v>
+        <v>2.852452</v>
       </c>
       <c r="I3" t="n">
-        <v>5.470588</v>
+        <v>2.846302</v>
       </c>
       <c r="J3" t="n">
-        <v>6.658088</v>
+        <v>5.698754</v>
       </c>
       <c r="K3" t="n">
-        <v>21.617444</v>
+        <v>27.320471</v>
       </c>
       <c r="L3" t="n">
-        <v>40.562341</v>
+        <v>27.63696</v>
       </c>
       <c r="M3" t="n">
-        <v>62.179785</v>
+        <v>54.957431</v>
       </c>
       <c r="N3" t="n">
-        <v>0.244096</v>
+        <v>0.34135</v>
       </c>
       <c r="O3" t="n">
-        <v>0.150405</v>
+        <v>0.184285</v>
       </c>
       <c r="P3" t="n">
-        <v>0.604264</v>
+        <v>0.474253</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.09674882013634</v>
+        <v>2.929544455837117</v>
       </c>
       <c r="R3" t="n">
-        <v>6.648715135800006</v>
+        <v>5.426377621618689</v>
       </c>
       <c r="S3" t="n">
-        <v>1.654905802761707</v>
+        <v>2.108579176093773</v>
       </c>
       <c r="T3" t="n">
-        <v>24.4096</v>
+        <v>34.135</v>
       </c>
       <c r="U3" t="n">
-        <v>15.0405</v>
+        <v>18.4285</v>
       </c>
       <c r="V3" t="n">
-        <v>60.4264</v>
+        <v>47.4253</v>
       </c>
       <c r="W3" t="n">
-        <v>0.288712</v>
+        <v>0.46876</v>
       </c>
       <c r="X3" t="n">
-        <v>0.710053</v>
+        <v>0.531128</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.408345574203616</v>
+        <v>1.882785317286982</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.450056</v>
+        <v>0.643777</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.548709</v>
+        <v>0.356111</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.822459627963092</v>
+        <v>2.808113200659345</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.610669</v>
+        <v>0.784996</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.388096</v>
+        <v>0.214892</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.576682058047493</v>
+        <v>4.653500362973029</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.692119</v>
+        <v>0.65304</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.307881</v>
+        <v>0.34696</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.44483824313449</v>
+        <v>1.531299767242436</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.430963</v>
+        <v>0.385717</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.569037</v>
+        <v>0.614283</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.320384812617324</v>
+        <v>2.592574348550881</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.871352</v>
+        <v>0.7345120000000001</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.128648</v>
+        <v>0.265488</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.147641825576805</v>
+        <v>1.361448145163047</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.691949</v>
+        <v>0.484041</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.308051</v>
+        <v>0.5159589999999999</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.445193215106894</v>
+        <v>2.065940695106406</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.5613629999999999</v>
+        <v>0.7028489999999999</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.781378537595103</v>
+        <v>1.422780711077344</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.866957</v>
+        <v>0.810061</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.153459744831635</v>
+        <v>1.23447493460369</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>46009.79166666666</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Нефтехимик – Авангард</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>897876</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897876.html</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3.591304</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.075</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.666304</v>
+      </c>
+      <c r="K4" t="n">
+        <v>34.740952</v>
+      </c>
+      <c r="L4" t="n">
+        <v>39.952501</v>
+      </c>
+      <c r="M4" t="n">
+        <v>74.69345300000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.297553</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.13074</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.5596640000000001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.360745816711645</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7.64876854826373</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.786786357528803</v>
+      </c>
+      <c r="T4" t="n">
+        <v>29.7553</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13.074</v>
+      </c>
+      <c r="V4" t="n">
+        <v>55.96640000000001</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.072005</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.915953</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.091759074974371</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.145574</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.842384</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.187107067560637</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.25046</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.737498</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.355935880504083</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.889554</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.110446</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.124158848141878</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.725305</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.274695</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.378730327241643</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.951858</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.048142</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.050576871760284</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.856479</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.143521</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.167570950367727</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.566774</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.764371689597617</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.799243</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.251183932796408</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>46009.79166666666</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Северсталь – Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>897878</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897878.html</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.666667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.285714</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.952381</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24.837331</v>
+      </c>
+      <c r="L5" t="n">
+        <v>22.434051</v>
+      </c>
+      <c r="M5" t="n">
+        <v>47.271382</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.679401</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.162469</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.157982</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.471884792633511</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.155020342342231</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.32983504449874</v>
+      </c>
+      <c r="T5" t="n">
+        <v>67.9401</v>
+      </c>
+      <c r="U5" t="n">
+        <v>16.2469</v>
+      </c>
+      <c r="V5" t="n">
+        <v>15.7982</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.613955</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.385897</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.591365053369163</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.773112</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.22674</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4.410337831877922</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.881237</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.118615</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.430636934620411</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.763185</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.236815</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.310298289405583</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.522563</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.477437</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.913644861959228</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.376547</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.623453</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.655710973663314</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.145086</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.854914</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>6.892463780102836</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.937513</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.066651875760656</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.522518</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.913809667800918</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>46009.8125</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Динамо М – Барыс</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>897875</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897875.html</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2.307876</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.627876</v>
+      </c>
+      <c r="K6" t="n">
+        <v>28.935124</v>
+      </c>
+      <c r="L6" t="n">
+        <v>24.347309</v>
+      </c>
+      <c r="M6" t="n">
+        <v>53.282433</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.761412</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.125491</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.112298</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.313349408730096</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.968698950522349</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8.904878092218919</v>
+      </c>
+      <c r="T6" t="n">
+        <v>76.1412</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12.5491</v>
+      </c>
+      <c r="V6" t="n">
+        <v>11.2298</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.486835</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.512366</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.951729818137816</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.661098</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.338103</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2.957678577238297</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.798829</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.200372</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4.990717265885453</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.852468</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.147532</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.173064560781167</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.659089</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.340911</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.517245774091208</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.390168</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.609832</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.562998503208874</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.154136</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.8458639999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>6.487777028079099</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.955986</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.046040423186114</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.411692</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2.429000320628042</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>46009.8125</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>СКА – Ак Барс</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>897893</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897893.html</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3.952203</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.02599</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.978193</v>
+      </c>
+      <c r="K7" t="n">
+        <v>32.220977</v>
+      </c>
+      <c r="L7" t="n">
+        <v>30.349418</v>
+      </c>
+      <c r="M7" t="n">
+        <v>62.570395</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5289700000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.183607</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.287318</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.890466378055466</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.44641544167706</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.48046415469967</v>
+      </c>
+      <c r="T7" t="n">
+        <v>52.89700000000001</v>
+      </c>
+      <c r="U7" t="n">
+        <v>18.3607</v>
+      </c>
+      <c r="V7" t="n">
+        <v>28.7318</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.51331</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.486584</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.055143613435707</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.6858300000000001</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.314065</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>3.184054256284527</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.818083</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.181812</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5.500187006358217</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.739994</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.260006</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.351362308343041</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.491234</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.5087660000000001</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.035689712031334</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.583314</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.416686</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.714342532495363</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.312748</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.687252</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>3.197462493764948</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.852143</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.173511957500091</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.658729</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.51807495950535</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +1592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,77 +1619,229 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46008.51041666666</v>
+        <v>46009.70833333334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Амур – Адмирал</t>
+          <t>Автомобилист – Динамо Мн</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 17.12.2025
-Амур – Адмирал
+          <t>КХЛ • Регулярный чемпионат • 18.12.2025
+Автомобилист – Динамо Мн
 Ожидания модели (60’):
-• Голы: λ_total ≈ 3.87 (2.39 : 1.48)
-• Броски: SOG λ ≈ 52 (22 : 30)
+• Голы: λ_total ≈ 6.73 (3.10 : 3.62)
+• Броски: SOG λ ≈ 68 (32 : 36)
 Исход (60’), честные кф:
-• П1: 57.7%  (Kмод 1.73)
-• Х:  19.2%  (Kмод 5.20)
-• П2: 23.1%  (Kмод 4.33)
+• П1: 34.4%  (Kмод 2.90)
+• Х:  15.4%  (Kмод 6.49)
+• П2: 50.0%  (Kмод 2.00)
 Тоталы голов:
-• ТМ 4.5: 65.5%  (Kмод 1.53)
-• ТБ 4.5: 34.5%  (Kмод 2.90)
-• ТМ 5.5: 80.6%  (Kмод 1.24)
-• ТБ 5.5: 19.4%  (Kмод 5.15)
-• ТМ 6.5: 90.3%  (Kмод 1.11)
-• ТБ 6.5: 9.7%  (Kмод 10.30)
+• ТМ 4.5: 19.9%  (Kмод 5.01)
+• ТБ 4.5: 79.9%  (Kмод 1.25)
+• ТМ 5.5: 33.7%  (Kмод 2.97)
+• ТБ 5.5: 66.1%  (Kмод 1.51)
+• ТМ 6.5: 49.1%  (Kмод 2.04)
+• ТБ 6.5: 50.7%  (Kмод 1.97)
 Индивидуальные тоталы:
-• Амур ИТБ 1.5: 68.8% (Kмод 1.45)
-• Амур ИТБ 2.5: 42.7% (Kмод 2.34)
-• Адмирал ИТБ 1.5: 43.5% (Kмод 2.30)
-• Адмирал ИТБ 2.5: 18.6% (Kмод 5.37)
+• Автомобилист ИТБ 1.5: 81.6% (Kмод 1.23)
+• Автомобилист ИТБ 2.5: 59.9% (Kмод 1.67)
+• Динамо Мн ИТБ 1.5: 87.7% (Kмод 1.14)
+• Динамо Мн ИТБ 2.5: 70.2% (Kмод 1.43)
 Фора +1.5:
-• Амур +1.5: 89.8% (Kмод 1.11)
-• Адмирал +1.5: 63.2% (Kмод 1.58)</t>
+• Автомобилист +1.5: 65.2% (Kмод 1.53)
+• Динамо Мн +1.5: 78.5% (Kмод 1.27)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46008.8125</v>
+        <v>46009.79166666666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ХК Сочи – Металлург Мг</t>
+          <t>Локомотив – ЦСКА</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 17.12.2025
-ХК Сочи – Металлург Мг
+          <t>КХЛ • Регулярный чемпионат • 18.12.2025
+Локомотив – ЦСКА
 Ожидания модели (60’):
-• Голы: λ_total ≈ 5.97 (2.40 : 3.57)
-• Броски: SOG λ ≈ 62 (22 : 41)
+• Голы: λ_total ≈ 4.84 (2.23 : 2.61)
+• Броски: SOG λ ≈ 55 (27 : 28)
 Исход (60’), честные кф:
-• П1: 24.4%  (Kмод 4.10)
-• Х:  15.0%  (Kмод 6.65)
-• П2: 60.4%  (Kмод 1.65)
+• П1: 34.1%  (Kмод 2.93)
+• Х:  18.4%  (Kмод 5.43)
+• П2: 47.4%  (Kмод 2.11)
 Тоталы голов:
-• ТМ 4.5: 28.9%  (Kмод 3.46)
-• ТБ 4.5: 71.0%  (Kмод 1.41)
-• ТМ 5.5: 45.0%  (Kмод 2.22)
-• ТБ 5.5: 54.9%  (Kмод 1.82)
-• ТМ 6.5: 61.1%  (Kмод 1.64)
-• ТБ 6.5: 38.8%  (Kмод 2.58)
+• ТМ 4.5: 46.9%  (Kмод 2.13)
+• ТБ 4.5: 53.1%  (Kмод 1.88)
+• ТМ 5.5: 64.4%  (Kмод 1.55)
+• ТБ 5.5: 35.6%  (Kмод 2.81)
+• ТМ 6.5: 78.5%  (Kмод 1.27)
+• ТБ 6.5: 21.5%  (Kмод 4.65)
 Индивидуальные тоталы:
-• ХК Сочи ИТБ 1.5: 69.2% (Kмод 1.44)
-• ХК Сочи ИТБ 2.5: 43.1% (Kмод 2.32)
-• Металлург Мг ИТБ 1.5: 87.1% (Kмод 1.15)
-• Металлург Мг ИТБ 2.5: 69.2% (Kмод 1.45)
+• Локомотив ИТБ 1.5: 65.3% (Kмод 1.53)
+• Локомотив ИТБ 2.5: 38.6% (Kмод 2.59)
+• ЦСКА ИТБ 1.5: 73.5% (Kмод 1.36)
+• ЦСКА ИТБ 2.5: 48.4% (Kмод 2.07)
 Фора +1.5:
-• ХК Сочи +1.5: 56.1% (Kмод 1.78)
-• Металлург Мг +1.5: 86.7% (Kмод 1.15)</t>
+• Локомотив +1.5: 70.3% (Kмод 1.42)
+• ЦСКА +1.5: 81.0% (Kмод 1.23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46009.79166666666</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Нефтехимик – Авангард</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 18.12.2025
+Нефтехимик – Авангард
+Ожидания модели (60’):
+• Голы: λ_total ≈ 8.55 (3.76 : 4.79)
+• Броски: SOG λ ≈ 75 (35 : 40)
+Исход (60’), честные кф:
+• П1: 29.8%  (Kмод 3.36)
+• Х:  13.1%  (Kмод 7.65)
+• П2: 56.0%  (Kмод 1.79)
+Тоталы голов:
+• ТМ 4.5: 7.2%  (Kмод 13.89)
+• ТБ 4.5: 91.6%  (Kмод 1.09)
+• ТМ 5.5: 14.6%  (Kмод 6.87)
+• ТБ 5.5: 84.2%  (Kмод 1.19)
+• ТМ 6.5: 25.0%  (Kмод 3.99)
+• ТБ 6.5: 73.7%  (Kмод 1.36)
+Индивидуальные тоталы:
+• Нефтехимик ИТБ 1.5: 89.0% (Kмод 1.12)
+• Нефтехимик ИТБ 2.5: 72.5% (Kмод 1.38)
+• Авангард ИТБ 1.5: 95.2% (Kмод 1.05)
+• Авангард ИТБ 2.5: 85.6% (Kмод 1.17)
+Фора +1.5:
+• Нефтехимик +1.5: 56.7% (Kмод 1.76)
+• Авангард +1.5: 79.9% (Kмод 1.25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46009.79166666666</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Северсталь – Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 18.12.2025
+Северсталь – Салават Юлаев
+Ожидания модели (60’):
+• Голы: λ_total ≈ 4.08 (2.77 : 1.31)
+• Броски: SOG λ ≈ 47 (25 : 22)
+Исход (60’), честные кф:
+• П1: 67.9%  (Kмод 1.47)
+• Х:  16.2%  (Kмод 6.16)
+• П2: 15.8%  (Kмод 6.33)
+Тоталы голов:
+• ТМ 4.5: 61.4%  (Kмод 1.63)
+• ТБ 4.5: 38.6%  (Kмод 2.59)
+• ТМ 5.5: 77.3%  (Kмод 1.29)
+• ТБ 5.5: 22.7%  (Kмод 4.41)
+• ТМ 6.5: 88.1%  (Kмод 1.13)
+• ТБ 6.5: 11.9%  (Kмод 8.43)
+Индивидуальные тоталы:
+• Северсталь ИТБ 1.5: 76.3% (Kмод 1.31)
+• Северсталь ИТБ 2.5: 52.3% (Kмод 1.91)
+• Салават Юлаев ИТБ 1.5: 37.7% (Kмод 2.66)
+• Салават Юлаев ИТБ 2.5: 14.5% (Kмод 6.89)
+Фора +1.5:
+• Северсталь +1.5: 93.8% (Kмод 1.07)
+• Салават Юлаев +1.5: 52.3% (Kмод 1.91)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>46009.8125</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Динамо М – Барыс</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 18.12.2025
+Динамо М – Барыс
+Ожидания модели (60’):
+• Голы: λ_total ≈ 4.74 (3.39 : 1.35)
+• Броски: SOG λ ≈ 53 (29 : 24)
+Исход (60’), честные кф:
+• П1: 76.1%  (Kмод 1.31)
+• Х:  12.5%  (Kмод 7.97)
+• П2: 11.2%  (Kмод 8.90)
+Тоталы голов:
+• ТМ 4.5: 48.7%  (Kмод 2.05)
+• ТБ 4.5: 51.2%  (Kмод 1.95)
+• ТМ 5.5: 66.1%  (Kмод 1.51)
+• ТБ 5.5: 33.8%  (Kмод 2.96)
+• ТМ 6.5: 79.9%  (Kмод 1.25)
+• ТБ 6.5: 20.0%  (Kмод 4.99)
+Индивидуальные тоталы:
+• Динамо М ИТБ 1.5: 85.2% (Kмод 1.17)
+• Динамо М ИТБ 2.5: 65.9% (Kмод 1.52)
+• Барыс ИТБ 1.5: 39.0% (Kмод 2.56)
+• Барыс ИТБ 2.5: 15.4% (Kмод 6.49)
+Фора +1.5:
+• Динамо М +1.5: 95.6% (Kмод 1.05)
+• Барыс +1.5: 41.2% (Kмод 2.43)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>46009.8125</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>СКА – Ак Барс</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 18.12.2025
+СКА – Ак Барс
+Ожидания модели (60’):
+• Голы: λ_total ≈ 4.60 (2.64 : 1.96)
+• Броски: SOG λ ≈ 63 (32 : 30)
+Исход (60’), честные кф:
+• П1: 52.9%  (Kмод 1.89)
+• Х:  18.4%  (Kмод 5.45)
+• П2: 28.7%  (Kмод 3.48)
+Тоталы голов:
+• ТМ 4.5: 51.3%  (Kмод 1.95)
+• ТБ 4.5: 48.7%  (Kмод 2.06)
+• ТМ 5.5: 68.6%  (Kмод 1.46)
+• ТБ 5.5: 31.4%  (Kмод 3.18)
+• ТМ 6.5: 81.8%  (Kмод 1.22)
+• ТБ 6.5: 18.2%  (Kмод 5.50)
+Индивидуальные тоталы:
+• СКА ИТБ 1.5: 74.0% (Kмод 1.35)
+• СКА ИТБ 2.5: 49.1% (Kмод 2.04)
+• Ак Барс ИТБ 1.5: 58.3% (Kмод 1.71)
+• Ак Барс ИТБ 2.5: 31.3% (Kмод 3.20)
+Фора +1.5:
+• СКА +1.5: 85.2% (Kмод 1.17)
+• Ак Барс +1.5: 65.9% (Kмод 1.52)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU7"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,150 +680,150 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46009.70833333334</v>
+        <v>46010.64583333334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Автомобилист – Динамо Мн</t>
+          <t>Сибирь – Адмирал</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897879</v>
+        <v>897881</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897879.html</t>
+          <t>https://text.khl.ru/text/897881.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.725</v>
+        <v>1.508387</v>
       </c>
       <c r="I2" t="n">
-        <v>3.748293</v>
+        <v>1.2</v>
       </c>
       <c r="J2" t="n">
-        <v>8.473293</v>
+        <v>2.708387</v>
       </c>
       <c r="K2" t="n">
-        <v>31.836521</v>
+        <v>23.079923</v>
       </c>
       <c r="L2" t="n">
-        <v>36.171304</v>
+        <v>27.688713</v>
       </c>
       <c r="M2" t="n">
-        <v>68.007825</v>
+        <v>50.768635</v>
       </c>
       <c r="N2" t="n">
-        <v>0.344335</v>
+        <v>0.474744</v>
       </c>
       <c r="O2" t="n">
-        <v>0.154061</v>
+        <v>0.19579</v>
       </c>
       <c r="P2" t="n">
-        <v>0.49988</v>
+        <v>0.329424</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.90414857624116</v>
+        <v>2.106398395766982</v>
       </c>
       <c r="R2" t="n">
-        <v>6.490935408701747</v>
+        <v>5.107513151846367</v>
       </c>
       <c r="S2" t="n">
-        <v>2.000480115227655</v>
+        <v>3.035601534800136</v>
       </c>
       <c r="T2" t="n">
-        <v>34.4335</v>
+        <v>47.4744</v>
       </c>
       <c r="U2" t="n">
-        <v>15.4061</v>
+        <v>19.579</v>
       </c>
       <c r="V2" t="n">
-        <v>49.988</v>
+        <v>32.9424</v>
       </c>
       <c r="W2" t="n">
-        <v>0.19942</v>
+        <v>0.569254</v>
       </c>
       <c r="X2" t="n">
-        <v>0.798856</v>
+        <v>0.430704</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.251790059785493</v>
+        <v>2.321780155280657</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.336972</v>
+        <v>0.735643</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.661304</v>
+        <v>0.264314</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.512163845977039</v>
+        <v>3.783378859992282</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.491182</v>
+        <v>0.855059</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.507093</v>
+        <v>0.144899</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.972024855401277</v>
+        <v>6.901358877562992</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.815647</v>
+        <v>0.680276</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.184353</v>
+        <v>0.319724</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.226020570173126</v>
+        <v>1.469991591648096</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.599378</v>
+        <v>0.416896</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.400622</v>
+        <v>0.583104</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.668396237432805</v>
+        <v>2.398679766656433</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.876665</v>
+        <v>0.582282</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.123335</v>
+        <v>0.417718</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.140686579252052</v>
+        <v>1.717380925393538</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.701506</v>
+        <v>0.311737</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.298494</v>
+        <v>0.688263</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.42550455733807</v>
+        <v>3.20783224320501</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.651934</v>
+        <v>0.826691</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.533897603131605</v>
+        <v>1.209641812962764</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.785379</v>
+        <v>0.712628</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.273270612022985</v>
+        <v>1.403256678098531</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46009.79166666666</v>
+        <v>46010.70833333334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Локомотив – ЦСКА</t>
+          <t>Трактор – Металлург Мг</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897877</v>
+        <v>897883</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897877.html</t>
+          <t>https://text.khl.ru/text/897883.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.852452</v>
+        <v>5.211111</v>
       </c>
       <c r="I3" t="n">
-        <v>2.846302</v>
+        <v>5.288889</v>
       </c>
       <c r="J3" t="n">
-        <v>5.698754</v>
+        <v>10.5</v>
       </c>
       <c r="K3" t="n">
-        <v>27.320471</v>
+        <v>35.630589</v>
       </c>
       <c r="L3" t="n">
-        <v>27.63696</v>
+        <v>36.669117</v>
       </c>
       <c r="M3" t="n">
-        <v>54.957431</v>
+        <v>72.299707</v>
       </c>
       <c r="N3" t="n">
-        <v>0.34135</v>
+        <v>0.311429</v>
       </c>
       <c r="O3" t="n">
-        <v>0.184285</v>
+        <v>0.131284</v>
       </c>
       <c r="P3" t="n">
-        <v>0.474253</v>
+        <v>0.544567</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.929544455837117</v>
+        <v>3.211004755498043</v>
       </c>
       <c r="R3" t="n">
-        <v>5.426377621618689</v>
+        <v>7.617074434051369</v>
       </c>
       <c r="S3" t="n">
-        <v>2.108579176093773</v>
+        <v>1.836321334197629</v>
       </c>
       <c r="T3" t="n">
-        <v>34.135</v>
+        <v>31.1429</v>
       </c>
       <c r="U3" t="n">
-        <v>18.4285</v>
+        <v>13.1284</v>
       </c>
       <c r="V3" t="n">
-        <v>47.4253</v>
+        <v>54.4567</v>
       </c>
       <c r="W3" t="n">
-        <v>0.46876</v>
+        <v>0.066438</v>
       </c>
       <c r="X3" t="n">
-        <v>0.531128</v>
+        <v>0.920842</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.882785317286982</v>
+        <v>1.085962629853982</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.643777</v>
+        <v>0.135977</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.356111</v>
+        <v>0.851303</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.808113200659345</v>
+        <v>1.174669888394614</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.784996</v>
+        <v>0.236671</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.214892</v>
+        <v>0.750609</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.653500362973029</v>
+        <v>1.33225154507873</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.65304</v>
+        <v>0.899639</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.34696</v>
+        <v>0.100361</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.531299767242436</v>
+        <v>1.111556968961995</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.385717</v>
+        <v>0.744587</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.614283</v>
+        <v>0.255413</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.592574348550881</v>
+        <v>1.343026402556048</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.7345120000000001</v>
+        <v>0.952387</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.265488</v>
+        <v>0.047613</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.361448145163047</v>
+        <v>1.049993332542338</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.484041</v>
+        <v>0.857748</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.5159589999999999</v>
+        <v>0.142252</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.065940695106406</v>
+        <v>1.165843581098411</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.7028489999999999</v>
+        <v>0.579935</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.422780711077344</v>
+        <v>1.724331175045479</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.810061</v>
+        <v>0.78685</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.23447493460369</v>
+        <v>1.270890258626167</v>
       </c>
     </row>
     <row r="4">
@@ -982,603 +982,150 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46009.79166666666</v>
+        <v>46010.8125</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Нефтехимик – Авангард</t>
+          <t>Драконы – Лада</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>897876</v>
+        <v>897882</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897876.html</t>
+          <t>https://text.khl.ru/text/897882.html</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3.591304</v>
+        <v>2.820256</v>
       </c>
       <c r="I4" t="n">
-        <v>5.075</v>
+        <v>1.389474</v>
       </c>
       <c r="J4" t="n">
-        <v>8.666304</v>
+        <v>4.20973</v>
       </c>
       <c r="K4" t="n">
-        <v>34.740952</v>
+        <v>31.730456</v>
       </c>
       <c r="L4" t="n">
-        <v>39.952501</v>
+        <v>25.059845</v>
       </c>
       <c r="M4" t="n">
-        <v>74.69345300000001</v>
+        <v>56.790301</v>
       </c>
       <c r="N4" t="n">
-        <v>0.297553</v>
+        <v>0.533076</v>
       </c>
       <c r="O4" t="n">
-        <v>0.13074</v>
+        <v>0.159959</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5596640000000001</v>
+        <v>0.306113</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.360745816711645</v>
+        <v>1.875905124222437</v>
       </c>
       <c r="R4" t="n">
-        <v>7.64876854826373</v>
+        <v>6.251601973005583</v>
       </c>
       <c r="S4" t="n">
-        <v>1.786786357528803</v>
+        <v>3.266767500890194</v>
       </c>
       <c r="T4" t="n">
-        <v>29.7553</v>
+        <v>53.3076</v>
       </c>
       <c r="U4" t="n">
-        <v>13.074</v>
+        <v>15.9959</v>
       </c>
       <c r="V4" t="n">
-        <v>55.96640000000001</v>
+        <v>30.6113</v>
       </c>
       <c r="W4" t="n">
-        <v>0.072005</v>
+        <v>0.2833</v>
       </c>
       <c r="X4" t="n">
-        <v>0.915953</v>
+        <v>0.715848</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.091759074974371</v>
+        <v>1.396944602764833</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.145574</v>
+        <v>0.443569</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.842384</v>
+        <v>0.555578</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.187107067560637</v>
+        <v>1.799927282937769</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.25046</v>
+        <v>0.60419</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.737498</v>
+        <v>0.394957</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.355935880504083</v>
+        <v>2.531921196484681</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.889554</v>
+        <v>0.849534</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.110446</v>
+        <v>0.150466</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.124158848141878</v>
+        <v>1.177115924730499</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.725305</v>
+        <v>0.654128</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.274695</v>
+        <v>0.345872</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.378730327241643</v>
+        <v>1.528752782330064</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.951858</v>
+        <v>0.741136</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.048142</v>
+        <v>0.258864</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.050576871760284</v>
+        <v>1.349280024179098</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.856479</v>
+        <v>0.492743</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.143521</v>
+        <v>0.507257</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.167570950367727</v>
+        <v>2.029455517379243</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.566774</v>
+        <v>0.822283</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.764371689597617</v>
+        <v>1.216126321473264</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.799243</v>
+        <v>0.630687</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.251183932796408</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>46009.79166666666</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Северсталь</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Салават Юлаев</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Северсталь – Салават Юлаев</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>897878</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897878.html</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1.666667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.285714</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.952381</v>
-      </c>
-      <c r="K5" t="n">
-        <v>24.837331</v>
-      </c>
-      <c r="L5" t="n">
-        <v>22.434051</v>
-      </c>
-      <c r="M5" t="n">
-        <v>47.271382</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.679401</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.162469</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.157982</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.471884792633511</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6.155020342342231</v>
-      </c>
-      <c r="S5" t="n">
-        <v>6.32983504449874</v>
-      </c>
-      <c r="T5" t="n">
-        <v>67.9401</v>
-      </c>
-      <c r="U5" t="n">
-        <v>16.2469</v>
-      </c>
-      <c r="V5" t="n">
-        <v>15.7982</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.613955</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.385897</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2.591365053369163</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.773112</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.22674</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>4.410337831877922</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.881237</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.118615</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>8.430636934620411</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.763185</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.236815</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.310298289405583</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.522563</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.477437</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1.913644861959228</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.376547</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.623453</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.655710973663314</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.145086</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.854914</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>6.892463780102836</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.937513</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1.066651875760656</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0.522518</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>1.913809667800918</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>46009.8125</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Динамо М</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Барыс</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Динамо М – Барыс</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>897875</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897875.html</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2.307876</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.627876</v>
-      </c>
-      <c r="K6" t="n">
-        <v>28.935124</v>
-      </c>
-      <c r="L6" t="n">
-        <v>24.347309</v>
-      </c>
-      <c r="M6" t="n">
-        <v>53.282433</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.761412</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.125491</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.112298</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.313349408730096</v>
-      </c>
-      <c r="R6" t="n">
-        <v>7.968698950522349</v>
-      </c>
-      <c r="S6" t="n">
-        <v>8.904878092218919</v>
-      </c>
-      <c r="T6" t="n">
-        <v>76.1412</v>
-      </c>
-      <c r="U6" t="n">
-        <v>12.5491</v>
-      </c>
-      <c r="V6" t="n">
-        <v>11.2298</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.486835</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.512366</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.951729818137816</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.661098</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.338103</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2.957678577238297</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.798829</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.200372</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>4.990717265885453</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.852468</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.147532</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.173064560781167</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.659089</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.340911</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1.517245774091208</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.390168</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.609832</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2.562998503208874</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.154136</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.8458639999999999</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>6.487777028079099</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.955986</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.046040423186114</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.411692</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>2.429000320628042</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>46009.8125</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>СКА</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ак Барс</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>СКА – Ак Барс</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>897893</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897893.html</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3.952203</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.02599</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.978193</v>
-      </c>
-      <c r="K7" t="n">
-        <v>32.220977</v>
-      </c>
-      <c r="L7" t="n">
-        <v>30.349418</v>
-      </c>
-      <c r="M7" t="n">
-        <v>62.570395</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.5289700000000001</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.183607</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.287318</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.890466378055466</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5.44641544167706</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.48046415469967</v>
-      </c>
-      <c r="T7" t="n">
-        <v>52.89700000000001</v>
-      </c>
-      <c r="U7" t="n">
-        <v>18.3607</v>
-      </c>
-      <c r="V7" t="n">
-        <v>28.7318</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.51331</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.486584</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2.055143613435707</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.6858300000000001</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.314065</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>3.184054256284527</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.818083</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.181812</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>5.500187006358217</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.739994</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.260006</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.351362308343041</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.491234</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.5087660000000001</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>2.035689712031334</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.583314</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.416686</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1.714342532495363</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.312748</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.687252</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>3.197462493764948</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0.852143</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>1.173511957500091</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0.658729</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>1.51807495950535</v>
+        <v>1.585572558178621</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1619,229 +1166,115 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46009.70833333334</v>
+        <v>46010.64583333334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Автомобилист – Динамо Мн</t>
+          <t>Сибирь – Адмирал</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 18.12.2025
-Автомобилист – Динамо Мн
+          <t>КХЛ • Регулярный чемпионат • 19.12.2025
+Сибирь – Адмирал
 Ожидания модели (60’):
-• Голы: λ_total ≈ 6.73 (3.10 : 3.62)
-• Броски: SOG λ ≈ 68 (32 : 36)
+• Голы: λ_total ≈ 4.31 (2.35 : 1.96)
+• Броски: SOG λ ≈ 51 (23 : 28)
 Исход (60’), честные кф:
-• П1: 34.4%  (Kмод 2.90)
-• Х:  15.4%  (Kмод 6.49)
-• П2: 50.0%  (Kмод 2.00)
+• П1: 47.5%  (Kмод 2.11)
+• Х:  19.6%  (Kмод 5.11)
+• П2: 32.9%  (Kмод 3.04)
 Тоталы голов:
-• ТМ 4.5: 19.9%  (Kмод 5.01)
-• ТБ 4.5: 79.9%  (Kмод 1.25)
-• ТМ 5.5: 33.7%  (Kмод 2.97)
-• ТБ 5.5: 66.1%  (Kмод 1.51)
-• ТМ 6.5: 49.1%  (Kмод 2.04)
-• ТБ 6.5: 50.7%  (Kмод 1.97)
+• ТМ 4.5: 56.9%  (Kмод 1.76)
+• ТБ 4.5: 43.1%  (Kмод 2.32)
+• ТМ 5.5: 73.6%  (Kмод 1.36)
+• ТБ 5.5: 26.4%  (Kмод 3.78)
+• ТМ 6.5: 85.5%  (Kмод 1.17)
+• ТБ 6.5: 14.5%  (Kмод 6.90)
 Индивидуальные тоталы:
-• Автомобилист ИТБ 1.5: 81.6% (Kмод 1.23)
-• Автомобилист ИТБ 2.5: 59.9% (Kмод 1.67)
-• Динамо Мн ИТБ 1.5: 87.7% (Kмод 1.14)
-• Динамо Мн ИТБ 2.5: 70.2% (Kмод 1.43)
+• Сибирь ИТБ 1.5: 68.0% (Kмод 1.47)
+• Сибирь ИТБ 2.5: 41.7% (Kмод 2.40)
+• Адмирал ИТБ 1.5: 58.2% (Kмод 1.72)
+• Адмирал ИТБ 2.5: 31.2% (Kмод 3.21)
 Фора +1.5:
-• Автомобилист +1.5: 65.2% (Kмод 1.53)
-• Динамо Мн +1.5: 78.5% (Kмод 1.27)</t>
+• Сибирь +1.5: 82.7% (Kмод 1.21)
+• Адмирал +1.5: 71.3% (Kмод 1.40)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46009.79166666666</v>
+        <v>46010.70833333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Локомотив – ЦСКА</t>
+          <t>Трактор – Металлург Мг</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 18.12.2025
-Локомотив – ЦСКА
+          <t>КХЛ • Регулярный чемпионат • 19.12.2025
+Трактор – Металлург Мг
 Ожидания модели (60’):
-• Голы: λ_total ≈ 4.84 (2.23 : 2.61)
-• Броски: SOG λ ≈ 55 (27 : 28)
+• Голы: λ_total ≈ 8.69 (3.89 : 4.80)
+• Броски: SOG λ ≈ 72 (36 : 37)
 Исход (60’), честные кф:
-• П1: 34.1%  (Kмод 2.93)
-• Х:  18.4%  (Kмод 5.43)
-• П2: 47.4%  (Kмод 2.11)
+• П1: 31.1%  (Kмод 3.21)
+• Х:  13.1%  (Kмод 7.62)
+• П2: 54.5%  (Kмод 1.84)
 Тоталы голов:
-• ТМ 4.5: 46.9%  (Kмод 2.13)
-• ТБ 4.5: 53.1%  (Kмод 1.88)
-• ТМ 5.5: 64.4%  (Kмод 1.55)
-• ТБ 5.5: 35.6%  (Kмод 2.81)
-• ТМ 6.5: 78.5%  (Kмод 1.27)
-• ТБ 6.5: 21.5%  (Kмод 4.65)
+• ТМ 4.5: 6.6%  (Kмод 15.05)
+• ТБ 4.5: 92.1%  (Kмод 1.09)
+• ТМ 5.5: 13.6%  (Kмод 7.35)
+• ТБ 5.5: 85.1%  (Kмод 1.17)
+• ТМ 6.5: 23.7%  (Kмод 4.23)
+• ТБ 6.5: 75.1%  (Kмод 1.33)
 Индивидуальные тоталы:
-• Локомотив ИТБ 1.5: 65.3% (Kмод 1.53)
-• Локомотив ИТБ 2.5: 38.6% (Kмод 2.59)
-• ЦСКА ИТБ 1.5: 73.5% (Kмод 1.36)
-• ЦСКА ИТБ 2.5: 48.4% (Kмод 2.07)
+• Трактор ИТБ 1.5: 90.0% (Kмод 1.11)
+• Трактор ИТБ 2.5: 74.5% (Kмод 1.34)
+• Металлург Мг ИТБ 1.5: 95.2% (Kмод 1.05)
+• Металлург Мг ИТБ 2.5: 85.8% (Kмод 1.17)
 Фора +1.5:
-• Локомотив +1.5: 70.3% (Kмод 1.42)
-• ЦСКА +1.5: 81.0% (Kмод 1.23)</t>
+• Трактор +1.5: 58.0% (Kмод 1.72)
+• Металлург Мг +1.5: 78.7% (Kмод 1.27)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46009.79166666666</v>
+        <v>46010.8125</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Нефтехимик – Авангард</t>
+          <t>Драконы – Лада</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 18.12.2025
-Нефтехимик – Авангард
+          <t>КХЛ • Регулярный чемпионат • 19.12.2025
+Драконы – Лада
 Ожидания модели (60’):
-• Голы: λ_total ≈ 8.55 (3.76 : 4.79)
-• Броски: SOG λ ≈ 75 (35 : 40)
+• Голы: λ_total ≈ 6.01 (3.37 : 2.64)
+• Броски: SOG λ ≈ 57 (32 : 25)
 Исход (60’), честные кф:
-• П1: 29.8%  (Kмод 3.36)
-• Х:  13.1%  (Kмод 7.65)
-• П2: 56.0%  (Kмод 1.79)
+• П1: 53.3%  (Kмод 1.88)
+• Х:  16.0%  (Kмод 6.25)
+• П2: 30.6%  (Kмод 3.27)
 Тоталы голов:
-• ТМ 4.5: 7.2%  (Kмод 13.89)
-• ТБ 4.5: 91.6%  (Kмод 1.09)
-• ТМ 5.5: 14.6%  (Kмод 6.87)
-• ТБ 5.5: 84.2%  (Kмод 1.19)
-• ТМ 6.5: 25.0%  (Kмод 3.99)
-• ТБ 6.5: 73.7%  (Kмод 1.36)
+• ТМ 4.5: 28.3%  (Kмод 3.53)
+• ТБ 4.5: 71.6%  (Kмод 1.40)
+• ТМ 5.5: 44.4%  (Kмод 2.25)
+• ТБ 5.5: 55.6%  (Kмод 1.80)
+• ТМ 6.5: 60.4%  (Kмод 1.66)
+• ТБ 6.5: 39.5%  (Kмод 2.53)
 Индивидуальные тоталы:
-• Нефтехимик ИТБ 1.5: 89.0% (Kмод 1.12)
-• Нефтехимик ИТБ 2.5: 72.5% (Kмод 1.38)
-• Авангард ИТБ 1.5: 95.2% (Kмод 1.05)
-• Авангард ИТБ 2.5: 85.6% (Kмод 1.17)
+• Драконы ИТБ 1.5: 85.0% (Kмод 1.18)
+• Драконы ИТБ 2.5: 65.4% (Kмод 1.53)
+• Лада ИТБ 1.5: 74.1% (Kмод 1.35)
+• Лада ИТБ 2.5: 49.3% (Kмод 2.03)
 Фора +1.5:
-• Нефтехимик +1.5: 56.7% (Kмод 1.76)
-• Авангард +1.5: 79.9% (Kмод 1.25)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>46009.79166666666</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Северсталь – Салават Юлаев</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>КХЛ • Регулярный чемпионат • 18.12.2025
-Северсталь – Салават Юлаев
-Ожидания модели (60’):
-• Голы: λ_total ≈ 4.08 (2.77 : 1.31)
-• Броски: SOG λ ≈ 47 (25 : 22)
-Исход (60’), честные кф:
-• П1: 67.9%  (Kмод 1.47)
-• Х:  16.2%  (Kмод 6.16)
-• П2: 15.8%  (Kмод 6.33)
-Тоталы голов:
-• ТМ 4.5: 61.4%  (Kмод 1.63)
-• ТБ 4.5: 38.6%  (Kмод 2.59)
-• ТМ 5.5: 77.3%  (Kмод 1.29)
-• ТБ 5.5: 22.7%  (Kмод 4.41)
-• ТМ 6.5: 88.1%  (Kмод 1.13)
-• ТБ 6.5: 11.9%  (Kмод 8.43)
-Индивидуальные тоталы:
-• Северсталь ИТБ 1.5: 76.3% (Kмод 1.31)
-• Северсталь ИТБ 2.5: 52.3% (Kмод 1.91)
-• Салават Юлаев ИТБ 1.5: 37.7% (Kмод 2.66)
-• Салават Юлаев ИТБ 2.5: 14.5% (Kмод 6.89)
-Фора +1.5:
-• Северсталь +1.5: 93.8% (Kмод 1.07)
-• Салават Юлаев +1.5: 52.3% (Kмод 1.91)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>46009.8125</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Динамо М – Барыс</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>КХЛ • Регулярный чемпионат • 18.12.2025
-Динамо М – Барыс
-Ожидания модели (60’):
-• Голы: λ_total ≈ 4.74 (3.39 : 1.35)
-• Броски: SOG λ ≈ 53 (29 : 24)
-Исход (60’), честные кф:
-• П1: 76.1%  (Kмод 1.31)
-• Х:  12.5%  (Kмод 7.97)
-• П2: 11.2%  (Kмод 8.90)
-Тоталы голов:
-• ТМ 4.5: 48.7%  (Kмод 2.05)
-• ТБ 4.5: 51.2%  (Kмод 1.95)
-• ТМ 5.5: 66.1%  (Kмод 1.51)
-• ТБ 5.5: 33.8%  (Kмод 2.96)
-• ТМ 6.5: 79.9%  (Kмод 1.25)
-• ТБ 6.5: 20.0%  (Kмод 4.99)
-Индивидуальные тоталы:
-• Динамо М ИТБ 1.5: 85.2% (Kмод 1.17)
-• Динамо М ИТБ 2.5: 65.9% (Kмод 1.52)
-• Барыс ИТБ 1.5: 39.0% (Kмод 2.56)
-• Барыс ИТБ 2.5: 15.4% (Kмод 6.49)
-Фора +1.5:
-• Динамо М +1.5: 95.6% (Kмод 1.05)
-• Барыс +1.5: 41.2% (Kмод 2.43)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>46009.8125</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>СКА – Ак Барс</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>КХЛ • Регулярный чемпионат • 18.12.2025
-СКА – Ак Барс
-Ожидания модели (60’):
-• Голы: λ_total ≈ 4.60 (2.64 : 1.96)
-• Броски: SOG λ ≈ 63 (32 : 30)
-Исход (60’), честные кф:
-• П1: 52.9%  (Kмод 1.89)
-• Х:  18.4%  (Kмод 5.45)
-• П2: 28.7%  (Kмод 3.48)
-Тоталы голов:
-• ТМ 4.5: 51.3%  (Kмод 1.95)
-• ТБ 4.5: 48.7%  (Kмод 2.06)
-• ТМ 5.5: 68.6%  (Kмод 1.46)
-• ТБ 5.5: 31.4%  (Kмод 3.18)
-• ТМ 6.5: 81.8%  (Kмод 1.22)
-• ТБ 6.5: 18.2%  (Kмод 5.50)
-Индивидуальные тоталы:
-• СКА ИТБ 1.5: 74.0% (Kмод 1.35)
-• СКА ИТБ 2.5: 49.1% (Kмод 2.04)
-• Ак Барс ИТБ 1.5: 58.3% (Kмод 1.71)
-• Ак Барс ИТБ 2.5: 31.3% (Kмод 3.20)
-Фора +1.5:
-• СКА +1.5: 85.2% (Kмод 1.17)
-• Ак Барс +1.5: 65.9% (Kмод 1.52)</t>
+• Драконы +1.5: 82.2% (Kмод 1.22)
+• Лада +1.5: 63.1% (Kмод 1.59)</t>
         </is>
       </c>
     </row>

--- a/khl/khl_probabilities_human_tour.xlsx
+++ b/khl/khl_probabilities_human_tour.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
         <v>1369</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46010.64583333334</v>
+        <v>46012.5625</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -689,141 +689,141 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Сибирь – Адмирал</t>
+          <t>Сибирь – Амур</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>897881</v>
+        <v>897889</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897881.html</t>
+          <t>https://text.khl.ru/text/897889.html</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.508387</v>
+        <v>2.119583</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2</v>
+        <v>1.566641</v>
       </c>
       <c r="J2" t="n">
-        <v>2.708387</v>
+        <v>3.686225</v>
       </c>
       <c r="K2" t="n">
-        <v>23.079923</v>
+        <v>30.079763</v>
       </c>
       <c r="L2" t="n">
-        <v>27.688713</v>
+        <v>27.002774</v>
       </c>
       <c r="M2" t="n">
-        <v>50.768635</v>
+        <v>57.082537</v>
       </c>
       <c r="N2" t="n">
-        <v>0.474744</v>
+        <v>0.540635</v>
       </c>
       <c r="O2" t="n">
-        <v>0.19579</v>
+        <v>0.160882</v>
       </c>
       <c r="P2" t="n">
-        <v>0.329424</v>
+        <v>0.297732</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.106398395766982</v>
+        <v>1.84967676898462</v>
       </c>
       <c r="R2" t="n">
-        <v>5.107513151846367</v>
+        <v>6.215735756641513</v>
       </c>
       <c r="S2" t="n">
-        <v>3.035601534800136</v>
+        <v>3.358725296575444</v>
       </c>
       <c r="T2" t="n">
-        <v>47.4744</v>
+        <v>54.0635</v>
       </c>
       <c r="U2" t="n">
-        <v>19.579</v>
+        <v>16.0882</v>
       </c>
       <c r="V2" t="n">
-        <v>32.9424</v>
+        <v>29.7732</v>
       </c>
       <c r="W2" t="n">
-        <v>0.569254</v>
+        <v>0.301222</v>
       </c>
       <c r="X2" t="n">
-        <v>0.430704</v>
+        <v>0.698026</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.321780155280657</v>
+        <v>1.432611392698839</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.735643</v>
+        <v>0.464885</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.264314</v>
+        <v>0.534363</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.783378859992282</v>
+        <v>1.871387053370087</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.855059</v>
+        <v>0.625318</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.144899</v>
+        <v>0.37393</v>
       </c>
       <c r="AE2" t="n">
-        <v>6.901358877562992</v>
+        <v>2.674297328376969</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.680276</v>
+        <v>0.844359</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.319724</v>
+        <v>0.155641</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.469991591648096</v>
+        <v>1.184330361848456</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.416896</v>
+        <v>0.64547</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.583104</v>
+        <v>0.35453</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.398679766656433</v>
+        <v>1.549258679721753</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.582282</v>
+        <v>0.7242150000000001</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.417718</v>
+        <v>0.275785</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.717380925393538</v>
+        <v>1.380805423803705</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.311737</v>
+        <v>0.470741</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.688263</v>
+        <v>0.529259</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.20783224320501</v>
+        <v>2.124310395737783</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.826691</v>
+        <v>0.829865</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.209641812962764</v>
+        <v>1.205015273568593</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.712628</v>
+        <v>0.625482</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.403256678098531</v>
+        <v>1.598767030865796</v>
       </c>
     </row>
     <row r="3">
@@ -831,150 +831,150 @@
         <v>1369</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46010.70833333334</v>
+        <v>46012.625</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Трактор – Металлург Мг</t>
+          <t>Автомобилист – Адмирал</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>897883</v>
+        <v>897887</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897883.html</t>
+          <t>https://text.khl.ru/text/897887.html</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5.211111</v>
+        <v>4.694118</v>
       </c>
       <c r="I3" t="n">
-        <v>5.288889</v>
+        <v>1.233333</v>
       </c>
       <c r="J3" t="n">
-        <v>10.5</v>
+        <v>5.927451</v>
       </c>
       <c r="K3" t="n">
-        <v>35.630589</v>
+        <v>31.854488</v>
       </c>
       <c r="L3" t="n">
-        <v>36.669117</v>
+        <v>26.681133</v>
       </c>
       <c r="M3" t="n">
-        <v>72.299707</v>
+        <v>58.535621</v>
       </c>
       <c r="N3" t="n">
-        <v>0.311429</v>
+        <v>0.663741</v>
       </c>
       <c r="O3" t="n">
-        <v>0.131284</v>
+        <v>0.135116</v>
       </c>
       <c r="P3" t="n">
-        <v>0.544567</v>
+        <v>0.198614</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.211004755498043</v>
+        <v>1.506611765733923</v>
       </c>
       <c r="R3" t="n">
-        <v>7.617074434051369</v>
+        <v>7.401047988395156</v>
       </c>
       <c r="S3" t="n">
-        <v>1.836321334197629</v>
+        <v>5.034891800175214</v>
       </c>
       <c r="T3" t="n">
-        <v>31.1429</v>
+        <v>66.3741</v>
       </c>
       <c r="U3" t="n">
-        <v>13.1284</v>
+        <v>13.5116</v>
       </c>
       <c r="V3" t="n">
-        <v>54.4567</v>
+        <v>19.8614</v>
       </c>
       <c r="W3" t="n">
-        <v>0.066438</v>
+        <v>0.249676</v>
       </c>
       <c r="X3" t="n">
-        <v>0.920842</v>
+        <v>0.747796</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.085962629853982</v>
+        <v>1.337263103841154</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.135977</v>
+        <v>0.402259</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.851303</v>
+        <v>0.595213</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.174669888394614</v>
+        <v>1.680070831786268</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.236671</v>
+        <v>0.5618880000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.750609</v>
+        <v>0.435584</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.33225154507873</v>
+        <v>2.295768439612107</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.899639</v>
+        <v>0.903235</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.100361</v>
+        <v>0.096765</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.111556968961995</v>
+        <v>1.107131588124907</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.744587</v>
+        <v>0.751613</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.255413</v>
+        <v>0.248387</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.343026402556048</v>
+        <v>1.330471931698893</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.952387</v>
+        <v>0.679633</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.047613</v>
+        <v>0.320367</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.049993332542338</v>
+        <v>1.471382349003065</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.857748</v>
+        <v>0.416142</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.142252</v>
+        <v>0.583858</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.165843581098411</v>
+        <v>2.403025890200941</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.579935</v>
+        <v>0.894209</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.724331175045479</v>
+        <v>1.118306794049266</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.78685</v>
+        <v>0.493499</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.270890258626167</v>
+        <v>2.026346557946419</v>
       </c>
     </row>
     <row r="4">
@@ -982,150 +982,452 @@
         <v>1369</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>46010.8125</v>
+        <v>46012.625</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Барыс – ХК Сочи</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>897888</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897888.html</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1.657143</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.857143</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26.696492</v>
+      </c>
+      <c r="L4" t="n">
+        <v>24.465028</v>
+      </c>
+      <c r="M4" t="n">
+        <v>51.161521</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7183659999999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.127573</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.152113</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.392048064635576</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7.838649243962281</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.574060073760954</v>
+      </c>
+      <c r="T4" t="n">
+        <v>71.83659999999999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12.7573</v>
+      </c>
+      <c r="V4" t="n">
+        <v>15.2113</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.325686</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.672366</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.487285198835158</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.493241</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.504811</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.980939401082781</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.652708</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.345344</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2.895663454410675</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.892923</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.107077</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.119917394892953</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.73168</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.26832</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.36671769079379</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.56819</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.43181</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.759974656364948</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.298125</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.701875</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>3.354297693920336</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.927381</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.078305464528603</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.442138</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>2.261737285643849</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>46012.70833333334</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ЦСКА – Динамо М</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>897891</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897891.html</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3.097291</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.212037</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.309328</v>
+      </c>
+      <c r="K5" t="n">
+        <v>27.052298</v>
+      </c>
+      <c r="L5" t="n">
+        <v>31.127614</v>
+      </c>
+      <c r="M5" t="n">
+        <v>58.179911</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.313238</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.175449</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.511087</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.192460684846666</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.699662010042805</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.95661404027103</v>
+      </c>
+      <c r="T5" t="n">
+        <v>31.3238</v>
+      </c>
+      <c r="U5" t="n">
+        <v>17.5449</v>
+      </c>
+      <c r="V5" t="n">
+        <v>51.1087</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.41512</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.584654</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.710413338487379</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.590217</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.409557</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2.44166257688185</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.740415</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.259359</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3.855659529840877</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.664969</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.335031</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.503829501826401</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.399177</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.600823</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.505154355085589</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.779734</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.220266</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.282488643563061</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.545858</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.454142</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.831978280065512</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.664817</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.504173328901036</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.826832</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.209435532248389</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>46012.71527777778</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Лада</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Драконы – Лада</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>897882</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897882.html</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2.820256</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.389474</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.20973</v>
-      </c>
-      <c r="K4" t="n">
-        <v>31.730456</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25.059845</v>
-      </c>
-      <c r="M4" t="n">
-        <v>56.790301</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.533076</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.159959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.306113</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.875905124222437</v>
-      </c>
-      <c r="R4" t="n">
-        <v>6.251601973005583</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.266767500890194</v>
-      </c>
-      <c r="T4" t="n">
-        <v>53.3076</v>
-      </c>
-      <c r="U4" t="n">
-        <v>15.9959</v>
-      </c>
-      <c r="V4" t="n">
-        <v>30.6113</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.2833</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.715848</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.396944602764833</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.443569</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.555578</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.799927282937769</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.60419</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.394957</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2.531921196484681</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.849534</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.150466</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1.177115924730499</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.654128</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.345872</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1.528752782330064</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.741136</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.258864</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1.349280024179098</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.492743</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.507257</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>2.029455517379243</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.822283</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>1.216126321473264</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.630687</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>1.585572558178621</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Динамо Мн – Лада</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>897890</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897890.html</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="K6" t="n">
+        <v>41.531495</v>
+      </c>
+      <c r="L6" t="n">
+        <v>21.68186</v>
+      </c>
+      <c r="M6" t="n">
+        <v>63.213355</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.897023</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.054868</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.036448</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.114798617203795</v>
+      </c>
+      <c r="R6" t="n">
+        <v>18.22555952467741</v>
+      </c>
+      <c r="S6" t="n">
+        <v>27.43634767339772</v>
+      </c>
+      <c r="T6" t="n">
+        <v>89.70230000000001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.4868</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.6448</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.271784</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.716556</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.395564338307125</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.429619</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.55872</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.789805269186713</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.590108</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.398232</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.511099057835634</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.955361</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.044639</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.046724745933736</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.8649480000000001</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.135052</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.156138866151491</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.344589</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.655411</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.902007899265502</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.124879</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.875121</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>8.007751503455344</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.97632</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.024254342838414</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.189048</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>5.289661884812323</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,115 +1468,191 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46010.64583333334</v>
+        <v>46012.5625</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Сибирь – Адмирал</t>
+          <t>Сибирь – Амур</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 19.12.2025
-Сибирь – Адмирал
+          <t>КХЛ • Регулярный чемпионат • 21.12.2025
+Сибирь – Амур
 Ожидания модели (60’):
-• Голы: λ_total ≈ 4.31 (2.35 : 1.96)
-• Броски: SOG λ ≈ 51 (23 : 28)
+• Голы: λ_total ≈ 5.88 (3.32 : 2.56)
+• Броски: SOG λ ≈ 57 (30 : 27)
 Исход (60’), честные кф:
-• П1: 47.5%  (Kмод 2.11)
-• Х:  19.6%  (Kмод 5.11)
-• П2: 32.9%  (Kмод 3.04)
+• П1: 54.1%  (Kмод 1.85)
+• Х:  16.1%  (Kмод 6.22)
+• П2: 29.8%  (Kмод 3.36)
 Тоталы голов:
-• ТМ 4.5: 56.9%  (Kмод 1.76)
-• ТБ 4.5: 43.1%  (Kмод 2.32)
-• ТМ 5.5: 73.6%  (Kмод 1.36)
-• ТБ 5.5: 26.4%  (Kмод 3.78)
-• ТМ 6.5: 85.5%  (Kмод 1.17)
-• ТБ 6.5: 14.5%  (Kмод 6.90)
+• ТМ 4.5: 30.1%  (Kмод 3.32)
+• ТБ 4.5: 69.8%  (Kмод 1.43)
+• ТМ 5.5: 46.5%  (Kмод 2.15)
+• ТБ 5.5: 53.4%  (Kмод 1.87)
+• ТМ 6.5: 62.5%  (Kмод 1.60)
+• ТБ 6.5: 37.4%  (Kмод 2.67)
 Индивидуальные тоталы:
-• Сибирь ИТБ 1.5: 68.0% (Kмод 1.47)
-• Сибирь ИТБ 2.5: 41.7% (Kмод 2.40)
-• Адмирал ИТБ 1.5: 58.2% (Kмод 1.72)
-• Адмирал ИТБ 2.5: 31.2% (Kмод 3.21)
+• Сибирь ИТБ 1.5: 84.4% (Kмод 1.18)
+• Сибирь ИТБ 2.5: 64.5% (Kмод 1.55)
+• Амур ИТБ 1.5: 72.4% (Kмод 1.38)
+• Амур ИТБ 2.5: 47.1% (Kмод 2.12)
 Фора +1.5:
-• Сибирь +1.5: 82.7% (Kмод 1.21)
-• Адмирал +1.5: 71.3% (Kмод 1.40)</t>
+• Сибирь +1.5: 83.0% (Kмод 1.21)
+• Амур +1.5: 62.5% (Kмод 1.60)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46010.70833333334</v>
+        <v>46012.625</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Трактор – Металлург Мг</t>
+          <t>Автомобилист – Адмирал</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 19.12.2025
-Трактор – Металлург Мг
+          <t>КХЛ • Регулярный чемпионат • 21.12.2025
+Автомобилист – Адмирал
 Ожидания модели (60’):
-• Голы: λ_total ≈ 8.69 (3.89 : 4.80)
-• Броски: SOG λ ≈ 72 (36 : 37)
+• Голы: λ_total ≈ 6.28 (3.93 : 2.35)
+• Броски: SOG λ ≈ 59 (32 : 27)
 Исход (60’), честные кф:
-• П1: 31.1%  (Kмод 3.21)
-• Х:  13.1%  (Kмод 7.62)
-• П2: 54.5%  (Kмод 1.84)
+• П1: 66.4%  (Kмод 1.51)
+• Х:  13.5%  (Kмод 7.40)
+• П2: 19.9%  (Kмод 5.03)
 Тоталы голов:
-• ТМ 4.5: 6.6%  (Kмод 15.05)
-• ТБ 4.5: 92.1%  (Kмод 1.09)
-• ТМ 5.5: 13.6%  (Kмод 7.35)
-• ТБ 5.5: 85.1%  (Kмод 1.17)
-• ТМ 6.5: 23.7%  (Kмод 4.23)
-• ТБ 6.5: 75.1%  (Kмод 1.33)
+• ТМ 4.5: 25.0%  (Kмод 4.01)
+• ТБ 4.5: 74.8%  (Kмод 1.34)
+• ТМ 5.5: 40.2%  (Kмод 2.49)
+• ТБ 5.5: 59.5%  (Kмод 1.68)
+• ТМ 6.5: 56.2%  (Kмод 1.78)
+• ТБ 6.5: 43.6%  (Kмод 2.30)
 Индивидуальные тоталы:
-• Трактор ИТБ 1.5: 90.0% (Kмод 1.11)
-• Трактор ИТБ 2.5: 74.5% (Kмод 1.34)
-• Металлург Мг ИТБ 1.5: 95.2% (Kмод 1.05)
-• Металлург Мг ИТБ 2.5: 85.8% (Kмод 1.17)
+• Автомобилист ИТБ 1.5: 90.3% (Kмод 1.11)
+• Автомобилист ИТБ 2.5: 75.2% (Kмод 1.33)
+• Адмирал ИТБ 1.5: 68.0% (Kмод 1.47)
+• Адмирал ИТБ 2.5: 41.6% (Kмод 2.40)
 Фора +1.5:
-• Трактор +1.5: 58.0% (Kмод 1.72)
-• Металлург Мг +1.5: 78.7% (Kмод 1.27)</t>
+• Автомобилист +1.5: 89.4% (Kмод 1.12)
+• Адмирал +1.5: 49.3% (Kмод 2.03)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46010.8125</v>
+        <v>46012.625</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Драконы – Лада</t>
+          <t>Барыс – ХК Сочи</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>КХЛ • Регулярный чемпионат • 19.12.2025
-Драконы – Лада
+          <t>КХЛ • Регулярный чемпионат • 21.12.2025
+Барыс – ХК Сочи
 Ожидания модели (60’):
-• Голы: λ_total ≈ 6.01 (3.37 : 2.64)
-• Броски: SOG λ ≈ 57 (32 : 25)
+• Голы: λ_total ≈ 5.71 (3.80 : 1.91)
+• Броски: SOG λ ≈ 51 (27 : 24)
 Исход (60’), честные кф:
-• П1: 53.3%  (Kмод 1.88)
-• Х:  16.0%  (Kмод 6.25)
-• П2: 30.6%  (Kмод 3.27)
+• П1: 71.8%  (Kмод 1.39)
+• Х:  12.8%  (Kмод 7.84)
+• П2: 15.2%  (Kмод 6.57)
 Тоталы голов:
-• ТМ 4.5: 28.3%  (Kмод 3.53)
-• ТБ 4.5: 71.6%  (Kмод 1.40)
-• ТМ 5.5: 44.4%  (Kмод 2.25)
-• ТБ 5.5: 55.6%  (Kмод 1.80)
-• ТМ 6.5: 60.4%  (Kмод 1.66)
-• ТБ 6.5: 39.5%  (Kмод 2.53)
+• ТМ 4.5: 32.6%  (Kмод 3.07)
+• ТБ 4.5: 67.2%  (Kмод 1.49)
+• ТМ 5.5: 49.3%  (Kмод 2.03)
+• ТБ 5.5: 50.5%  (Kмод 1.98)
+• ТМ 6.5: 65.3%  (Kмод 1.53)
+• ТБ 6.5: 34.5%  (Kмод 2.90)
 Индивидуальные тоталы:
-• Драконы ИТБ 1.5: 85.0% (Kмод 1.18)
-• Драконы ИТБ 2.5: 65.4% (Kмод 1.53)
-• Лада ИТБ 1.5: 74.1% (Kмод 1.35)
-• Лада ИТБ 2.5: 49.3% (Kмод 2.03)
+• Барыс ИТБ 1.5: 89.3% (Kмод 1.12)
+• Барыс ИТБ 2.5: 73.2% (Kмод 1.37)
+• ХК Сочи ИТБ 1.5: 56.8% (Kмод 1.76)
+• ХК Сочи ИТБ 2.5: 29.8% (Kмод 3.35)
 Фора +1.5:
-• Драконы +1.5: 82.2% (Kмод 1.22)
-• Лада +1.5: 63.1% (Kмод 1.59)</t>
+• Барыс +1.5: 92.7% (Kмод 1.08)
+• ХК Сочи +1.5: 44.2% (Kмод 2.26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>46012.70833333334</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ЦСКА – Динамо М</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 21.12.2025
+ЦСКА – Динамо М
+Ожидания модели (60’):
+• Голы: λ_total ≈ 5.15 (2.28 : 2.86)
+• Броски: SOG λ ≈ 58 (27 : 31)
+Исход (60’), честные кф:
+• П1: 31.3%  (Kмод 3.19)
+• Х:  17.5%  (Kмод 5.70)
+• П2: 51.1%  (Kмод 1.96)
+Тоталы голов:
+• ТМ 4.5: 41.5%  (Kмод 2.41)
+• ТБ 4.5: 58.5%  (Kмод 1.71)
+• ТМ 5.5: 59.0%  (Kмод 1.69)
+• ТБ 5.5: 41.0%  (Kмод 2.44)
+• ТМ 6.5: 74.0%  (Kмод 1.35)
+• ТБ 6.5: 25.9%  (Kмод 3.86)
+Индивидуальные тоталы:
+• ЦСКА ИТБ 1.5: 66.5% (Kмод 1.50)
+• ЦСКА ИТБ 2.5: 39.9% (Kмод 2.51)
+• Динамо М ИТБ 1.5: 78.0% (Kмод 1.28)
+• Динамо М ИТБ 2.5: 54.6% (Kмод 1.83)
+Фора +1.5:
+• ЦСКА +1.5: 66.5% (Kмод 1.50)
+• Динамо М +1.5: 82.7% (Kмод 1.21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>46012.71527777778</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Динамо Мн – Лада</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>КХЛ • Регулярный чемпионат • 21.12.2025
+Динамо Мн – Лада
+Ожидания модели (60’):
+• Голы: λ_total ≈ 6.10 (4.88 : 1.22)
+• Броски: SOG λ ≈ 63 (42 : 22)
+Исход (60’), честные кф:
+• П1: 89.7%  (Kмод 1.11)
+• Х:  5.5%  (Kмод 18.23)
+• П2: 3.6%  (Kмод 27.44)
+Тоталы голов:
+• ТМ 4.5: 27.2%  (Kмод 3.68)
+• ТБ 4.5: 71.7%  (Kмод 1.40)
+• ТМ 5.5: 43.0%  (Kмод 2.33)
+• ТБ 5.5: 55.9%  (Kмод 1.79)
+• ТМ 6.5: 59.0%  (Kмод 1.69)
+• ТБ 6.5: 39.8%  (Kмод 2.51)
+Индивидуальные тоталы:
+• Динамо Мн ИТБ 1.5: 95.5% (Kмод 1.05)
+• Динамо Мн ИТБ 2.5: 86.5% (Kмод 1.16)
+• Лада ИТБ 1.5: 34.5% (Kмод 2.90)
+• Лада ИТБ 2.5: 12.5% (Kмод 8.01)
+Фора +1.5:
+• Динамо Мн +1.5: 97.6% (Kмод 1.02)
+• Лада +1.5: 18.9% (Kмод 5.29)</t>
         </is>
       </c>
     </row>
